--- a/RELIANCE.NS_adaptive_supertrend.xlsx
+++ b/RELIANCE.NS_adaptive_supertrend.xlsx
@@ -4925,10 +4925,10 @@
         <v>15.23740362870066</v>
       </c>
       <c r="K111" t="n">
-        <v>26.52844848632812</v>
+        <v>26.52844848632813</v>
       </c>
       <c r="L111" t="n">
-        <v>21.55851679262908</v>
+        <v>21.55851679262907</v>
       </c>
       <c r="M111" t="n">
         <v>15.23740362870066</v>
@@ -4946,7 +4946,7 @@
         <v>1126.925301320929</v>
       </c>
       <c r="R111" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S111" t="n">
         <v>1126.925301320929</v>
@@ -5014,10 +5014,14 @@
         <v>1130.166551378038</v>
       </c>
       <c r="R112" t="n">
-        <v>1</v>
-      </c>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1130.166551378038</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1220.333448621962</v>
+      </c>
       <c r="U112" t="n">
         <v>1220.333448621962</v>
       </c>
@@ -5078,10 +5082,14 @@
         <v>1130.166551378038</v>
       </c>
       <c r="R113" t="n">
-        <v>1</v>
-      </c>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1130.166551378038</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1216.899050564236</v>
+      </c>
       <c r="U113" t="n">
         <v>1216.899050564236</v>
       </c>
@@ -5142,10 +5150,14 @@
         <v>1127.100949435764</v>
       </c>
       <c r="R114" t="n">
-        <v>1</v>
-      </c>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1127.100949435764</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1200.476053873698</v>
+      </c>
       <c r="U114" t="n">
         <v>1200.476053873698</v>
       </c>
@@ -5206,10 +5218,14 @@
         <v>1110.923970540365</v>
       </c>
       <c r="R115" t="n">
-        <v>1</v>
-      </c>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S115" t="n">
+        <v>1110.923970540365</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1197.312443033854</v>
+      </c>
       <c r="U115" t="n">
         <v>1197.312443033854</v>
       </c>
@@ -5270,10 +5286,14 @@
         <v>1108.187556966146</v>
       </c>
       <c r="R116" t="n">
-        <v>1</v>
-      </c>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1108.187556966146</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1184.759793429904</v>
+      </c>
       <c r="U116" t="n">
         <v>1184.759793429904</v>
       </c>
@@ -5334,10 +5354,14 @@
         <v>1095.990206570096</v>
       </c>
       <c r="R117" t="n">
-        <v>1</v>
-      </c>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1095.990206570096</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1175.401826307509</v>
+      </c>
       <c r="U117" t="n">
         <v>1175.401826307509</v>
       </c>
@@ -5398,10 +5422,14 @@
         <v>1086.698149278429</v>
       </c>
       <c r="R118" t="n">
-        <v>1</v>
-      </c>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1086.698149278429</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1163.886581759983</v>
+      </c>
       <c r="U118" t="n">
         <v>1163.886581759983</v>
       </c>
@@ -5462,10 +5490,14 @@
         <v>1083.093623860677</v>
       </c>
       <c r="R119" t="n">
-        <v>1</v>
-      </c>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S119" t="n">
+        <v>1083.093623860677</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1171.63135172526</v>
+      </c>
       <c r="U119" t="n">
         <v>1171.63135172526</v>
       </c>
@@ -5526,10 +5558,14 @@
         <v>1086.189447817595</v>
       </c>
       <c r="R120" t="n">
-        <v>1</v>
-      </c>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>1086.189447817595</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1211.285527768342</v>
+      </c>
       <c r="U120" t="n">
         <v>1211.285527768342</v>
       </c>
@@ -5590,10 +5626,14 @@
         <v>1091.241133939303</v>
       </c>
       <c r="R121" t="n">
-        <v>1</v>
-      </c>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>1091.241133939303</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1214.208817232572</v>
+      </c>
       <c r="U121" t="n">
         <v>1214.208817232572</v>
       </c>
@@ -5633,7 +5673,7 @@
         <v>20.01267722800926</v>
       </c>
       <c r="K122" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L122" t="n">
         <v>20.01267722800926</v>
@@ -5654,10 +5694,14 @@
         <v>1091.241133939303</v>
       </c>
       <c r="R122" t="n">
-        <v>1</v>
-      </c>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S122" t="n">
+        <v>1091.241133939303</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1208.213019476997</v>
+      </c>
       <c r="U122" t="n">
         <v>1208.213019476997</v>
       </c>
@@ -5697,7 +5741,7 @@
         <v>20.02633143833705</v>
       </c>
       <c r="K123" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L123" t="n">
         <v>20.02633143833705</v>
@@ -5718,10 +5762,14 @@
         <v>1097.983505684989</v>
       </c>
       <c r="R123" t="n">
-        <v>1</v>
-      </c>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S123" t="n">
+        <v>1097.983505684989</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1218.141494315011</v>
+      </c>
       <c r="U123" t="n">
         <v>1218.141494315011</v>
       </c>
@@ -5761,7 +5809,7 @@
         <v>20.00611319706358</v>
       </c>
       <c r="K124" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L124" t="n">
         <v>20.00611319706358</v>
@@ -5782,10 +5830,14 @@
         <v>1102.656648201778</v>
       </c>
       <c r="R124" t="n">
-        <v>1</v>
-      </c>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1102.656648201778</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1222.693327384159</v>
+      </c>
       <c r="U124" t="n">
         <v>1222.693327384159</v>
       </c>
@@ -5825,7 +5877,7 @@
         <v>19.98090942382812</v>
       </c>
       <c r="K125" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L125" t="n">
         <v>19.98090942382812</v>
@@ -5846,10 +5898,14 @@
         <v>1106.457296142578</v>
       </c>
       <c r="R125" t="n">
-        <v>1</v>
-      </c>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S125" t="n">
+        <v>1106.457296142578</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1226.342752685547</v>
+      </c>
       <c r="U125" t="n">
         <v>1226.342752685547</v>
       </c>
@@ -5889,7 +5945,7 @@
         <v>19.96039645287298</v>
       </c>
       <c r="K126" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L126" t="n">
         <v>19.96039645287298</v>
@@ -5910,10 +5966,14 @@
         <v>1106.457296142578</v>
       </c>
       <c r="R126" t="n">
-        <v>1</v>
-      </c>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1106.457296142578</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1224.543725979713</v>
+      </c>
       <c r="U126" t="n">
         <v>1224.543725979713</v>
       </c>
@@ -5953,7 +6013,7 @@
         <v>14.42749449264171</v>
       </c>
       <c r="K127" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L127" t="n">
         <v>19.89202499389648</v>
@@ -5974,10 +6034,14 @@
         <v>1122.405016522075</v>
       </c>
       <c r="R127" t="n">
-        <v>1</v>
-      </c>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S127" t="n">
+        <v>1122.405016522075</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1208.969983477925</v>
+      </c>
       <c r="U127" t="n">
         <v>1208.969983477925</v>
       </c>
@@ -6014,16 +6078,16 @@
         <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>14.49862117323765</v>
+        <v>14.49862117323764</v>
       </c>
       <c r="K128" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L128" t="n">
         <v>19.89202499389648</v>
       </c>
       <c r="M128" t="n">
-        <v>14.49862117323765</v>
+        <v>14.49862117323764</v>
       </c>
       <c r="N128" t="n">
         <v>25</v>
@@ -6038,10 +6102,14 @@
         <v>1122.405016522075</v>
       </c>
       <c r="R128" t="n">
-        <v>1</v>
-      </c>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S128" t="n">
+        <v>1122.405016522075</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1203.520826898619</v>
+      </c>
       <c r="U128" t="n">
         <v>1203.520826898619</v>
       </c>
@@ -6081,7 +6149,7 @@
         <v>14.5626101471657</v>
       </c>
       <c r="K129" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L129" t="n">
         <v>19.89202499389648</v>
@@ -6102,10 +6170,14 @@
         <v>1116.529099859193</v>
       </c>
       <c r="R129" t="n">
-        <v>1</v>
-      </c>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S129" t="n">
+        <v>1116.529099859193</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1197.287867062591</v>
+      </c>
       <c r="U129" t="n">
         <v>1197.287867062591</v>
       </c>
@@ -6145,7 +6217,7 @@
         <v>14.59537353515625</v>
       </c>
       <c r="K130" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L130" t="n">
         <v>19.89202499389648</v>
@@ -6166,10 +6238,14 @@
         <v>1115.288891601562</v>
       </c>
       <c r="R130" t="n">
-        <v>1</v>
-      </c>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S130" t="n">
+        <v>1115.288891601562</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1202.8611328125</v>
+      </c>
       <c r="U130" t="n">
         <v>1202.8611328125</v>
       </c>
@@ -6209,7 +6285,7 @@
         <v>14.56056248864462</v>
       </c>
       <c r="K131" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L131" t="n">
         <v>19.89202499389648</v>
@@ -6230,10 +6306,14 @@
         <v>1128.555800327035</v>
       </c>
       <c r="R131" t="n">
-        <v>1</v>
-      </c>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>1128.555800327035</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1215.919175258903</v>
+      </c>
       <c r="U131" t="n">
         <v>1215.919175258903</v>
       </c>
@@ -6273,7 +6353,7 @@
         <v>14.52482569494913</v>
       </c>
       <c r="K132" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L132" t="n">
         <v>19.89202499389648</v>
@@ -6294,10 +6374,14 @@
         <v>1136.700486294059</v>
       </c>
       <c r="R132" t="n">
-        <v>1</v>
-      </c>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S132" t="n">
+        <v>1136.700486294059</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1223.849440463754</v>
+      </c>
       <c r="U132" t="n">
         <v>1223.849440463754</v>
       </c>
@@ -6334,16 +6418,16 @@
         <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>14.47748739553052</v>
+        <v>14.47748739553053</v>
       </c>
       <c r="K133" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L133" t="n">
         <v>19.89202499389648</v>
       </c>
       <c r="M133" t="n">
-        <v>14.47748739553052</v>
+        <v>14.47748739553053</v>
       </c>
       <c r="N133" t="n">
         <v>25</v>
@@ -6358,10 +6442,14 @@
         <v>1137.89255002044</v>
       </c>
       <c r="R133" t="n">
-        <v>1</v>
-      </c>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S133" t="n">
+        <v>1137.89255002044</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1224.757474393623</v>
+      </c>
       <c r="U133" t="n">
         <v>1224.757474393623</v>
       </c>
@@ -6401,7 +6489,7 @@
         <v>14.40693927143895</v>
       </c>
       <c r="K134" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L134" t="n">
         <v>19.89202499389648</v>
@@ -6422,10 +6510,14 @@
         <v>1137.89255002044</v>
       </c>
       <c r="R134" t="n">
-        <v>1</v>
-      </c>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S134" t="n">
+        <v>1137.89255002044</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1216.920768986192</v>
+      </c>
       <c r="U134" t="n">
         <v>1216.920768986192</v>
       </c>
@@ -6465,7 +6557,7 @@
         <v>14.34721367414608</v>
       </c>
       <c r="K135" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L135" t="n">
         <v>19.89202499389648</v>
@@ -6486,10 +6578,14 @@
         <v>1144.008346770531</v>
       </c>
       <c r="R135" t="n">
-        <v>1</v>
-      </c>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S135" t="n">
+        <v>1144.008346770531</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1230.091628815407</v>
+      </c>
       <c r="U135" t="n">
         <v>1230.091628815407</v>
       </c>
@@ -6529,7 +6625,7 @@
         <v>14.30614212390988</v>
       </c>
       <c r="K136" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L136" t="n">
         <v>19.89202499389648</v>
@@ -6550,10 +6646,14 @@
         <v>1148.744049214208</v>
       </c>
       <c r="R136" t="n">
-        <v>1</v>
-      </c>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S136" t="n">
+        <v>1148.744049214208</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1234.580901957667</v>
+      </c>
       <c r="U136" t="n">
         <v>1234.580901957667</v>
       </c>
@@ -6593,7 +6693,7 @@
         <v>14.28586539335029</v>
       </c>
       <c r="K137" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L137" t="n">
         <v>19.89202499389648</v>
@@ -6614,10 +6714,14 @@
         <v>1154.192391612918</v>
       </c>
       <c r="R137" t="n">
-        <v>1</v>
-      </c>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S137" t="n">
+        <v>1154.192391612918</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1239.90758397302</v>
+      </c>
       <c r="U137" t="n">
         <v>1239.90758397302</v>
       </c>
@@ -6657,7 +6761,7 @@
         <v>14.25327687817951</v>
       </c>
       <c r="K138" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L138" t="n">
         <v>19.89202499389648</v>
@@ -6678,10 +6782,14 @@
         <v>1155.652705986555</v>
       </c>
       <c r="R138" t="n">
-        <v>1</v>
-      </c>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S138" t="n">
+        <v>1155.652705986555</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1241.172367255632</v>
+      </c>
       <c r="U138" t="n">
         <v>1241.172367255632</v>
       </c>
@@ -6721,7 +6829,7 @@
         <v>14.19715121956759</v>
       </c>
       <c r="K139" t="n">
-        <v>25.92720068359375</v>
+        <v>25.92720068359376</v>
       </c>
       <c r="L139" t="n">
         <v>19.89202499389648</v>
@@ -6742,10 +6850,14 @@
         <v>1155.652705986555</v>
       </c>
       <c r="R139" t="n">
-        <v>1</v>
-      </c>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S139" t="n">
+        <v>1155.652705986555</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1236.328941451671</v>
+      </c>
       <c r="U139" t="n">
         <v>1236.328941451671</v>
       </c>
@@ -6788,7 +6900,7 @@
         <v>25.695556640625</v>
       </c>
       <c r="L140" t="n">
-        <v>19.13575010557432</v>
+        <v>19.13575010557433</v>
       </c>
       <c r="M140" t="n">
         <v>13.59333157009549</v>
@@ -6806,10 +6918,14 @@
         <v>1161.720005289714</v>
       </c>
       <c r="R140" t="n">
-        <v>1</v>
-      </c>
-      <c r="S140" t="inlineStr"/>
-      <c r="T140" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S140" t="n">
+        <v>1161.720005289714</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1243.279994710286</v>
+      </c>
       <c r="U140" t="n">
         <v>1243.279994710286</v>
       </c>
@@ -6870,10 +6986,14 @@
         <v>1161.720005289714</v>
       </c>
       <c r="R141" t="n">
-        <v>1</v>
-      </c>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S141" t="n">
+        <v>1161.720005289714</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1233.316984269426</v>
+      </c>
       <c r="U141" t="n">
         <v>1233.316984269426</v>
       </c>
@@ -6934,10 +7054,14 @@
         <v>1153.005335115132</v>
       </c>
       <c r="R142" t="n">
-        <v>1</v>
-      </c>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S142" t="n">
+        <v>1153.005335115132</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1233.994664884868</v>
+      </c>
       <c r="U142" t="n">
         <v>1233.994664884868</v>
       </c>
@@ -6998,10 +7122,14 @@
         <v>1171.850607534555</v>
       </c>
       <c r="R143" t="n">
-        <v>1</v>
-      </c>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S143" t="n">
+        <v>1171.850607534555</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1252.44944129357</v>
+      </c>
       <c r="U143" t="n">
         <v>1252.44944129357</v>
       </c>
@@ -7044,7 +7172,7 @@
         <v>25.695556640625</v>
       </c>
       <c r="L144" t="n">
-        <v>19.3150664358428</v>
+        <v>19.31506643584281</v>
       </c>
       <c r="M144" t="n">
         <v>13.41443542480469</v>
@@ -7062,10 +7190,14 @@
         <v>1175.381693725586</v>
       </c>
       <c r="R144" t="n">
-        <v>1</v>
-      </c>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1175.381693725586</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1255.868306274414</v>
+      </c>
       <c r="U144" t="n">
         <v>1255.868306274414</v>
       </c>
@@ -7102,16 +7234,16 @@
         <v>2</v>
       </c>
       <c r="J145" t="n">
-        <v>13.3949980945122</v>
+        <v>13.39499809451219</v>
       </c>
       <c r="K145" t="n">
-        <v>25.7918217585637</v>
+        <v>25.79182175856371</v>
       </c>
       <c r="L145" t="n">
-        <v>19.3150664358428</v>
+        <v>19.31506643584281</v>
       </c>
       <c r="M145" t="n">
-        <v>13.3949980945122</v>
+        <v>13.39499809451219</v>
       </c>
       <c r="N145" t="n">
         <v>26</v>
@@ -7126,10 +7258,14 @@
         <v>1186.802493509432</v>
       </c>
       <c r="R145" t="n">
-        <v>1</v>
-      </c>
-      <c r="S145" t="inlineStr"/>
-      <c r="T145" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S145" t="n">
+        <v>1186.802493509432</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1267.172482076505</v>
+      </c>
       <c r="U145" t="n">
         <v>1267.172482076505</v>
       </c>
@@ -7166,16 +7302,16 @@
         <v>2</v>
       </c>
       <c r="J146" t="n">
-        <v>13.37565307617187</v>
+        <v>13.37565307617188</v>
       </c>
       <c r="K146" t="n">
         <v>25.88055859375</v>
       </c>
       <c r="L146" t="n">
-        <v>19.3150664358428</v>
+        <v>19.31506643584281</v>
       </c>
       <c r="M146" t="n">
-        <v>13.37565307617187</v>
+        <v>13.37565307617188</v>
       </c>
       <c r="N146" t="n">
         <v>25</v>
@@ -7190,10 +7326,14 @@
         <v>1186.802493509432</v>
       </c>
       <c r="R146" t="n">
-        <v>1</v>
-      </c>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S146" t="n">
+        <v>1186.802493509432</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1265.864447021484</v>
+      </c>
       <c r="U146" t="n">
         <v>1265.864447021484</v>
       </c>
@@ -7254,10 +7394,14 @@
         <v>1190.364352346021</v>
       </c>
       <c r="R147" t="n">
-        <v>1</v>
-      </c>
-      <c r="S147" t="inlineStr"/>
-      <c r="T147" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S147" t="n">
+        <v>1190.364352346021</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1270.485623239916</v>
+      </c>
       <c r="U147" t="n">
         <v>1270.485623239916</v>
       </c>
@@ -7297,7 +7441,7 @@
         <v>13.3550556529652</v>
       </c>
       <c r="K148" t="n">
-        <v>26.27203427269345</v>
+        <v>26.27203427269346</v>
       </c>
       <c r="L148" t="n">
         <v>19.51420584542411</v>
@@ -7318,10 +7462,14 @@
         <v>1190.364352346021</v>
       </c>
       <c r="R148" t="n">
-        <v>1</v>
-      </c>
-      <c r="S148" t="inlineStr"/>
-      <c r="T148" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S148" t="n">
+        <v>1190.364352346021</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1270.065166958896</v>
+      </c>
       <c r="U148" t="n">
         <v>1270.065166958896</v>
       </c>
@@ -7361,7 +7509,7 @@
         <v>13.36055474175347</v>
       </c>
       <c r="K149" t="n">
-        <v>26.29966613769531</v>
+        <v>26.29966613769532</v>
       </c>
       <c r="L149" t="n">
         <v>19.51420584542411</v>
@@ -7382,10 +7530,14 @@
         <v>1189.934833041104</v>
       </c>
       <c r="R149" t="n">
-        <v>1</v>
-      </c>
-      <c r="S149" t="inlineStr"/>
-      <c r="T149" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S149" t="n">
+        <v>1189.934833041104</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1261.356627604167</v>
+      </c>
       <c r="U149" t="n">
         <v>1261.356627604167</v>
       </c>
@@ -7425,7 +7577,7 @@
         <v>13.4546807471742</v>
       </c>
       <c r="K150" t="n">
-        <v>26.29304391961349</v>
+        <v>26.29304391961348</v>
       </c>
       <c r="L150" t="n">
         <v>19.60212330537684</v>
@@ -7446,10 +7598,14 @@
         <v>1181.193299153646</v>
       </c>
       <c r="R150" t="n">
-        <v>1</v>
-      </c>
-      <c r="S150" t="inlineStr"/>
-      <c r="T150" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S150" t="n">
+        <v>1181.193299153646</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1251.526578862616</v>
+      </c>
       <c r="U150" t="n">
         <v>1251.526578862616</v>
       </c>
@@ -7510,10 +7666,14 @@
         <v>1188.917774963379</v>
       </c>
       <c r="R151" t="n">
-        <v>1</v>
-      </c>
-      <c r="S151" t="inlineStr"/>
-      <c r="T151" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S151" t="n">
+        <v>1188.917774963379</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1269.882151794434</v>
+      </c>
       <c r="U151" t="n">
         <v>1269.882151794434</v>
       </c>
@@ -7574,10 +7734,14 @@
         <v>1188.917774963379</v>
       </c>
       <c r="R152" t="n">
-        <v>1</v>
-      </c>
-      <c r="S152" t="inlineStr"/>
-      <c r="T152" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S152" t="n">
+        <v>1188.917774963379</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1301.588394442472</v>
+      </c>
       <c r="U152" t="n">
         <v>1301.588394442472</v>
       </c>
@@ -7638,10 +7802,14 @@
         <v>1216.022149658203</v>
       </c>
       <c r="R153" t="n">
-        <v>1</v>
-      </c>
-      <c r="S153" t="inlineStr"/>
-      <c r="T153" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S153" t="n">
+        <v>1216.022149658203</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1296.902777099609</v>
+      </c>
       <c r="U153" t="n">
         <v>1296.902777099609</v>
       </c>
@@ -7702,10 +7870,14 @@
         <v>1217.0605030733</v>
       </c>
       <c r="R154" t="n">
-        <v>1</v>
-      </c>
-      <c r="S154" t="inlineStr"/>
-      <c r="T154" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S154" t="n">
+        <v>1217.0605030733</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1332.489423684513</v>
+      </c>
       <c r="U154" t="n">
         <v>1332.489423684513</v>
       </c>
@@ -7766,10 +7938,14 @@
         <v>1222.127761928013</v>
       </c>
       <c r="R155" t="n">
-        <v>1</v>
-      </c>
-      <c r="S155" t="inlineStr"/>
-      <c r="T155" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S155" t="n">
+        <v>1222.127761928013</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1337.297286900112</v>
+      </c>
       <c r="U155" t="n">
         <v>1337.297286900112</v>
       </c>
@@ -7830,10 +8006,14 @@
         <v>1222.127761928013</v>
       </c>
       <c r="R156" t="n">
-        <v>1</v>
-      </c>
-      <c r="S156" t="inlineStr"/>
-      <c r="T156" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S156" t="n">
+        <v>1222.127761928013</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1346.548233032227</v>
+      </c>
       <c r="U156" t="n">
         <v>1346.548233032227</v>
       </c>
@@ -7894,10 +8074,14 @@
         <v>1209.971065848214</v>
       </c>
       <c r="R157" t="n">
-        <v>1</v>
-      </c>
-      <c r="S157" t="inlineStr"/>
-      <c r="T157" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S157" t="n">
+        <v>1209.971065848214</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1354.303836495536</v>
+      </c>
       <c r="U157" t="n">
         <v>1354.303836495536</v>
       </c>
@@ -7958,10 +8142,14 @@
         <v>1219.303495279948</v>
       </c>
       <c r="R158" t="n">
-        <v>1</v>
-      </c>
-      <c r="S158" t="inlineStr"/>
-      <c r="T158" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>1219.303495279948</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1358.021455891927</v>
+      </c>
       <c r="U158" t="n">
         <v>1358.021455891927</v>
       </c>
@@ -8004,7 +8192,7 @@
         <v>22.80425938197545</v>
       </c>
       <c r="L159" t="n">
-        <v>17.66910792759487</v>
+        <v>17.66910792759486</v>
       </c>
       <c r="M159" t="n">
         <v>13.24176219593395</v>
@@ -8022,10 +8210,14 @@
         <v>1224.837221854074</v>
       </c>
       <c r="R159" t="n">
-        <v>1</v>
-      </c>
-      <c r="S159" t="inlineStr"/>
-      <c r="T159" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S159" t="n">
+        <v>1224.837221854074</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1361.662778145926</v>
+      </c>
       <c r="U159" t="n">
         <v>1361.662778145926</v>
       </c>
@@ -8068,7 +8260,7 @@
         <v>22.63330557686942</v>
       </c>
       <c r="L160" t="n">
-        <v>17.66910792759487</v>
+        <v>17.66910792759486</v>
       </c>
       <c r="M160" t="n">
         <v>13.24176219593395</v>
@@ -8086,10 +8278,14 @@
         <v>1231.812607683454</v>
       </c>
       <c r="R160" t="n">
-        <v>1</v>
-      </c>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S160" t="n">
+        <v>1231.812607683454</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1367.612441144671</v>
+      </c>
       <c r="U160" t="n">
         <v>1367.612441144671</v>
       </c>
@@ -8132,7 +8328,7 @@
         <v>22.42740042550223</v>
       </c>
       <c r="L161" t="n">
-        <v>17.66910792759487</v>
+        <v>17.66910792759486</v>
       </c>
       <c r="M161" t="n">
         <v>13.24176219593395</v>
@@ -8150,10 +8346,14 @@
         <v>1231.812607683454</v>
       </c>
       <c r="R161" t="n">
-        <v>1</v>
-      </c>
-      <c r="S161" t="inlineStr"/>
-      <c r="T161" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S161" t="n">
+        <v>1231.812607683454</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1365.607213483538</v>
+      </c>
       <c r="U161" t="n">
         <v>1365.607213483538</v>
       </c>
@@ -8196,7 +8396,7 @@
         <v>22.21891871861049</v>
       </c>
       <c r="L162" t="n">
-        <v>17.66910792759487</v>
+        <v>17.66910792759486</v>
       </c>
       <c r="M162" t="n">
         <v>13.24176219593395</v>
@@ -8214,10 +8414,14 @@
         <v>1231.042810930525</v>
       </c>
       <c r="R162" t="n">
-        <v>1</v>
-      </c>
-      <c r="S162" t="inlineStr"/>
-      <c r="T162" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S162" t="n">
+        <v>1231.042810930525</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1361.656756155832</v>
+      </c>
       <c r="U162" t="n">
         <v>1361.656756155832</v>
       </c>
@@ -8260,7 +8464,7 @@
         <v>22.02106236049107</v>
       </c>
       <c r="L163" t="n">
-        <v>17.66910792759487</v>
+        <v>17.66910792759486</v>
       </c>
       <c r="M163" t="n">
         <v>13.24176219593395</v>
@@ -8278,10 +8482,14 @@
         <v>1230.936812918527</v>
       </c>
       <c r="R163" t="n">
-        <v>1</v>
-      </c>
-      <c r="S163" t="inlineStr"/>
-      <c r="T163" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S163" t="n">
+        <v>1230.936812918527</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1363.063187081473</v>
+      </c>
       <c r="U163" t="n">
         <v>1363.063187081473</v>
       </c>
@@ -8324,7 +8532,7 @@
         <v>21.91231340680804</v>
       </c>
       <c r="L164" t="n">
-        <v>17.66910792759487</v>
+        <v>17.66910792759486</v>
       </c>
       <c r="M164" t="n">
         <v>13.24176219593395</v>
@@ -8342,10 +8550,14 @@
         <v>1237.063047572545</v>
       </c>
       <c r="R164" t="n">
-        <v>1</v>
-      </c>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S164" t="n">
+        <v>1237.063047572545</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1368.536928013393</v>
+      </c>
       <c r="U164" t="n">
         <v>1368.536928013393</v>
       </c>
@@ -8382,13 +8594,13 @@
         <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>17.66910792759487</v>
+        <v>17.66910792759486</v>
       </c>
       <c r="K165" t="n">
         <v>21.89276123046875</v>
       </c>
       <c r="L165" t="n">
-        <v>17.66910792759487</v>
+        <v>17.66910792759486</v>
       </c>
       <c r="M165" t="n">
         <v>13.24176219593395</v>
@@ -8406,10 +8618,14 @@
         <v>1244.23022504534</v>
       </c>
       <c r="R165" t="n">
-        <v>1</v>
-      </c>
-      <c r="S165" t="inlineStr"/>
-      <c r="T165" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S165" t="n">
+        <v>1244.23022504534</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1350.24487261091</v>
+      </c>
       <c r="U165" t="n">
         <v>1350.24487261091</v>
       </c>
@@ -8449,7 +8665,7 @@
         <v>17.69370748585668</v>
       </c>
       <c r="K166" t="n">
-        <v>21.89545762803819</v>
+        <v>21.8954576280382</v>
       </c>
       <c r="L166" t="n">
         <v>17.69370748585668</v>
@@ -8470,10 +8686,14 @@
         <v>1251.381401956492</v>
       </c>
       <c r="R166" t="n">
-        <v>1</v>
-      </c>
-      <c r="S166" t="inlineStr"/>
-      <c r="T166" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S166" t="n">
+        <v>1251.381401956492</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1357.543646871633</v>
+      </c>
       <c r="U166" t="n">
         <v>1357.543646871633</v>
       </c>
@@ -8510,13 +8730,13 @@
         <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>17.66325073242188</v>
+        <v>17.66325073242187</v>
       </c>
       <c r="K167" t="n">
         <v>21.92547701322115</v>
       </c>
       <c r="L167" t="n">
-        <v>17.66325073242188</v>
+        <v>17.66325073242187</v>
       </c>
       <c r="M167" t="n">
         <v>13.24176219593395</v>
@@ -8534,10 +8754,14 @@
         <v>1251.381401956492</v>
       </c>
       <c r="R167" t="n">
-        <v>1</v>
-      </c>
-      <c r="S167" t="inlineStr"/>
-      <c r="T167" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S167" t="n">
+        <v>1251.381401956492</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1353.214727783203</v>
+      </c>
       <c r="U167" t="n">
         <v>1353.214727783203</v>
       </c>
@@ -8598,10 +8822,14 @@
         <v>1247.235223388672</v>
       </c>
       <c r="R168" t="n">
-        <v>1</v>
-      </c>
-      <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S168" t="n">
+        <v>1247.235223388672</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1349.048228405368</v>
+      </c>
       <c r="U168" t="n">
         <v>1349.048228405368</v>
       </c>
@@ -8662,10 +8890,14 @@
         <v>1242.951771594632</v>
       </c>
       <c r="R169" t="n">
-        <v>1</v>
-      </c>
-      <c r="S169" t="inlineStr"/>
-      <c r="T169" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S169" t="n">
+        <v>1242.951771594632</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1374.537196350098</v>
+      </c>
       <c r="U169" t="n">
         <v>1374.537196350098</v>
       </c>
@@ -8726,10 +8958,14 @@
         <v>1279.595622253418</v>
       </c>
       <c r="R170" t="n">
-        <v>1</v>
-      </c>
-      <c r="S170" t="inlineStr"/>
-      <c r="T170" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S170" t="n">
+        <v>1279.595622253418</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1411.404377746582</v>
+      </c>
       <c r="U170" t="n">
         <v>1411.404377746582</v>
       </c>
@@ -8766,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>22.0772944132487</v>
+        <v>22.07729441324869</v>
       </c>
       <c r="K171" t="n">
-        <v>22.0772944132487</v>
+        <v>22.07729441324869</v>
       </c>
       <c r="L171" t="n">
         <v>17.70156364440918</v>
@@ -8790,10 +9026,14 @@
         <v>1293.305592346191</v>
       </c>
       <c r="R171" t="n">
-        <v>1</v>
-      </c>
-      <c r="S171" t="inlineStr"/>
-      <c r="T171" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S171" t="n">
+        <v>1293.305592346191</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1425.769358825684</v>
+      </c>
       <c r="U171" t="n">
         <v>1425.769358825684</v>
       </c>
@@ -8854,10 +9094,14 @@
         <v>1314.510588073731</v>
       </c>
       <c r="R172" t="n">
-        <v>1</v>
-      </c>
-      <c r="S172" t="inlineStr"/>
-      <c r="T172" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S172" t="n">
+        <v>1314.510588073731</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1447.939363098144</v>
+      </c>
       <c r="U172" t="n">
         <v>1447.939363098144</v>
       </c>
@@ -8894,10 +9138,10 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>22.40104624430338</v>
+        <v>22.40104624430339</v>
       </c>
       <c r="K173" t="n">
-        <v>22.40104624430338</v>
+        <v>22.40104624430339</v>
       </c>
       <c r="L173" t="n">
         <v>17.70156364440918</v>
@@ -8918,10 +9162,14 @@
         <v>1316.196885681152</v>
       </c>
       <c r="R173" t="n">
-        <v>1</v>
-      </c>
-      <c r="S173" t="inlineStr"/>
-      <c r="T173" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S173" t="n">
+        <v>1316.196885681152</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1450.603163146973</v>
+      </c>
       <c r="U173" t="n">
         <v>1450.603163146973</v>
       </c>
@@ -8982,10 +9230,14 @@
         <v>1316.196885681152</v>
       </c>
       <c r="R174" t="n">
-        <v>1</v>
-      </c>
-      <c r="S174" t="inlineStr"/>
-      <c r="T174" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S174" t="n">
+        <v>1316.196885681152</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1438.422225952148</v>
+      </c>
       <c r="U174" t="n">
         <v>1438.422225952148</v>
       </c>
@@ -9046,10 +9298,14 @@
         <v>1302.877822875977</v>
       </c>
       <c r="R175" t="n">
-        <v>1</v>
-      </c>
-      <c r="S175" t="inlineStr"/>
-      <c r="T175" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S175" t="n">
+        <v>1302.877822875977</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1431.515856933594</v>
+      </c>
       <c r="U175" t="n">
         <v>1431.515856933594</v>
       </c>
@@ -9110,10 +9366,14 @@
         <v>1295.305445861816</v>
       </c>
       <c r="R176" t="n">
-        <v>1</v>
-      </c>
-      <c r="S176" t="inlineStr"/>
-      <c r="T176" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S176" t="n">
+        <v>1295.305445861816</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1439.694554138184</v>
+      </c>
       <c r="U176" t="n">
         <v>1439.694554138184</v>
       </c>
@@ -9174,10 +9434,14 @@
         <v>1295.305445861816</v>
       </c>
       <c r="R177" t="n">
-        <v>1</v>
-      </c>
-      <c r="S177" t="inlineStr"/>
-      <c r="T177" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S177" t="n">
+        <v>1295.305445861816</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1422.100425368089</v>
+      </c>
       <c r="U177" t="n">
         <v>1422.100425368089</v>
       </c>
@@ -9214,10 +9478,10 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>25.38077298677884</v>
+        <v>25.38077298677885</v>
       </c>
       <c r="K178" t="n">
-        <v>25.38077298677884</v>
+        <v>25.38077298677885</v>
       </c>
       <c r="L178" t="n">
         <v>18.6703056521532</v>
@@ -9238,10 +9502,14 @@
         <v>1272.199623460036</v>
       </c>
       <c r="R178" t="n">
-        <v>1</v>
-      </c>
-      <c r="S178" t="inlineStr"/>
-      <c r="T178" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S178" t="n">
+        <v>1272.199623460036</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1412.854843374399</v>
+      </c>
       <c r="U178" t="n">
         <v>1412.854843374399</v>
       </c>
@@ -9302,10 +9570,14 @@
         <v>1271.296234130859</v>
       </c>
       <c r="R179" t="n">
-        <v>1</v>
-      </c>
-      <c r="S179" t="inlineStr"/>
-      <c r="T179" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S179" t="n">
+        <v>1271.296234130859</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1428.053741455078</v>
+      </c>
       <c r="U179" t="n">
         <v>1428.053741455078</v>
       </c>
@@ -9342,10 +9614,10 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>26.89568093039773</v>
+        <v>26.89568093039772</v>
       </c>
       <c r="K180" t="n">
-        <v>26.89568093039773</v>
+        <v>26.89568093039772</v>
       </c>
       <c r="L180" t="n">
         <v>18.9192862374442</v>
@@ -9366,10 +9638,14 @@
         <v>1325.650481622869</v>
       </c>
       <c r="R180" t="n">
-        <v>1</v>
-      </c>
-      <c r="S180" t="inlineStr"/>
-      <c r="T180" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S180" t="n">
+        <v>1325.650481622869</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1487.024567205256</v>
+      </c>
       <c r="U180" t="n">
         <v>1487.024567205256</v>
       </c>
@@ -9406,13 +9682,13 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>28.38299682617188</v>
+        <v>28.38299682617187</v>
       </c>
       <c r="K181" t="n">
-        <v>28.38299682617188</v>
+        <v>28.38299682617187</v>
       </c>
       <c r="L181" t="n">
-        <v>19.16189173256479</v>
+        <v>19.16189173256478</v>
       </c>
       <c r="M181" t="n">
         <v>13.53382742745536</v>
@@ -9430,10 +9706,14 @@
         <v>1347.051021728516</v>
       </c>
       <c r="R181" t="n">
-        <v>1</v>
-      </c>
-      <c r="S181" t="inlineStr"/>
-      <c r="T181" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S181" t="n">
+        <v>1347.051021728516</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1517.349002685547</v>
+      </c>
       <c r="U181" t="n">
         <v>1517.349002685547</v>
       </c>
@@ -9470,10 +9750,10 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>29.28408757990057</v>
+        <v>29.28408757990056</v>
       </c>
       <c r="K182" t="n">
-        <v>29.28408757990057</v>
+        <v>29.28408757990056</v>
       </c>
       <c r="L182" t="n">
         <v>18.9370840890067</v>
@@ -9494,10 +9774,14 @@
         <v>1347.051021728516</v>
       </c>
       <c r="R182" t="n">
-        <v>1</v>
-      </c>
-      <c r="S182" t="inlineStr"/>
-      <c r="T182" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S182" t="n">
+        <v>1347.051021728516</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1506.227262739702</v>
+      </c>
       <c r="U182" t="n">
         <v>1506.227262739702</v>
       </c>
@@ -9558,10 +9842,14 @@
         <v>1339.091617098722</v>
       </c>
       <c r="R183" t="n">
-        <v>1</v>
-      </c>
-      <c r="S183" t="inlineStr"/>
-      <c r="T183" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S183" t="n">
+        <v>1339.091617098722</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1522.308407315341</v>
+      </c>
       <c r="U183" t="n">
         <v>1522.308407315341</v>
       </c>
@@ -9622,10 +9910,14 @@
         <v>1351.171850585938</v>
       </c>
       <c r="R184" t="n">
-        <v>1</v>
-      </c>
-      <c r="S184" t="inlineStr"/>
-      <c r="T184" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S184" t="n">
+        <v>1351.171850585938</v>
+      </c>
+      <c r="T184" t="n">
+        <v>1556.90322265625</v>
+      </c>
       <c r="U184" t="n">
         <v>1556.90322265625</v>
       </c>
@@ -9662,13 +9954,13 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>36.87832438151041</v>
+        <v>36.87832438151042</v>
       </c>
       <c r="K185" t="n">
-        <v>36.87832438151041</v>
+        <v>36.87832438151042</v>
       </c>
       <c r="L185" t="n">
-        <v>22.837201171875</v>
+        <v>22.83720117187501</v>
       </c>
       <c r="M185" t="n">
         <v>14.69402280061141</v>
@@ -9686,10 +9978,14 @@
         <v>1351.171850585938</v>
       </c>
       <c r="R185" t="n">
-        <v>1</v>
-      </c>
-      <c r="S185" t="inlineStr"/>
-      <c r="T185" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S185" t="n">
+        <v>1351.171850585938</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1561.647485351562</v>
+      </c>
       <c r="U185" t="n">
         <v>1561.647485351562</v>
       </c>
@@ -9726,10 +10022,10 @@
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>38.77749226888021</v>
+        <v>38.77749226888022</v>
       </c>
       <c r="K186" t="n">
-        <v>38.77749226888021</v>
+        <v>38.77749226888022</v>
       </c>
       <c r="L186" t="n">
         <v>23.13586566631611</v>
@@ -9750,10 +10046,14 @@
         <v>1340.3775390625</v>
       </c>
       <c r="R186" t="n">
-        <v>1</v>
-      </c>
-      <c r="S186" t="inlineStr"/>
-      <c r="T186" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S186" t="n">
+        <v>1340.3775390625</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1547.169940185547</v>
+      </c>
       <c r="U186" t="n">
         <v>1547.169940185547</v>
       </c>
@@ -9799,7 +10099,7 @@
         <v>23.13586566631611</v>
       </c>
       <c r="M187" t="n">
-        <v>14.61582249883395</v>
+        <v>14.61582249883396</v>
       </c>
       <c r="N187" t="n">
         <v>7</v>
@@ -9814,10 +10114,14 @@
         <v>1321.44716796875</v>
       </c>
       <c r="R187" t="n">
-        <v>1</v>
-      </c>
-      <c r="S187" t="inlineStr"/>
-      <c r="T187" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S187" t="n">
+        <v>1321.44716796875</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1557.30283203125</v>
+      </c>
       <c r="U187" t="n">
         <v>1557.30283203125</v>
       </c>
@@ -9878,10 +10182,14 @@
         <v>1325.406901550293</v>
       </c>
       <c r="R188" t="n">
-        <v>1</v>
-      </c>
-      <c r="S188" t="inlineStr"/>
-      <c r="T188" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S188" t="n">
+        <v>1325.406901550293</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1561.593098449707</v>
+      </c>
       <c r="U188" t="n">
         <v>1561.593098449707</v>
       </c>
@@ -9942,10 +10250,14 @@
         <v>1343.02832438151</v>
       </c>
       <c r="R189" t="n">
-        <v>1</v>
-      </c>
-      <c r="S189" t="inlineStr"/>
-      <c r="T189" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S189" t="n">
+        <v>1343.02832438151</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1579.896602376302</v>
+      </c>
       <c r="U189" t="n">
         <v>1579.896602376302</v>
       </c>
@@ -9982,10 +10294,10 @@
         <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="K190" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L190" t="n">
         <v>23.13586566631611</v>
@@ -10006,10 +10318,14 @@
         <v>1343.02832438151</v>
       </c>
       <c r="R190" t="n">
-        <v>1</v>
-      </c>
-      <c r="S190" t="inlineStr"/>
-      <c r="T190" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S190" t="n">
+        <v>1343.02832438151</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1570.168956298828</v>
+      </c>
       <c r="U190" t="n">
         <v>1570.168956298828</v>
       </c>
@@ -10049,13 +10365,13 @@
         <v>24.16945588485054</v>
       </c>
       <c r="K191" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L191" t="n">
         <v>24.16945588485054</v>
       </c>
       <c r="M191" t="n">
-        <v>14.93011347073228</v>
+        <v>14.93011347073227</v>
       </c>
       <c r="N191" t="n">
         <v>10</v>
@@ -10070,10 +10386,14 @@
         <v>1393.991632345448</v>
       </c>
       <c r="R191" t="n">
-        <v>1</v>
-      </c>
-      <c r="S191" t="inlineStr"/>
-      <c r="T191" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S191" t="n">
+        <v>1393.991632345448</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1539.008367654552</v>
+      </c>
       <c r="U191" t="n">
         <v>1539.008367654552</v>
       </c>
@@ -10110,13 +10430,13 @@
         <v>1</v>
       </c>
       <c r="J192" t="n">
-        <v>24.55815005095109</v>
+        <v>24.55815005095108</v>
       </c>
       <c r="K192" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L192" t="n">
-        <v>24.55815005095109</v>
+        <v>24.55815005095108</v>
       </c>
       <c r="M192" t="n">
         <v>15.01794961957789</v>
@@ -10134,10 +10454,14 @@
         <v>1396.900562054178</v>
       </c>
       <c r="R192" t="n">
-        <v>1</v>
-      </c>
-      <c r="S192" t="inlineStr"/>
-      <c r="T192" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S192" t="n">
+        <v>1396.900562054178</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1544.249462359885</v>
+      </c>
       <c r="U192" t="n">
         <v>1544.249462359885</v>
       </c>
@@ -10177,7 +10501,7 @@
         <v>24.70780995686849</v>
       </c>
       <c r="K193" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L193" t="n">
         <v>24.70780995686849</v>
@@ -10198,10 +10522,14 @@
         <v>1401.501570129395</v>
       </c>
       <c r="R193" t="n">
-        <v>1</v>
-      </c>
-      <c r="S193" t="inlineStr"/>
-      <c r="T193" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S193" t="n">
+        <v>1401.501570129395</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1549.748429870605</v>
+      </c>
       <c r="U193" t="n">
         <v>1549.748429870605</v>
       </c>
@@ -10241,7 +10569,7 @@
         <v>24.81709716796875</v>
       </c>
       <c r="K194" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L194" t="n">
         <v>24.81709716796875</v>
@@ -10262,10 +10590,14 @@
         <v>1401.501570129395</v>
       </c>
       <c r="R194" t="n">
-        <v>1</v>
-      </c>
-      <c r="S194" t="inlineStr"/>
-      <c r="T194" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S194" t="n">
+        <v>1401.501570129395</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1542.226315917969</v>
+      </c>
       <c r="U194" t="n">
         <v>1542.226315917969</v>
       </c>
@@ -10305,7 +10637,7 @@
         <v>24.80336209810697</v>
       </c>
       <c r="K195" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L195" t="n">
         <v>24.80336209810697</v>
@@ -10326,10 +10658,14 @@
         <v>1393.323732910156</v>
       </c>
       <c r="R195" t="n">
-        <v>1</v>
-      </c>
-      <c r="S195" t="inlineStr"/>
-      <c r="T195" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S195" t="n">
+        <v>1393.323732910156</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1540.922598501352</v>
+      </c>
       <c r="U195" t="n">
         <v>1540.922598501352</v>
       </c>
@@ -10390,10 +10726,14 @@
         <v>1394.422535536024</v>
       </c>
       <c r="R196" t="n">
-        <v>1</v>
-      </c>
-      <c r="S196" t="inlineStr"/>
-      <c r="T196" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S196" t="n">
+        <v>1394.422535536024</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1542.877513292101</v>
+      </c>
       <c r="U196" t="n">
         <v>1542.877513292101</v>
       </c>
@@ -10433,7 +10773,7 @@
         <v>24.65624564034598</v>
       </c>
       <c r="K197" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L197" t="n">
         <v>24.65624564034598</v>
@@ -10454,10 +10794,14 @@
         <v>1399.068799700056</v>
       </c>
       <c r="R197" t="n">
-        <v>1</v>
-      </c>
-      <c r="S197" t="inlineStr"/>
-      <c r="T197" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S197" t="n">
+        <v>1399.068799700056</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1547.006273542132</v>
+      </c>
       <c r="U197" t="n">
         <v>1547.006273542132</v>
       </c>
@@ -10497,7 +10841,7 @@
         <v>24.44666259765625</v>
       </c>
       <c r="K198" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L198" t="n">
         <v>24.44666259765625</v>
@@ -10518,10 +10862,14 @@
         <v>1399.068799700056</v>
       </c>
       <c r="R198" t="n">
-        <v>1</v>
-      </c>
-      <c r="S198" t="inlineStr"/>
-      <c r="T198" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S198" t="n">
+        <v>1399.068799700056</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1544.814963378906</v>
+      </c>
       <c r="U198" t="n">
         <v>1544.814963378906</v>
       </c>
@@ -10561,13 +10909,13 @@
         <v>24.39209220640121</v>
       </c>
       <c r="K199" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L199" t="n">
         <v>24.39209220640121</v>
       </c>
       <c r="M199" t="n">
-        <v>14.79330640889831</v>
+        <v>14.7933064088983</v>
       </c>
       <c r="N199" t="n">
         <v>10</v>
@@ -10582,10 +10930,14 @@
         <v>1417.273735587828</v>
       </c>
       <c r="R199" t="n">
-        <v>1</v>
-      </c>
-      <c r="S199" t="inlineStr"/>
-      <c r="T199" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S199" t="n">
+        <v>1417.273735587828</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1563.626288826235</v>
+      </c>
       <c r="U199" t="n">
         <v>1563.626288826235</v>
       </c>
@@ -10631,7 +10983,7 @@
         <v>24.32202644348145</v>
       </c>
       <c r="M200" t="n">
-        <v>14.77336362641434</v>
+        <v>14.77336362641433</v>
       </c>
       <c r="N200" t="n">
         <v>10</v>
@@ -10646,10 +10998,14 @@
         <v>1417.273735587828</v>
       </c>
       <c r="R200" t="n">
-        <v>1</v>
-      </c>
-      <c r="S200" t="inlineStr"/>
-      <c r="T200" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S200" t="n">
+        <v>1417.273735587828</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1561.478591537475</v>
+      </c>
       <c r="U200" t="n">
         <v>1561.478591537475</v>
       </c>
@@ -10689,13 +11045,13 @@
         <v>24.23613133285985</v>
       </c>
       <c r="K201" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L201" t="n">
         <v>24.23613133285985</v>
       </c>
       <c r="M201" t="n">
-        <v>14.7337736430921</v>
+        <v>14.73377364309211</v>
       </c>
       <c r="N201" t="n">
         <v>10</v>
@@ -10710,10 +11066,14 @@
         <v>1416.29160600142</v>
       </c>
       <c r="R201" t="n">
-        <v>1</v>
-      </c>
-      <c r="S201" t="inlineStr"/>
-      <c r="T201" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S201" t="n">
+        <v>1416.29160600142</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1561.70839399858</v>
+      </c>
       <c r="U201" t="n">
         <v>1561.70839399858</v>
       </c>
@@ -10774,10 +11134,14 @@
         <v>1416.29160600142</v>
       </c>
       <c r="R202" t="n">
-        <v>1</v>
-      </c>
-      <c r="S202" t="inlineStr"/>
-      <c r="T202" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S202" t="n">
+        <v>1416.29160600142</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1540.976914854307</v>
+      </c>
       <c r="U202" t="n">
         <v>1540.976914854307</v>
       </c>
@@ -10817,7 +11181,7 @@
         <v>23.39335005910773</v>
       </c>
       <c r="K203" t="n">
-        <v>38.77998823686079</v>
+        <v>38.7799882368608</v>
       </c>
       <c r="L203" t="n">
         <v>23.39335005910773</v>
@@ -10838,10 +11202,14 @@
         <v>1400.47315838788</v>
       </c>
       <c r="R203" t="n">
-        <v>1</v>
-      </c>
-      <c r="S203" t="inlineStr"/>
-      <c r="T203" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S203" t="n">
+        <v>1400.47315838788</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1536.930050177323</v>
+      </c>
       <c r="U203" t="n">
         <v>1536.930050177323</v>
       </c>
@@ -10902,10 +11270,14 @@
         <v>1411.090017465445</v>
       </c>
       <c r="R204" t="n">
-        <v>1</v>
-      </c>
-      <c r="S204" t="inlineStr"/>
-      <c r="T204" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>1411.090017465445</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1551.409982534555</v>
+      </c>
       <c r="U204" t="n">
         <v>1551.409982534555</v>
       </c>
@@ -10942,13 +11314,13 @@
         <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>23.4321810913086</v>
+        <v>23.43218109130859</v>
       </c>
       <c r="K205" t="n">
         <v>38.7799882368608</v>
       </c>
       <c r="L205" t="n">
-        <v>23.4321810913086</v>
+        <v>23.43218109130859</v>
       </c>
       <c r="M205" t="n">
         <v>14.14893176020408</v>
@@ -10966,10 +11338,14 @@
         <v>1429.54092010498</v>
       </c>
       <c r="R205" t="n">
-        <v>1</v>
-      </c>
-      <c r="S205" t="inlineStr"/>
-      <c r="T205" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S205" t="n">
+        <v>1429.54092010498</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1570.134006652832</v>
+      </c>
       <c r="U205" t="n">
         <v>1570.134006652832</v>
       </c>
@@ -11030,10 +11406,14 @@
         <v>1429.54092010498</v>
       </c>
       <c r="R206" t="n">
-        <v>1</v>
-      </c>
-      <c r="S206" t="inlineStr"/>
-      <c r="T206" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S206" t="n">
+        <v>1429.54092010498</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1567.14599133003</v>
+      </c>
       <c r="U206" t="n">
         <v>1567.14599133003</v>
       </c>
@@ -11073,7 +11453,7 @@
         <v>23.71900379269622</v>
       </c>
       <c r="K207" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L207" t="n">
         <v>23.71900379269622</v>
@@ -11094,10 +11474,14 @@
         <v>1426.304081912157</v>
       </c>
       <c r="R207" t="n">
-        <v>1</v>
-      </c>
-      <c r="S207" t="inlineStr"/>
-      <c r="T207" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S207" t="n">
+        <v>1426.304081912157</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1564.907011378089</v>
+      </c>
       <c r="U207" t="n">
         <v>1564.907011378089</v>
       </c>
@@ -11137,7 +11521,7 @@
         <v>23.76743496981534</v>
       </c>
       <c r="K208" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L208" t="n">
         <v>23.76743496981534</v>
@@ -11158,10 +11542,14 @@
         <v>1422.592988621911</v>
       </c>
       <c r="R208" t="n">
-        <v>1</v>
-      </c>
-      <c r="S208" t="inlineStr"/>
-      <c r="T208" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S208" t="n">
+        <v>1422.592988621911</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1560.627317116477</v>
+      </c>
       <c r="U208" t="n">
         <v>1560.627317116477</v>
       </c>
@@ -11201,7 +11589,7 @@
         <v>23.81504692925347</v>
       </c>
       <c r="K209" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L209" t="n">
         <v>23.81504692925347</v>
@@ -11222,10 +11610,14 @@
         <v>1418.022707297585</v>
       </c>
       <c r="R209" t="n">
-        <v>1</v>
-      </c>
-      <c r="S209" t="inlineStr"/>
-      <c r="T209" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S209" t="n">
+        <v>1418.022707297585</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1547.69514078776</v>
+      </c>
       <c r="U209" t="n">
         <v>1547.69514078776</v>
       </c>
@@ -11265,7 +11657,7 @@
         <v>24.31719244094122</v>
       </c>
       <c r="K210" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L210" t="n">
         <v>24.31719244094122</v>
@@ -11286,10 +11678,14 @@
         <v>1404.80485921224</v>
       </c>
       <c r="R210" t="n">
-        <v>1</v>
-      </c>
-      <c r="S210" t="inlineStr"/>
-      <c r="T210" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S210" t="n">
+        <v>1404.80485921224</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1549.464089529855</v>
+      </c>
       <c r="U210" t="n">
         <v>1549.464089529855</v>
       </c>
@@ -11350,10 +11746,14 @@
         <v>1403.560934884208</v>
       </c>
       <c r="R211" t="n">
-        <v>1</v>
-      </c>
-      <c r="S211" t="inlineStr"/>
-      <c r="T211" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S211" t="n">
+        <v>1403.560934884208</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1528.644270644077</v>
+      </c>
       <c r="U211" t="n">
         <v>1528.644270644077</v>
       </c>
@@ -11393,7 +11793,7 @@
         <v>24.55942077636719</v>
       </c>
       <c r="K212" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L212" t="n">
         <v>24.55942077636719</v>
@@ -11414,10 +11814,14 @@
         <v>1382.230729355923</v>
       </c>
       <c r="R212" t="n">
-        <v>1</v>
-      </c>
-      <c r="S212" t="inlineStr"/>
-      <c r="T212" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S212" t="n">
+        <v>1382.230729355923</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1510.690774536133</v>
+      </c>
       <c r="U212" t="n">
         <v>1510.690774536133</v>
       </c>
@@ -11454,13 +11858,13 @@
         <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>24.78078335848722</v>
+        <v>24.78078335848721</v>
       </c>
       <c r="K213" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L213" t="n">
-        <v>24.78078335848722</v>
+        <v>24.78078335848721</v>
       </c>
       <c r="M213" t="n">
         <v>14.86440748131794</v>
@@ -11478,10 +11882,14 @@
         <v>1363.33424987793</v>
       </c>
       <c r="R213" t="n">
-        <v>1</v>
-      </c>
-      <c r="S213" t="inlineStr"/>
-      <c r="T213" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S213" t="n">
+        <v>1363.33424987793</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1497.404850075462</v>
+      </c>
       <c r="U213" t="n">
         <v>1497.404850075462</v>
       </c>
@@ -11518,13 +11926,13 @@
         <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>24.87670979817709</v>
+        <v>24.87670979817708</v>
       </c>
       <c r="K214" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L214" t="n">
-        <v>24.87670979817709</v>
+        <v>24.87670979817708</v>
       </c>
       <c r="M214" t="n">
         <v>14.91739420572917</v>
@@ -11542,10 +11950,14 @@
         <v>1354.494870605469</v>
       </c>
       <c r="R214" t="n">
-        <v>1</v>
-      </c>
-      <c r="S214" t="inlineStr"/>
-      <c r="T214" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S214" t="n">
+        <v>1354.494870605469</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1503.755129394531</v>
+      </c>
       <c r="U214" t="n">
         <v>1503.755129394531</v>
       </c>
@@ -11585,7 +11997,7 @@
         <v>24.93803074048913</v>
       </c>
       <c r="K215" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L215" t="n">
         <v>24.93803074048913</v>
@@ -11606,10 +12018,14 @@
         <v>1354.494870605469</v>
       </c>
       <c r="R215" t="n">
-        <v>1</v>
-      </c>
-      <c r="S215" t="inlineStr"/>
-      <c r="T215" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S215" t="n">
+        <v>1354.494870605469</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1502.239080014436</v>
+      </c>
       <c r="U215" t="n">
         <v>1502.239080014436</v>
       </c>
@@ -11670,10 +12086,14 @@
         <v>1359.541434300199</v>
       </c>
       <c r="R216" t="n">
-        <v>1</v>
-      </c>
-      <c r="S216" t="inlineStr"/>
-      <c r="T216" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S216" t="n">
+        <v>1359.541434300199</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1509.483590113863</v>
+      </c>
       <c r="U216" t="n">
         <v>1509.483590113863</v>
       </c>
@@ -11713,7 +12133,7 @@
         <v>25.03972625732422</v>
       </c>
       <c r="K217" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L217" t="n">
         <v>25.03972625732422</v>
@@ -11734,10 +12154,14 @@
         <v>1376.168357849121</v>
       </c>
       <c r="R217" t="n">
-        <v>1</v>
-      </c>
-      <c r="S217" t="inlineStr"/>
-      <c r="T217" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S217" t="n">
+        <v>1376.168357849121</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1526.406715393066</v>
+      </c>
       <c r="U217" t="n">
         <v>1526.406715393066</v>
       </c>
@@ -11777,7 +12201,7 @@
         <v>25.0537109375</v>
       </c>
       <c r="K218" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L218" t="n">
         <v>25.0537109375</v>
@@ -11798,10 +12222,14 @@
         <v>1378.513854980469</v>
       </c>
       <c r="R218" t="n">
-        <v>1</v>
-      </c>
-      <c r="S218" t="inlineStr"/>
-      <c r="T218" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S218" t="n">
+        <v>1378.513854980469</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1528.836120605469</v>
+      </c>
       <c r="U218" t="n">
         <v>1528.836120605469</v>
       </c>
@@ -11862,10 +12290,14 @@
         <v>1378.513854980469</v>
       </c>
       <c r="R219" t="n">
-        <v>1</v>
-      </c>
-      <c r="S219" t="inlineStr"/>
-      <c r="T219" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S219" t="n">
+        <v>1378.513854980469</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1520.812021484375</v>
+      </c>
       <c r="U219" t="n">
         <v>1520.812021484375</v>
       </c>
@@ -11905,7 +12337,7 @@
         <v>25.00302566827512</v>
       </c>
       <c r="K220" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L220" t="n">
         <v>25.00302566827512</v>
@@ -11926,10 +12358,14 @@
         <v>1398.490922995175</v>
       </c>
       <c r="R220" t="n">
-        <v>1</v>
-      </c>
-      <c r="S220" t="inlineStr"/>
-      <c r="T220" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S220" t="n">
+        <v>1398.490922995175</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1548.509077004825</v>
+      </c>
       <c r="U220" t="n">
         <v>1548.509077004825</v>
       </c>
@@ -11969,13 +12405,13 @@
         <v>25.0382077730619</v>
       </c>
       <c r="K221" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L221" t="n">
         <v>25.0382077730619</v>
       </c>
       <c r="M221" t="n">
-        <v>14.92171662983141</v>
+        <v>14.92171662983142</v>
       </c>
       <c r="N221" t="n">
         <v>10</v>
@@ -11990,10 +12426,14 @@
         <v>1417.185364473783</v>
       </c>
       <c r="R221" t="n">
-        <v>1</v>
-      </c>
-      <c r="S221" t="inlineStr"/>
-      <c r="T221" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S221" t="n">
+        <v>1417.185364473783</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1567.414611112154</v>
+      </c>
       <c r="U221" t="n">
         <v>1567.414611112154</v>
       </c>
@@ -12033,7 +12473,7 @@
         <v>25.01918484669811</v>
       </c>
       <c r="K222" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L222" t="n">
         <v>25.01918484669811</v>
@@ -12054,10 +12494,14 @@
         <v>1417.185364473783</v>
       </c>
       <c r="R222" t="n">
-        <v>1</v>
-      </c>
-      <c r="S222" t="inlineStr"/>
-      <c r="T222" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S222" t="n">
+        <v>1417.185364473783</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1563.295042333063</v>
+      </c>
       <c r="U222" t="n">
         <v>1563.295042333063</v>
       </c>
@@ -12094,13 +12538,13 @@
         <v>1</v>
       </c>
       <c r="J223" t="n">
-        <v>25.0659771613355</v>
+        <v>25.06597716133549</v>
       </c>
       <c r="K223" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L223" t="n">
-        <v>25.0659771613355</v>
+        <v>25.06597716133549</v>
       </c>
       <c r="M223" t="n">
         <v>14.80608767947635</v>
@@ -12118,10 +12562,14 @@
         <v>1413.179933252874</v>
       </c>
       <c r="R223" t="n">
-        <v>1</v>
-      </c>
-      <c r="S223" t="inlineStr"/>
-      <c r="T223" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S223" t="n">
+        <v>1413.179933252874</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1559.697931484006</v>
+      </c>
       <c r="U223" t="n">
         <v>1559.697931484006</v>
       </c>
@@ -12161,7 +12609,7 @@
         <v>25.02294967086227</v>
       </c>
       <c r="K224" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L224" t="n">
         <v>25.02294967086227</v>
@@ -12182,10 +12630,14 @@
         <v>1409.302068515994</v>
       </c>
       <c r="R224" t="n">
-        <v>1</v>
-      </c>
-      <c r="S224" t="inlineStr"/>
-      <c r="T224" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S224" t="n">
+        <v>1409.302068515994</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1551.743836805555</v>
+      </c>
       <c r="U224" t="n">
         <v>1551.743836805555</v>
       </c>
@@ -12246,10 +12698,14 @@
         <v>1401.606138780382</v>
       </c>
       <c r="R225" t="n">
-        <v>1</v>
-      </c>
-      <c r="S225" t="inlineStr"/>
-      <c r="T225" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S225" t="n">
+        <v>1401.606138780382</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1539.501970999582</v>
+      </c>
       <c r="U225" t="n">
         <v>1539.501970999582</v>
       </c>
@@ -12289,7 +12745,7 @@
         <v>24.83889095908717</v>
       </c>
       <c r="K226" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L226" t="n">
         <v>24.83889095908717</v>
@@ -12310,10 +12766,14 @@
         <v>1390.248029000418</v>
       </c>
       <c r="R226" t="n">
-        <v>1</v>
-      </c>
-      <c r="S226" t="inlineStr"/>
-      <c r="T226" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S226" t="n">
+        <v>1390.248029000418</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1537.916697291324</v>
+      </c>
       <c r="U226" t="n">
         <v>1537.916697291324</v>
       </c>
@@ -12353,7 +12813,7 @@
         <v>24.79274628737877</v>
       </c>
       <c r="K227" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L227" t="n">
         <v>24.79274628737877</v>
@@ -12371,18 +12831,22 @@
         <v>32</v>
       </c>
       <c r="Q227" t="n">
-        <v>1401.609248930832</v>
+        <v>1401.609248930833</v>
       </c>
       <c r="R227" t="n">
-        <v>1</v>
-      </c>
-      <c r="S227" t="inlineStr"/>
-      <c r="T227" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S227" t="n">
+        <v>1401.609248930833</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1550.365726655105</v>
+      </c>
       <c r="U227" t="n">
         <v>1550.365726655105</v>
       </c>
       <c r="V227" t="n">
-        <v>1401.609248930832</v>
+        <v>1401.609248930833</v>
       </c>
     </row>
     <row r="228">
@@ -12417,7 +12881,7 @@
         <v>24.77651325807733</v>
       </c>
       <c r="K228" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L228" t="n">
         <v>24.77651325807733</v>
@@ -12438,10 +12902,14 @@
         <v>1401.820484639831</v>
       </c>
       <c r="R228" t="n">
-        <v>1</v>
-      </c>
-      <c r="S228" t="inlineStr"/>
-      <c r="T228" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S228" t="n">
+        <v>1401.820484639831</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1550.479564188294</v>
+      </c>
       <c r="U228" t="n">
         <v>1550.479564188294</v>
       </c>
@@ -12478,13 +12946,13 @@
         <v>1</v>
       </c>
       <c r="J229" t="n">
-        <v>24.78523803710938</v>
+        <v>24.78523803710937</v>
       </c>
       <c r="K229" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L229" t="n">
-        <v>24.78523803710938</v>
+        <v>24.78523803710937</v>
       </c>
       <c r="M229" t="n">
         <v>13.96325602213541</v>
@@ -12502,10 +12970,14 @@
         <v>1402.319273681641</v>
       </c>
       <c r="R229" t="n">
-        <v>1</v>
-      </c>
-      <c r="S229" t="inlineStr"/>
-      <c r="T229" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S229" t="n">
+        <v>1402.319273681641</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1551.030701904297</v>
+      </c>
       <c r="U229" t="n">
         <v>1551.030701904297</v>
       </c>
@@ -12542,13 +13014,13 @@
         <v>1</v>
       </c>
       <c r="J230" t="n">
-        <v>24.80568487448771</v>
+        <v>24.8056848744877</v>
       </c>
       <c r="K230" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L230" t="n">
-        <v>24.80568487448771</v>
+        <v>24.8056848744877</v>
       </c>
       <c r="M230" t="n">
         <v>13.92440227640086</v>
@@ -12566,10 +13038,14 @@
         <v>1402.319273681641</v>
       </c>
       <c r="R230" t="n">
-        <v>1</v>
-      </c>
-      <c r="S230" t="inlineStr"/>
-      <c r="T230" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S230" t="n">
+        <v>1402.319273681641</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1549.192018002369</v>
+      </c>
       <c r="U230" t="n">
         <v>1549.192018002369</v>
       </c>
@@ -12606,13 +13082,13 @@
         <v>1</v>
       </c>
       <c r="J231" t="n">
-        <v>24.76898016160534</v>
+        <v>24.76898016160533</v>
       </c>
       <c r="K231" t="n">
         <v>39.49798950195312</v>
       </c>
       <c r="L231" t="n">
-        <v>24.76898016160534</v>
+        <v>24.76898016160533</v>
       </c>
       <c r="M231" t="n">
         <v>13.96545148577009</v>
@@ -12630,10 +13106,14 @@
         <v>1400.357908755443</v>
       </c>
       <c r="R231" t="n">
-        <v>1</v>
-      </c>
-      <c r="S231" t="inlineStr"/>
-      <c r="T231" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S231" t="n">
+        <v>1400.357908755443</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1538.531916070754</v>
+      </c>
       <c r="U231" t="n">
         <v>1538.531916070754</v>
       </c>
@@ -12670,13 +13150,13 @@
         <v>1</v>
       </c>
       <c r="J232" t="n">
-        <v>24.74693293495784</v>
+        <v>24.74693293495783</v>
       </c>
       <c r="K232" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L232" t="n">
-        <v>24.74693293495784</v>
+        <v>24.74693293495783</v>
       </c>
       <c r="M232" t="n">
         <v>14.00537516276042</v>
@@ -12694,10 +13174,14 @@
         <v>1389.918035101121</v>
       </c>
       <c r="R232" t="n">
-        <v>1</v>
-      </c>
-      <c r="S232" t="inlineStr"/>
-      <c r="T232" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S232" t="n">
+        <v>1389.918035101121</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1535.290847632999</v>
+      </c>
       <c r="U232" t="n">
         <v>1535.290847632999</v>
       </c>
@@ -12734,13 +13218,13 @@
         <v>1</v>
       </c>
       <c r="J233" t="n">
-        <v>24.73928565979004</v>
+        <v>24.73928565979003</v>
       </c>
       <c r="K233" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L233" t="n">
-        <v>24.73928565979004</v>
+        <v>24.73928565979003</v>
       </c>
       <c r="M233" t="n">
         <v>14.07740854116586</v>
@@ -12758,10 +13242,14 @@
         <v>1398.457130813599</v>
       </c>
       <c r="R233" t="n">
-        <v>1</v>
-      </c>
-      <c r="S233" t="inlineStr"/>
-      <c r="T233" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S233" t="n">
+        <v>1398.457130813599</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1546.892844772339</v>
+      </c>
       <c r="U233" t="n">
         <v>1546.892844772339</v>
       </c>
@@ -12822,10 +13310,14 @@
         <v>1398.457130813599</v>
       </c>
       <c r="R234" t="n">
-        <v>1</v>
-      </c>
-      <c r="S234" t="inlineStr"/>
-      <c r="T234" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S234" t="n">
+        <v>1398.457130813599</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1532.743441068209</v>
+      </c>
       <c r="U234" t="n">
         <v>1532.743441068209</v>
       </c>
@@ -12862,13 +13354,13 @@
         <v>1</v>
       </c>
       <c r="J235" t="n">
-        <v>24.76745161576705</v>
+        <v>24.76745161576704</v>
       </c>
       <c r="K235" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L235" t="n">
-        <v>24.76745161576705</v>
+        <v>24.76745161576704</v>
       </c>
       <c r="M235" t="n">
         <v>14.25740102132161</v>
@@ -12886,10 +13378,14 @@
         <v>1401.010145152699</v>
       </c>
       <c r="R235" t="n">
-        <v>1</v>
-      </c>
-      <c r="S235" t="inlineStr"/>
-      <c r="T235" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S235" t="n">
+        <v>1401.010145152699</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1549.614854847301</v>
+      </c>
       <c r="U235" t="n">
         <v>1549.614854847301</v>
       </c>
@@ -12950,10 +13446,14 @@
         <v>1401.010145152699</v>
       </c>
       <c r="R236" t="n">
-        <v>1</v>
-      </c>
-      <c r="S236" t="inlineStr"/>
-      <c r="T236" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S236" t="n">
+        <v>1401.010145152699</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1548.83073985541</v>
+      </c>
       <c r="U236" t="n">
         <v>1548.83073985541</v>
       </c>
@@ -12993,7 +13493,7 @@
         <v>24.80370303883272</v>
       </c>
       <c r="K237" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L237" t="n">
         <v>24.80370303883272</v>
@@ -13014,10 +13514,14 @@
         <v>1400.219308972715</v>
       </c>
       <c r="R237" t="n">
-        <v>1</v>
-      </c>
-      <c r="S237" t="inlineStr"/>
-      <c r="T237" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S237" t="n">
+        <v>1400.219308972715</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1533.436133530561</v>
+      </c>
       <c r="U237" t="n">
         <v>1533.436133530561</v>
       </c>
@@ -13054,13 +13558,13 @@
         <v>1</v>
       </c>
       <c r="J238" t="n">
-        <v>24.89495275160846</v>
+        <v>24.89495275160845</v>
       </c>
       <c r="K238" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L238" t="n">
-        <v>24.89495275160846</v>
+        <v>24.89495275160845</v>
       </c>
       <c r="M238" t="n">
         <v>14.69705311168324</v>
@@ -13078,10 +13582,14 @@
         <v>1384.613915297564</v>
       </c>
       <c r="R238" t="n">
-        <v>1</v>
-      </c>
-      <c r="S238" t="inlineStr"/>
-      <c r="T238" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S238" t="n">
+        <v>1384.613915297564</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1529.422346047794</v>
+      </c>
       <c r="U238" t="n">
         <v>1529.422346047794</v>
       </c>
@@ -13121,7 +13629,7 @@
         <v>24.90940985195878</v>
       </c>
       <c r="K239" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L239" t="n">
         <v>24.90940985195878</v>
@@ -13142,10 +13650,14 @@
         <v>1382.771770444124</v>
       </c>
       <c r="R239" t="n">
-        <v>1</v>
-      </c>
-      <c r="S239" t="inlineStr"/>
-      <c r="T239" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S239" t="n">
+        <v>1382.771770444124</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1532.228229555876</v>
+      </c>
       <c r="U239" t="n">
         <v>1532.228229555876</v>
       </c>
@@ -13185,7 +13697,7 @@
         <v>24.91152535574777</v>
       </c>
       <c r="K240" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L240" t="n">
         <v>24.91152535574777</v>
@@ -13206,10 +13718,14 @@
         <v>1384.215436139788</v>
       </c>
       <c r="R240" t="n">
-        <v>1</v>
-      </c>
-      <c r="S240" t="inlineStr"/>
-      <c r="T240" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S240" t="n">
+        <v>1384.215436139788</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1533.684588274275</v>
+      </c>
       <c r="U240" t="n">
         <v>1533.684588274275</v>
       </c>
@@ -13249,7 +13765,7 @@
         <v>24.90583478900748</v>
       </c>
       <c r="K241" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L241" t="n">
         <v>24.90583478900748</v>
@@ -13270,10 +13786,14 @@
         <v>1398.257471218915</v>
       </c>
       <c r="R241" t="n">
-        <v>1</v>
-      </c>
-      <c r="S241" t="inlineStr"/>
-      <c r="T241" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S241" t="n">
+        <v>1398.257471218915</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1547.69247995296</v>
+      </c>
       <c r="U241" t="n">
         <v>1547.69247995296</v>
       </c>
@@ -13313,7 +13833,7 @@
         <v>24.87863549126519</v>
       </c>
       <c r="K242" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L242" t="n">
         <v>24.87863549126519</v>
@@ -13334,10 +13854,14 @@
         <v>1398.257471218915</v>
       </c>
       <c r="R242" t="n">
-        <v>1</v>
-      </c>
-      <c r="S242" t="inlineStr"/>
-      <c r="T242" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S242" t="n">
+        <v>1398.257471218915</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1545.360882059733</v>
+      </c>
       <c r="U242" t="n">
         <v>1545.360882059733</v>
       </c>
@@ -13377,7 +13901,7 @@
         <v>25.26317101680871</v>
       </c>
       <c r="K243" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L243" t="n">
         <v>25.26317101680871</v>
@@ -13398,10 +13922,14 @@
         <v>1396.089069112142</v>
       </c>
       <c r="R243" t="n">
-        <v>1</v>
-      </c>
-      <c r="S243" t="inlineStr"/>
-      <c r="T243" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S243" t="n">
+        <v>1396.089069112142</v>
+      </c>
+      <c r="T243" t="n">
+        <v>1521.339500843395</v>
+      </c>
       <c r="U243" t="n">
         <v>1521.339500843395</v>
       </c>
@@ -13462,10 +13990,14 @@
         <v>1369.760474742543</v>
       </c>
       <c r="R244" t="n">
-        <v>1</v>
-      </c>
-      <c r="S244" t="inlineStr"/>
-      <c r="T244" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S244" t="n">
+        <v>1369.760474742543</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1505.507106817336</v>
+      </c>
       <c r="U244" t="n">
         <v>1505.507106817336</v>
       </c>
@@ -13502,13 +14034,13 @@
         <v>1</v>
       </c>
       <c r="J245" t="n">
-        <v>25.94471980503627</v>
+        <v>25.94471980503628</v>
       </c>
       <c r="K245" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L245" t="n">
-        <v>25.94471980503627</v>
+        <v>25.94471980503628</v>
       </c>
       <c r="M245" t="n">
         <v>19.13206069048713</v>
@@ -13526,10 +14058,14 @@
         <v>1352.492893182664</v>
       </c>
       <c r="R245" t="n">
-        <v>1</v>
-      </c>
-      <c r="S245" t="inlineStr"/>
-      <c r="T245" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S245" t="n">
+        <v>1352.492893182664</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1484.209159415109</v>
+      </c>
       <c r="U245" t="n">
         <v>1484.209159415109</v>
       </c>
@@ -13566,13 +14102,13 @@
         <v>1</v>
       </c>
       <c r="J246" t="n">
-        <v>26.49795684814453</v>
+        <v>26.49795684814454</v>
       </c>
       <c r="K246" t="n">
         <v>39.49798950195312</v>
       </c>
       <c r="L246" t="n">
-        <v>26.49795684814453</v>
+        <v>26.49795684814454</v>
       </c>
       <c r="M246" t="n">
         <v>20.11529570079985</v>
@@ -13590,10 +14126,14 @@
         <v>1335.731105041504</v>
       </c>
       <c r="R246" t="n">
-        <v>1</v>
-      </c>
-      <c r="S246" t="inlineStr"/>
-      <c r="T246" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S246" t="n">
+        <v>1335.731105041504</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1494.718846130371</v>
+      </c>
       <c r="U246" t="n">
         <v>1494.718846130371</v>
       </c>
@@ -13633,13 +14173,13 @@
         <v>26.54592514038086</v>
       </c>
       <c r="K247" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L247" t="n">
         <v>26.54592514038086</v>
       </c>
       <c r="M247" t="n">
-        <v>20.37612885974703</v>
+        <v>20.37612885974702</v>
       </c>
       <c r="N247" t="n">
         <v>10</v>
@@ -13654,10 +14194,14 @@
         <v>1335.731105041504</v>
       </c>
       <c r="R247" t="n">
-        <v>1</v>
-      </c>
-      <c r="S247" t="inlineStr"/>
-      <c r="T247" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S247" t="n">
+        <v>1335.731105041504</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1486.512775421143</v>
+      </c>
       <c r="U247" t="n">
         <v>1486.512775421143</v>
       </c>
@@ -13697,7 +14241,7 @@
         <v>26.55830377072704</v>
       </c>
       <c r="K248" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L248" t="n">
         <v>26.55830377072704</v>
@@ -13718,10 +14262,14 @@
         <v>1327.237224578857</v>
       </c>
       <c r="R248" t="n">
-        <v>1</v>
-      </c>
-      <c r="S248" t="inlineStr"/>
-      <c r="T248" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S248" t="n">
+        <v>1327.237224578857</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1478.712386898119</v>
+      </c>
       <c r="U248" t="n">
         <v>1478.712386898119</v>
       </c>
@@ -13761,13 +14309,13 @@
         <v>26.62090516382334</v>
       </c>
       <c r="K249" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L249" t="n">
         <v>26.62090516382334</v>
       </c>
       <c r="M249" t="n">
-        <v>20.79036359089176</v>
+        <v>20.79036359089177</v>
       </c>
       <c r="N249" t="n">
         <v>10</v>
@@ -13782,10 +14330,14 @@
         <v>1319.362564273756</v>
       </c>
       <c r="R249" t="n">
-        <v>1</v>
-      </c>
-      <c r="S249" t="inlineStr"/>
-      <c r="T249" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S249" t="n">
+        <v>1319.362564273756</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1475.350203284439</v>
+      </c>
       <c r="U249" t="n">
         <v>1475.350203284439</v>
       </c>
@@ -13825,7 +14377,7 @@
         <v>26.69651725924745</v>
       </c>
       <c r="K250" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L250" t="n">
         <v>26.69651725924745</v>
@@ -13846,10 +14398,14 @@
         <v>1333.460436015226</v>
       </c>
       <c r="R250" t="n">
-        <v>1</v>
-      </c>
-      <c r="S250" t="inlineStr"/>
-      <c r="T250" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S250" t="n">
+        <v>1333.460436015226</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1493.639539570711</v>
+      </c>
       <c r="U250" t="n">
         <v>1493.639539570711</v>
       </c>
@@ -13889,7 +14445,7 @@
         <v>26.7316865234375</v>
       </c>
       <c r="K251" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L251" t="n">
         <v>26.7316865234375</v>
@@ -13910,10 +14466,14 @@
         <v>1341.304940429688</v>
       </c>
       <c r="R251" t="n">
-        <v>1</v>
-      </c>
-      <c r="S251" t="inlineStr"/>
-      <c r="T251" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S251" t="n">
+        <v>1341.304940429688</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1501.695059570312</v>
+      </c>
       <c r="U251" t="n">
         <v>1501.695059570312</v>
       </c>
@@ -13953,13 +14513,13 @@
         <v>26.81368627929687</v>
       </c>
       <c r="K252" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L252" t="n">
         <v>26.81368627929687</v>
       </c>
       <c r="M252" t="n">
-        <v>21.36124603271485</v>
+        <v>21.36124603271484</v>
       </c>
       <c r="N252" t="n">
         <v>10</v>
@@ -13974,10 +14534,14 @@
         <v>1341.304940429688</v>
       </c>
       <c r="R252" t="n">
-        <v>1</v>
-      </c>
-      <c r="S252" t="inlineStr"/>
-      <c r="T252" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S252" t="n">
+        <v>1341.304940429688</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1493.203571044922</v>
+      </c>
       <c r="U252" t="n">
         <v>1493.203571044922</v>
       </c>
@@ -14017,7 +14581,7 @@
         <v>26.97855722855548</v>
       </c>
       <c r="K253" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L253" t="n">
         <v>26.97855722855548</v>
@@ -14038,10 +14602,14 @@
         <v>1344.289303900271</v>
       </c>
       <c r="R253" t="n">
-        <v>1</v>
-      </c>
-      <c r="S253" t="inlineStr"/>
-      <c r="T253" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S253" t="n">
+        <v>1344.289303900271</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1506.160647271604</v>
+      </c>
       <c r="U253" t="n">
         <v>1506.160647271604</v>
       </c>
@@ -14081,7 +14649,7 @@
         <v>26.96443579101562</v>
       </c>
       <c r="K254" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L254" t="n">
         <v>26.96443579101562</v>
@@ -14102,10 +14670,14 @@
         <v>1352.819156005859</v>
       </c>
       <c r="R254" t="n">
-        <v>1</v>
-      </c>
-      <c r="S254" t="inlineStr"/>
-      <c r="T254" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S254" t="n">
+        <v>1352.819156005859</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1514.605770751953</v>
+      </c>
       <c r="U254" t="n">
         <v>1514.605770751953</v>
       </c>
@@ -14142,13 +14714,13 @@
         <v>1</v>
       </c>
       <c r="J255" t="n">
-        <v>27.0914441426595</v>
+        <v>27.09144414265951</v>
       </c>
       <c r="K255" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L255" t="n">
-        <v>27.0914441426595</v>
+        <v>27.09144414265951</v>
       </c>
       <c r="M255" t="n">
         <v>22.04600539434524</v>
@@ -14166,10 +14738,14 @@
         <v>1371.250691986084</v>
       </c>
       <c r="R255" t="n">
-        <v>1</v>
-      </c>
-      <c r="S255" t="inlineStr"/>
-      <c r="T255" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S255" t="n">
+        <v>1371.250691986084</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1533.799356842041</v>
+      </c>
       <c r="U255" t="n">
         <v>1533.799356842041</v>
       </c>
@@ -14209,7 +14785,7 @@
         <v>27.07090416733099</v>
       </c>
       <c r="K256" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L256" t="n">
         <v>27.07090416733099</v>
@@ -14230,10 +14806,14 @@
         <v>1392.399775290976</v>
       </c>
       <c r="R256" t="n">
-        <v>1</v>
-      </c>
-      <c r="S256" t="inlineStr"/>
-      <c r="T256" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S256" t="n">
+        <v>1392.399775290976</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1554.825200294962</v>
+      </c>
       <c r="U256" t="n">
         <v>1554.825200294962</v>
       </c>
@@ -14273,7 +14853,7 @@
         <v>22.11461730957031</v>
       </c>
       <c r="K257" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L257" t="n">
         <v>27.05473583984375</v>
@@ -14294,10 +14874,14 @@
         <v>1415.956135864258</v>
       </c>
       <c r="R257" t="n">
-        <v>1</v>
-      </c>
-      <c r="S257" t="inlineStr"/>
-      <c r="T257" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S257" t="n">
+        <v>1415.956135864258</v>
+      </c>
+      <c r="T257" t="n">
+        <v>1548.64383972168</v>
+      </c>
       <c r="U257" t="n">
         <v>1548.64383972168</v>
       </c>
@@ -14334,16 +14918,16 @@
         <v>2</v>
       </c>
       <c r="J258" t="n">
-        <v>22.23682146770198</v>
+        <v>22.23682146770199</v>
       </c>
       <c r="K258" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L258" t="n">
         <v>27.10376076211735</v>
       </c>
       <c r="M258" t="n">
-        <v>22.23682146770198</v>
+        <v>22.23682146770199</v>
       </c>
       <c r="N258" t="n">
         <v>10</v>
@@ -14358,10 +14942,14 @@
         <v>1415.956135864258</v>
       </c>
       <c r="R258" t="n">
-        <v>1</v>
-      </c>
-      <c r="S258" t="inlineStr"/>
-      <c r="T258" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S258" t="n">
+        <v>1415.956135864258</v>
+      </c>
+      <c r="T258" t="n">
+        <v>1539.9355010242</v>
+      </c>
       <c r="U258" t="n">
         <v>1539.9355010242</v>
       </c>
@@ -14401,7 +14989,7 @@
         <v>22.28346721370046</v>
       </c>
       <c r="K259" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L259" t="n">
         <v>27.10376076211735</v>
@@ -14422,10 +15010,14 @@
         <v>1406.514572217988</v>
       </c>
       <c r="R259" t="n">
-        <v>1</v>
-      </c>
-      <c r="S259" t="inlineStr"/>
-      <c r="T259" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S259" t="n">
+        <v>1406.514572217988</v>
+      </c>
+      <c r="T259" t="n">
+        <v>1532.475401641101</v>
+      </c>
       <c r="U259" t="n">
         <v>1532.475401641101</v>
       </c>
@@ -14465,7 +15057,7 @@
         <v>22.35773508955793</v>
       </c>
       <c r="K260" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L260" t="n">
         <v>27.10376076211735</v>
@@ -14486,10 +15078,14 @@
         <v>1398.774598358899</v>
       </c>
       <c r="R260" t="n">
-        <v>1</v>
-      </c>
-      <c r="S260" t="inlineStr"/>
-      <c r="T260" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S260" t="n">
+        <v>1398.774598358899</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1515.298180854611</v>
+      </c>
       <c r="U260" t="n">
         <v>1515.298180854611</v>
       </c>
@@ -14529,7 +15125,7 @@
         <v>22.42212539300686</v>
       </c>
       <c r="K261" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L261" t="n">
         <v>27.10376076211735</v>
@@ -14550,10 +15146,14 @@
         <v>1381.151770317264</v>
       </c>
       <c r="R261" t="n">
-        <v>1</v>
-      </c>
-      <c r="S261" t="inlineStr"/>
-      <c r="T261" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S261" t="n">
+        <v>1381.151770317264</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1497.516376179021</v>
+      </c>
       <c r="U261" t="n">
         <v>1497.516376179021</v>
       </c>
@@ -14593,7 +15193,7 @@
         <v>22.55898001534598</v>
       </c>
       <c r="K262" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L262" t="n">
         <v>27.15087025960286</v>
@@ -14614,10 +15214,14 @@
         <v>1364.573059953962</v>
       </c>
       <c r="R262" t="n">
-        <v>1</v>
-      </c>
-      <c r="S262" t="inlineStr"/>
-      <c r="T262" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S262" t="n">
+        <v>1364.573059953962</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1499.926940046038</v>
+      </c>
       <c r="U262" t="n">
         <v>1499.926940046038</v>
       </c>
@@ -14657,7 +15261,7 @@
         <v>27.15087025960286</v>
       </c>
       <c r="K263" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L263" t="n">
         <v>27.15087025960286</v>
@@ -14678,10 +15282,14 @@
         <v>1405.297389221191</v>
       </c>
       <c r="R263" t="n">
-        <v>1</v>
-      </c>
-      <c r="S263" t="inlineStr"/>
-      <c r="T263" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S263" t="n">
+        <v>1405.297389221191</v>
+      </c>
+      <c r="T263" t="n">
+        <v>1568.202610778809</v>
+      </c>
       <c r="U263" t="n">
         <v>1568.202610778809</v>
       </c>
@@ -14718,10 +15326,10 @@
         <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="K264" t="n">
-        <v>39.49798950195313</v>
+        <v>39.49798950195312</v>
       </c>
       <c r="L264" t="n">
         <v>27.19253627232143</v>
@@ -14742,10 +15350,14 @@
         <v>1547.169017333984</v>
       </c>
       <c r="R264" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S264" t="inlineStr"/>
-      <c r="T264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S264" t="n">
+        <v>1310.181080322266</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1547.169017333984</v>
+      </c>
       <c r="U264" t="n">
         <v>1547.169017333984</v>
       </c>
@@ -14806,10 +15418,14 @@
         <v>1526.984743430398</v>
       </c>
       <c r="R265" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S265" t="inlineStr"/>
-      <c r="T265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S265" t="n">
+        <v>1288.265256569602</v>
+      </c>
+      <c r="T265" t="n">
+        <v>1526.984743430398</v>
+      </c>
       <c r="U265" t="n">
         <v>1526.984743430398</v>
       </c>
@@ -14870,10 +15486,14 @@
         <v>1526.984743430398</v>
       </c>
       <c r="R266" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S266" t="inlineStr"/>
-      <c r="T266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S266" t="n">
+        <v>1312.083740234375</v>
+      </c>
+      <c r="T266" t="n">
+        <v>1526.984743430398</v>
+      </c>
       <c r="U266" t="n">
         <v>1552.966186523438</v>
       </c>
@@ -14919,7 +15539,7 @@
         <v>27.42532570578835</v>
       </c>
       <c r="M267" t="n">
-        <v>23.23586340615915</v>
+        <v>23.23586340615916</v>
       </c>
       <c r="N267" t="n">
         <v>13</v>
@@ -14934,10 +15554,14 @@
         <v>1552.966186523438</v>
       </c>
       <c r="R267" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S267" t="inlineStr"/>
-      <c r="T267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S267" t="n">
+        <v>1328.223102276142</v>
+      </c>
+      <c r="T267" t="n">
+        <v>1552.966186523438</v>
+      </c>
       <c r="U267" t="n">
         <v>1570.276897723858</v>
       </c>
@@ -14998,10 +15622,14 @@
         <v>1570.276897723858</v>
       </c>
       <c r="R268" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S268" t="inlineStr"/>
-      <c r="T268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S268" t="n">
+        <v>1358.474273681641</v>
+      </c>
+      <c r="T268" t="n">
+        <v>1570.276897723858</v>
+      </c>
       <c r="U268" t="n">
         <v>1602.950653076172</v>
       </c>
@@ -15047,7 +15675,7 @@
         <v>27.47108977561773</v>
       </c>
       <c r="M269" t="n">
-        <v>23.52493053617932</v>
+        <v>23.52493053617931</v>
       </c>
       <c r="N269" t="n">
         <v>15</v>
@@ -15062,10 +15690,14 @@
         <v>1587.501525878906</v>
       </c>
       <c r="R269" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S269" t="inlineStr"/>
-      <c r="T269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S269" t="n">
+        <v>1340.848571777344</v>
+      </c>
+      <c r="T269" t="n">
+        <v>1587.501525878906</v>
+      </c>
       <c r="U269" t="n">
         <v>1587.501525878906</v>
       </c>
@@ -15111,7 +15743,7 @@
         <v>28.08280777469758</v>
       </c>
       <c r="M270" t="n">
-        <v>24.1055544295401</v>
+        <v>24.10555442954009</v>
       </c>
       <c r="N270" t="n">
         <v>16</v>
@@ -15126,10 +15758,14 @@
         <v>1587.501525878906</v>
       </c>
       <c r="R270" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S270" t="inlineStr"/>
-      <c r="T270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S270" t="n">
+        <v>1341.435358428955</v>
+      </c>
+      <c r="T270" t="n">
+        <v>1587.501525878906</v>
+      </c>
       <c r="U270" t="n">
         <v>1589.73969039917</v>
       </c>
@@ -15190,10 +15826,14 @@
         <v>1589.73969039917</v>
       </c>
       <c r="R271" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S271" t="inlineStr"/>
-      <c r="T271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S271" t="n">
+        <v>1341.271774471507</v>
+      </c>
+      <c r="T271" t="n">
+        <v>1589.73969039917</v>
+      </c>
       <c r="U271" t="n">
         <v>1591.07820111443</v>
       </c>
@@ -15230,10 +15870,10 @@
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>41.80957573784723</v>
+        <v>41.80957573784722</v>
       </c>
       <c r="K272" t="n">
-        <v>41.80957573784723</v>
+        <v>41.80957573784722</v>
       </c>
       <c r="L272" t="n">
         <v>28.08280777469758</v>
@@ -15254,10 +15894,14 @@
         <v>1591.07820111443</v>
       </c>
       <c r="R272" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S272" t="inlineStr"/>
-      <c r="T272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S272" t="n">
+        <v>1343.02128499349</v>
+      </c>
+      <c r="T272" t="n">
+        <v>1591.07820111443</v>
+      </c>
       <c r="U272" t="n">
         <v>1593.878739420573</v>
       </c>
@@ -15318,10 +15962,14 @@
         <v>1593.878739420573</v>
       </c>
       <c r="R273" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S273" t="inlineStr"/>
-      <c r="T273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S273" t="n">
+        <v>1353.437390779194</v>
+      </c>
+      <c r="T273" t="n">
+        <v>1593.878739420573</v>
+      </c>
       <c r="U273" t="n">
         <v>1605.312609220806</v>
       </c>
@@ -15382,10 +16030,14 @@
         <v>1556.157453613281</v>
       </c>
       <c r="R274" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S274" t="inlineStr"/>
-      <c r="T274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S274" t="n">
+        <v>1387.342546386719</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1556.157453613281</v>
+      </c>
       <c r="U274" t="n">
         <v>1556.157453613281</v>
       </c>
@@ -15422,7 +16074,7 @@
         <v>2</v>
       </c>
       <c r="J275" t="n">
-        <v>24.23008061161748</v>
+        <v>24.23008061161747</v>
       </c>
       <c r="K275" t="n">
         <v>41.79161804199219</v>
@@ -15431,7 +16083,7 @@
         <v>28.40180945763221</v>
       </c>
       <c r="M275" t="n">
-        <v>24.23008061161748</v>
+        <v>24.23008061161747</v>
       </c>
       <c r="N275" t="n">
         <v>20</v>
@@ -15446,10 +16098,14 @@
         <v>1539.16521742079</v>
       </c>
       <c r="R275" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S275" t="inlineStr"/>
-      <c r="T275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S275" t="n">
+        <v>1393.784733751085</v>
+      </c>
+      <c r="T275" t="n">
+        <v>1539.16521742079</v>
+      </c>
       <c r="U275" t="n">
         <v>1539.16521742079</v>
       </c>
@@ -15486,7 +16142,7 @@
         <v>2</v>
       </c>
       <c r="J276" t="n">
-        <v>24.24126109730114</v>
+        <v>24.24126109730113</v>
       </c>
       <c r="K276" t="n">
         <v>41.79161804199219</v>
@@ -15495,7 +16151,7 @@
         <v>28.44928173828125</v>
       </c>
       <c r="M276" t="n">
-        <v>24.24126109730114</v>
+        <v>24.24126109730113</v>
       </c>
       <c r="N276" t="n">
         <v>20</v>
@@ -15510,10 +16166,14 @@
         <v>1530.361234463778</v>
       </c>
       <c r="R276" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S276" t="inlineStr"/>
-      <c r="T276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S276" t="n">
+        <v>1384.913667879972</v>
+      </c>
+      <c r="T276" t="n">
+        <v>1530.361234463778</v>
+      </c>
       <c r="U276" t="n">
         <v>1530.361234463778</v>
       </c>
@@ -15574,10 +16234,14 @@
         <v>1516.315993172782</v>
       </c>
       <c r="R277" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S277" t="inlineStr"/>
-      <c r="T277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S277" t="n">
+        <v>1370.684006827218</v>
+      </c>
+      <c r="T277" t="n">
+        <v>1516.315993172782</v>
+      </c>
       <c r="U277" t="n">
         <v>1516.315993172782</v>
       </c>
@@ -15638,10 +16302,14 @@
         <v>1516.315993172782</v>
       </c>
       <c r="R278" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S278" t="inlineStr"/>
-      <c r="T278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S278" t="n">
+        <v>1375.709135999178</v>
+      </c>
+      <c r="T278" t="n">
+        <v>1516.315993172782</v>
+      </c>
       <c r="U278" t="n">
         <v>1521.215912828947</v>
       </c>
@@ -15678,13 +16346,13 @@
         <v>1</v>
       </c>
       <c r="J279" t="n">
-        <v>27.29671505659054</v>
+        <v>27.29671505659055</v>
       </c>
       <c r="K279" t="n">
         <v>41.79161804199219</v>
       </c>
       <c r="L279" t="n">
-        <v>27.29671505659054</v>
+        <v>27.29671505659055</v>
       </c>
       <c r="M279" t="n">
         <v>23.49120944883765</v>
@@ -15702,10 +16370,14 @@
         <v>1521.215912828947</v>
       </c>
       <c r="R279" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S279" t="inlineStr"/>
-      <c r="T279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S279" t="n">
+        <v>1400.159842623197</v>
+      </c>
+      <c r="T279" t="n">
+        <v>1521.215912828947</v>
+      </c>
       <c r="U279" t="n">
         <v>1563.94013296274</v>
       </c>
@@ -15742,13 +16414,13 @@
         <v>1</v>
       </c>
       <c r="J280" t="n">
-        <v>27.25139504457131</v>
+        <v>27.25139504457132</v>
       </c>
       <c r="K280" t="n">
         <v>41.79161804199219</v>
       </c>
       <c r="L280" t="n">
-        <v>27.25139504457131</v>
+        <v>27.25139504457132</v>
       </c>
       <c r="M280" t="n">
         <v>23.49120944883765</v>
@@ -15766,10 +16438,14 @@
         <v>1439.995814866286</v>
       </c>
       <c r="R280" t="n">
-        <v>1</v>
-      </c>
-      <c r="S280" t="inlineStr"/>
-      <c r="T280" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S280" t="n">
+        <v>1439.995814866286</v>
+      </c>
+      <c r="T280" t="n">
+        <v>1563.94013296274</v>
+      </c>
       <c r="U280" t="n">
         <v>1603.504185133714</v>
       </c>
@@ -15830,10 +16506,14 @@
         <v>1474.157180786133</v>
       </c>
       <c r="R281" t="n">
-        <v>1</v>
-      </c>
-      <c r="S281" t="inlineStr"/>
-      <c r="T281" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S281" t="n">
+        <v>1474.157180786133</v>
+      </c>
+      <c r="T281" t="n">
+        <v>1637.86784362793</v>
+      </c>
       <c r="U281" t="n">
         <v>1637.86784362793</v>
       </c>
@@ -15873,7 +16553,7 @@
         <v>28.44217173258464</v>
       </c>
       <c r="K282" t="n">
-        <v>42.3355482313368</v>
+        <v>42.33554823133682</v>
       </c>
       <c r="L282" t="n">
         <v>28.44217173258464</v>
@@ -15894,10 +16574,14 @@
         <v>1482.21102142334</v>
       </c>
       <c r="R282" t="n">
-        <v>1</v>
-      </c>
-      <c r="S282" t="inlineStr"/>
-      <c r="T282" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S282" t="n">
+        <v>1482.21102142334</v>
+      </c>
+      <c r="T282" t="n">
+        <v>1652.864051818848</v>
+      </c>
       <c r="U282" t="n">
         <v>1652.864051818848</v>
       </c>
@@ -15937,7 +16621,7 @@
         <v>28.60678466796875</v>
       </c>
       <c r="K283" t="n">
-        <v>42.56558048023897</v>
+        <v>42.56558048023898</v>
       </c>
       <c r="L283" t="n">
         <v>28.60678466796875</v>
@@ -15958,10 +16642,14 @@
         <v>1482.21102142334</v>
       </c>
       <c r="R283" t="n">
-        <v>1</v>
-      </c>
-      <c r="S283" t="inlineStr"/>
-      <c r="T283" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S283" t="n">
+        <v>1482.21102142334</v>
+      </c>
+      <c r="T283" t="n">
+        <v>1651.070354003906</v>
+      </c>
       <c r="U283" t="n">
         <v>1651.070354003906</v>
       </c>
@@ -16022,10 +16710,14 @@
         <v>1479.429645996094</v>
       </c>
       <c r="R284" t="n">
-        <v>1</v>
-      </c>
-      <c r="S284" t="inlineStr"/>
-      <c r="T284" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S284" t="n">
+        <v>1479.429645996094</v>
+      </c>
+      <c r="T284" t="n">
+        <v>1645.168909160907</v>
+      </c>
       <c r="U284" t="n">
         <v>1645.168909160907</v>
       </c>
@@ -16086,10 +16778,14 @@
         <v>1472.606115253155</v>
       </c>
       <c r="R285" t="n">
-        <v>1</v>
-      </c>
-      <c r="S285" t="inlineStr"/>
-      <c r="T285" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S285" t="n">
+        <v>1472.606115253155</v>
+      </c>
+      <c r="T285" t="n">
+        <v>1645.866368272569</v>
+      </c>
       <c r="U285" t="n">
         <v>1645.866368272569</v>
       </c>
@@ -16126,13 +16822,13 @@
         <v>1</v>
       </c>
       <c r="J286" t="n">
-        <v>28.98275277273996</v>
+        <v>28.98275277273995</v>
       </c>
       <c r="K286" t="n">
         <v>43.08338623046875</v>
       </c>
       <c r="L286" t="n">
-        <v>28.98275277273996</v>
+        <v>28.98275277273995</v>
       </c>
       <c r="M286" t="n">
         <v>24.21313602842134</v>
@@ -16150,10 +16846,14 @@
         <v>1486.30174168178</v>
       </c>
       <c r="R286" t="n">
-        <v>1</v>
-      </c>
-      <c r="S286" t="inlineStr"/>
-      <c r="T286" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S286" t="n">
+        <v>1486.30174168178</v>
+      </c>
+      <c r="T286" t="n">
+        <v>1660.19825831822</v>
+      </c>
       <c r="U286" t="n">
         <v>1660.19825831822</v>
       </c>
@@ -16214,10 +16914,14 @@
         <v>1508.070349993025</v>
       </c>
       <c r="R287" t="n">
-        <v>1</v>
-      </c>
-      <c r="S287" t="inlineStr"/>
-      <c r="T287" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S287" t="n">
+        <v>1508.070349993025</v>
+      </c>
+      <c r="T287" t="n">
+        <v>1683.254723249163</v>
+      </c>
       <c r="U287" t="n">
         <v>1683.254723249163</v>
       </c>
@@ -16278,10 +16982,14 @@
         <v>1508.070349993025</v>
       </c>
       <c r="R288" t="n">
-        <v>1</v>
-      </c>
-      <c r="S288" t="inlineStr"/>
-      <c r="T288" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S288" t="n">
+        <v>1508.070349993025</v>
+      </c>
+      <c r="T288" t="n">
+        <v>1679.108844672309</v>
+      </c>
       <c r="U288" t="n">
         <v>1679.108844672309</v>
       </c>
@@ -16342,10 +17050,14 @@
         <v>1501.891155327691</v>
       </c>
       <c r="R289" t="n">
-        <v>1</v>
-      </c>
-      <c r="S289" t="inlineStr"/>
-      <c r="T289" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S289" t="n">
+        <v>1501.891155327691</v>
+      </c>
+      <c r="T289" t="n">
+        <v>1671.769609723772</v>
+      </c>
       <c r="U289" t="n">
         <v>1671.769609723772</v>
       </c>
@@ -16406,10 +17118,14 @@
         <v>1495.960272216797</v>
       </c>
       <c r="R290" t="n">
-        <v>1</v>
-      </c>
-      <c r="S290" t="inlineStr"/>
-      <c r="T290" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S290" t="n">
+        <v>1495.960272216797</v>
+      </c>
+      <c r="T290" t="n">
+        <v>1678.789727783203</v>
+      </c>
       <c r="U290" t="n">
         <v>1678.789727783203</v>
       </c>
@@ -16470,10 +17186,14 @@
         <v>1500.772382223195</v>
       </c>
       <c r="R291" t="n">
-        <v>1</v>
-      </c>
-      <c r="S291" t="inlineStr"/>
-      <c r="T291" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S291" t="n">
+        <v>1500.772382223195</v>
+      </c>
+      <c r="T291" t="n">
+        <v>1678.877642190867</v>
+      </c>
       <c r="U291" t="n">
         <v>1678.877642190867</v>
       </c>
@@ -16534,10 +17254,14 @@
         <v>1506.643305074758</v>
       </c>
       <c r="R292" t="n">
-        <v>1</v>
-      </c>
-      <c r="S292" t="inlineStr"/>
-      <c r="T292" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S292" t="n">
+        <v>1506.643305074758</v>
+      </c>
+      <c r="T292" t="n">
+        <v>1684.70667051118</v>
+      </c>
       <c r="U292" t="n">
         <v>1684.70667051118</v>
       </c>
@@ -16598,10 +17322,14 @@
         <v>1506.643305074758</v>
       </c>
       <c r="R293" t="n">
-        <v>1</v>
-      </c>
-      <c r="S293" t="inlineStr"/>
-      <c r="T293" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S293" t="n">
+        <v>1506.643305074758</v>
+      </c>
+      <c r="T293" t="n">
+        <v>1673.596252441406</v>
+      </c>
       <c r="U293" t="n">
         <v>1673.596252441406</v>
       </c>
@@ -16638,13 +17366,13 @@
         <v>1</v>
       </c>
       <c r="J294" t="n">
-        <v>29.94507921006944</v>
+        <v>29.94507921006945</v>
       </c>
       <c r="K294" t="n">
         <v>44.08524658203125</v>
       </c>
       <c r="L294" t="n">
-        <v>29.94507921006944</v>
+        <v>29.94507921006945</v>
       </c>
       <c r="M294" t="n">
         <v>24.42987002418155</v>
@@ -16662,15 +17390,19 @@
         <v>1495.528747558594</v>
       </c>
       <c r="R294" t="n">
-        <v>1</v>
-      </c>
-      <c r="S294" t="inlineStr"/>
-      <c r="T294" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S294" t="n">
+        <v>1495.528747558594</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1665.697725423177</v>
+      </c>
       <c r="U294" t="n">
         <v>1665.697725423177</v>
       </c>
       <c r="V294" t="n">
-        <v>1486.027250162761</v>
+        <v>1486.02725016276</v>
       </c>
     </row>
     <row r="295">
@@ -16723,13 +17455,17 @@
         <v>62</v>
       </c>
       <c r="Q295" t="n">
-        <v>1486.027250162761</v>
+        <v>1486.02725016276</v>
       </c>
       <c r="R295" t="n">
-        <v>1</v>
-      </c>
-      <c r="S295" t="inlineStr"/>
-      <c r="T295" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S295" t="n">
+        <v>1486.02725016276</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1661.227831159319</v>
+      </c>
       <c r="U295" t="n">
         <v>1661.227831159319</v>
       </c>
@@ -16790,10 +17526,14 @@
         <v>1481.547193254743</v>
       </c>
       <c r="R296" t="n">
-        <v>1</v>
-      </c>
-      <c r="S296" t="inlineStr"/>
-      <c r="T296" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S296" t="n">
+        <v>1481.547193254743</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1608.444372137662</v>
+      </c>
       <c r="U296" t="n">
         <v>1608.444372137662</v>
       </c>
@@ -16839,7 +17579,7 @@
         <v>30.51143094576322</v>
       </c>
       <c r="M297" t="n">
-        <v>24.67131729125977</v>
+        <v>24.67131729125976</v>
       </c>
       <c r="N297" t="n">
         <v>10</v>
@@ -16854,10 +17594,14 @@
         <v>1428.330652276401</v>
       </c>
       <c r="R297" t="n">
-        <v>1</v>
-      </c>
-      <c r="S297" t="inlineStr"/>
-      <c r="T297" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S297" t="n">
+        <v>1428.330652276401</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1575.90929283729</v>
+      </c>
       <c r="U297" t="n">
         <v>1575.90929283729</v>
       </c>
@@ -16918,10 +17662,14 @@
         <v>1400.662543194111</v>
       </c>
       <c r="R298" t="n">
-        <v>1</v>
-      </c>
-      <c r="S298" t="inlineStr"/>
-      <c r="T298" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S298" t="n">
+        <v>1400.662543194111</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1585.237481219952</v>
+      </c>
       <c r="U298" t="n">
         <v>1585.237481219952</v>
       </c>
@@ -16967,7 +17715,7 @@
         <v>30.93776765046296</v>
       </c>
       <c r="M299" t="n">
-        <v>24.77225109281994</v>
+        <v>24.77225109281995</v>
       </c>
       <c r="N299" t="n">
         <v>10</v>
@@ -16982,10 +17730,14 @@
         <v>1400.662543194111</v>
       </c>
       <c r="R299" t="n">
-        <v>1</v>
-      </c>
-      <c r="S299" t="inlineStr"/>
-      <c r="T299" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S299" t="n">
+        <v>1400.662543194111</v>
+      </c>
+      <c r="T299" t="n">
+        <v>1581.588266330295</v>
+      </c>
       <c r="U299" t="n">
         <v>1581.588266330295</v>
       </c>
@@ -17046,10 +17798,14 @@
         <v>1405.112320609715</v>
       </c>
       <c r="R300" t="n">
-        <v>1</v>
-      </c>
-      <c r="S300" t="inlineStr"/>
-      <c r="T300" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S300" t="n">
+        <v>1405.112320609715</v>
+      </c>
+      <c r="T300" t="n">
+        <v>1597.662703804348</v>
+      </c>
       <c r="U300" t="n">
         <v>1597.662703804348</v>
       </c>
@@ -17110,10 +17866,14 @@
         <v>1423.219723510742</v>
       </c>
       <c r="R301" t="n">
-        <v>1</v>
-      </c>
-      <c r="S301" t="inlineStr"/>
-      <c r="T301" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S301" t="n">
+        <v>1423.219723510742</v>
+      </c>
+      <c r="T301" t="n">
+        <v>1616.05530090332</v>
+      </c>
       <c r="U301" t="n">
         <v>1616.05530090332</v>
       </c>
@@ -17174,10 +17934,14 @@
         <v>1423.219723510742</v>
       </c>
       <c r="R302" t="n">
-        <v>1</v>
-      </c>
-      <c r="S302" t="inlineStr"/>
-      <c r="T302" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S302" t="n">
+        <v>1423.219723510742</v>
+      </c>
+      <c r="T302" t="n">
+        <v>1613.902877441406</v>
+      </c>
       <c r="U302" t="n">
         <v>1613.902877441406</v>
       </c>
@@ -17214,16 +17978,16 @@
         <v>1</v>
       </c>
       <c r="J303" t="n">
-        <v>32.10912757286658</v>
+        <v>32.10912757286659</v>
       </c>
       <c r="K303" t="n">
-        <v>44.73610704210069</v>
+        <v>44.7361070421007</v>
       </c>
       <c r="L303" t="n">
-        <v>32.10912757286658</v>
+        <v>32.10912757286659</v>
       </c>
       <c r="M303" t="n">
-        <v>25.28202805739183</v>
+        <v>25.28202805739182</v>
       </c>
       <c r="N303" t="n">
         <v>9</v>
@@ -17238,12 +18002,16 @@
         <v>1421.097122558594</v>
       </c>
       <c r="R303" t="n">
-        <v>1</v>
-      </c>
-      <c r="S303" t="inlineStr"/>
-      <c r="T303" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S303" t="n">
+        <v>1421.097122558594</v>
+      </c>
+      <c r="T303" t="n">
+        <v>1602.127370511569</v>
+      </c>
       <c r="U303" t="n">
-        <v>1602.127370511568</v>
+        <v>1602.127370511569</v>
       </c>
       <c r="V303" t="n">
         <v>1409.472605074369</v>
@@ -17281,7 +18049,7 @@
         <v>25.31561489105225</v>
       </c>
       <c r="K304" t="n">
-        <v>44.73610704210069</v>
+        <v>44.7361070421007</v>
       </c>
       <c r="L304" t="n">
         <v>32.01591932508681</v>
@@ -17302,10 +18070,14 @@
         <v>1435.203179740906</v>
       </c>
       <c r="R304" t="n">
-        <v>1</v>
-      </c>
-      <c r="S304" t="inlineStr"/>
-      <c r="T304" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S304" t="n">
+        <v>1435.203179740906</v>
+      </c>
+      <c r="T304" t="n">
+        <v>1587.096869087219</v>
+      </c>
       <c r="U304" t="n">
         <v>1587.096869087219</v>
       </c>
@@ -17345,7 +18117,7 @@
         <v>25.349169921875</v>
       </c>
       <c r="K305" t="n">
-        <v>44.73610704210069</v>
+        <v>44.7361070421007</v>
       </c>
       <c r="L305" t="n">
         <v>32.01591932508681</v>
@@ -17366,10 +18138,14 @@
         <v>1435.203179740906</v>
       </c>
       <c r="R305" t="n">
-        <v>1</v>
-      </c>
-      <c r="S305" t="inlineStr"/>
-      <c r="T305" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S305" t="n">
+        <v>1435.203179740906</v>
+      </c>
+      <c r="T305" t="n">
+        <v>1577.347497558594</v>
+      </c>
       <c r="U305" t="n">
         <v>1577.347497558594</v>
       </c>
@@ -17430,10 +18206,14 @@
         <v>1425.252478027344</v>
       </c>
       <c r="R306" t="n">
-        <v>1</v>
-      </c>
-      <c r="S306" t="inlineStr"/>
-      <c r="T306" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S306" t="n">
+        <v>1425.252478027344</v>
+      </c>
+      <c r="T306" t="n">
+        <v>1534.655687522888</v>
+      </c>
       <c r="U306" t="n">
         <v>1534.655687522888</v>
       </c>
@@ -17494,10 +18274,14 @@
         <v>1388.286681938171</v>
       </c>
       <c r="R307" t="n">
-        <v>1</v>
-      </c>
-      <c r="S307" t="inlineStr"/>
-      <c r="T307" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S307" t="n">
+        <v>1388.286681938171</v>
+      </c>
+      <c r="T307" t="n">
+        <v>1540.538269233704</v>
+      </c>
       <c r="U307" t="n">
         <v>1540.538269233704</v>
       </c>
@@ -17558,10 +18342,14 @@
         <v>1390.885806655884</v>
       </c>
       <c r="R308" t="n">
-        <v>1</v>
-      </c>
-      <c r="S308" t="inlineStr"/>
-      <c r="T308" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S308" t="n">
+        <v>1390.885806655884</v>
+      </c>
+      <c r="T308" t="n">
+        <v>1543.114193344116</v>
+      </c>
       <c r="U308" t="n">
         <v>1543.114193344116</v>
       </c>
@@ -17601,7 +18389,7 @@
         <v>25.34057788848877</v>
       </c>
       <c r="K309" t="n">
-        <v>44.73610704210069</v>
+        <v>44.7361070421007</v>
       </c>
       <c r="L309" t="n">
         <v>32.01591932508681</v>
@@ -17622,10 +18410,14 @@
         <v>1390.885806655884</v>
       </c>
       <c r="R309" t="n">
-        <v>1</v>
-      </c>
-      <c r="S309" t="inlineStr"/>
-      <c r="T309" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S309" t="n">
+        <v>1390.885806655884</v>
+      </c>
+      <c r="T309" t="n">
+        <v>1531.484258079529</v>
+      </c>
       <c r="U309" t="n">
         <v>1531.484258079529</v>
       </c>
@@ -17686,10 +18478,14 @@
         <v>1390.386468315125</v>
       </c>
       <c r="R310" t="n">
-        <v>1</v>
-      </c>
-      <c r="S310" t="inlineStr"/>
-      <c r="T310" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S310" t="n">
+        <v>1390.386468315125</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1542.113531684875</v>
+      </c>
       <c r="U310" t="n">
         <v>1542.113531684875</v>
       </c>
@@ -17729,7 +18525,7 @@
         <v>25.22628173828125</v>
       </c>
       <c r="K311" t="n">
-        <v>44.73610704210069</v>
+        <v>44.7361070421007</v>
       </c>
       <c r="L311" t="n">
         <v>32.01591932508681</v>
@@ -17750,10 +18546,14 @@
         <v>1390.386468315125</v>
       </c>
       <c r="R311" t="n">
-        <v>1</v>
-      </c>
-      <c r="S311" t="inlineStr"/>
-      <c r="T311" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S311" t="n">
+        <v>1390.386468315125</v>
+      </c>
+      <c r="T311" t="n">
+        <v>1541.053845214844</v>
+      </c>
       <c r="U311" t="n">
         <v>1541.053845214844</v>
       </c>
@@ -17793,7 +18593,7 @@
         <v>25.20499267578125</v>
       </c>
       <c r="K312" t="n">
-        <v>44.73610704210069</v>
+        <v>44.7361070421007</v>
       </c>
       <c r="L312" t="n">
         <v>32.04278282752404</v>
@@ -17814,10 +18614,14 @@
         <v>1389.696154785156</v>
       </c>
       <c r="R312" t="n">
-        <v>1</v>
-      </c>
-      <c r="S312" t="inlineStr"/>
-      <c r="T312" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S312" t="n">
+        <v>1389.696154785156</v>
+      </c>
+      <c r="T312" t="n">
+        <v>1539.652453613281</v>
+      </c>
       <c r="U312" t="n">
         <v>1539.652453613281</v>
       </c>
@@ -17878,10 +18682,14 @@
         <v>1388.422497558594</v>
       </c>
       <c r="R313" t="n">
-        <v>1</v>
-      </c>
-      <c r="S313" t="inlineStr"/>
-      <c r="T313" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S313" t="n">
+        <v>1388.422497558594</v>
+      </c>
+      <c r="T313" t="n">
+        <v>1538.389726118608</v>
+      </c>
       <c r="U313" t="n">
         <v>1538.389726118608</v>
       </c>
@@ -17921,7 +18729,7 @@
         <v>25.16499260290345</v>
       </c>
       <c r="K314" t="n">
-        <v>44.73610704210069</v>
+        <v>44.7361070421007</v>
       </c>
       <c r="L314" t="n">
         <v>32.27103780110677</v>
@@ -17942,10 +18750,14 @@
         <v>1393.730058812384</v>
       </c>
       <c r="R314" t="n">
-        <v>1</v>
-      </c>
-      <c r="S314" t="inlineStr"/>
-      <c r="T314" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S314" t="n">
+        <v>1393.730058812384</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1544.720014429804</v>
+      </c>
       <c r="U314" t="n">
         <v>1544.720014429804</v>
       </c>
@@ -17982,16 +18794,16 @@
         <v>2</v>
       </c>
       <c r="J315" t="n">
-        <v>25.12540337861474</v>
+        <v>25.12540337861473</v>
       </c>
       <c r="K315" t="n">
-        <v>44.73610704210069</v>
+        <v>44.7361070421007</v>
       </c>
       <c r="L315" t="n">
         <v>32.27103780110677</v>
       </c>
       <c r="M315" t="n">
-        <v>25.12540337861474</v>
+        <v>25.12540337861473</v>
       </c>
       <c r="N315" t="n">
         <v>9</v>
@@ -18006,10 +18818,14 @@
         <v>1414.023814278218</v>
       </c>
       <c r="R315" t="n">
-        <v>1</v>
-      </c>
-      <c r="S315" t="inlineStr"/>
-      <c r="T315" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S315" t="n">
+        <v>1414.023814278218</v>
+      </c>
+      <c r="T315" t="n">
+        <v>1564.776234549907</v>
+      </c>
       <c r="U315" t="n">
         <v>1564.776234549907</v>
       </c>
@@ -18046,7 +18862,7 @@
         <v>2</v>
       </c>
       <c r="J316" t="n">
-        <v>25.08741874125467</v>
+        <v>25.08741874125466</v>
       </c>
       <c r="K316" t="n">
         <v>44.7361070421007</v>
@@ -18055,7 +18871,7 @@
         <v>32.27103780110677</v>
       </c>
       <c r="M316" t="n">
-        <v>25.08741874125467</v>
+        <v>25.08741874125466</v>
       </c>
       <c r="N316" t="n">
         <v>9</v>
@@ -18070,10 +18886,14 @@
         <v>1421.71278039733</v>
       </c>
       <c r="R316" t="n">
-        <v>1</v>
-      </c>
-      <c r="S316" t="inlineStr"/>
-      <c r="T316" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S316" t="n">
+        <v>1421.71278039733</v>
+      </c>
+      <c r="T316" t="n">
+        <v>1572.237292844858</v>
+      </c>
       <c r="U316" t="n">
         <v>1572.237292844858</v>
       </c>
@@ -18110,7 +18930,7 @@
         <v>2</v>
       </c>
       <c r="J317" t="n">
-        <v>24.9745461535098</v>
+        <v>24.97454615350979</v>
       </c>
       <c r="K317" t="n">
         <v>44.7361070421007</v>
@@ -18119,7 +18939,7 @@
         <v>32.27103780110677</v>
       </c>
       <c r="M317" t="n">
-        <v>24.9745461535098</v>
+        <v>24.97454615350979</v>
       </c>
       <c r="N317" t="n">
         <v>9</v>
@@ -18134,10 +18954,14 @@
         <v>1424.013861539471</v>
       </c>
       <c r="R317" t="n">
-        <v>1</v>
-      </c>
-      <c r="S317" t="inlineStr"/>
-      <c r="T317" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S317" t="n">
+        <v>1424.013861539471</v>
+      </c>
+      <c r="T317" t="n">
+        <v>1573.861138460529</v>
+      </c>
       <c r="U317" t="n">
         <v>1573.861138460529</v>
       </c>
@@ -18174,7 +18998,7 @@
         <v>2</v>
       </c>
       <c r="J318" t="n">
-        <v>24.58507513230847</v>
+        <v>24.58507513230846</v>
       </c>
       <c r="K318" t="n">
         <v>44.08524658203125</v>
@@ -18183,7 +19007,7 @@
         <v>31.36213814871652</v>
       </c>
       <c r="M318" t="n">
-        <v>24.58507513230847</v>
+        <v>24.58507513230846</v>
       </c>
       <c r="N318" t="n">
         <v>10</v>
@@ -18198,10 +19022,14 @@
         <v>1424.819786810106</v>
       </c>
       <c r="R318" t="n">
-        <v>1</v>
-      </c>
-      <c r="S318" t="inlineStr"/>
-      <c r="T318" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S318" t="n">
+        <v>1424.819786810106</v>
+      </c>
+      <c r="T318" t="n">
+        <v>1572.330237603957</v>
+      </c>
       <c r="U318" t="n">
         <v>1572.330237603957</v>
       </c>
@@ -18262,10 +19090,14 @@
         <v>1431.396910636656</v>
       </c>
       <c r="R319" t="n">
-        <v>1</v>
-      </c>
-      <c r="S319" t="inlineStr"/>
-      <c r="T319" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S319" t="n">
+        <v>1431.396910636656</v>
+      </c>
+      <c r="T319" t="n">
+        <v>1578.353089363344</v>
+      </c>
       <c r="U319" t="n">
         <v>1578.353089363344</v>
       </c>
@@ -18302,7 +19134,7 @@
         <v>2</v>
       </c>
       <c r="J320" t="n">
-        <v>24.40612418882309</v>
+        <v>24.40612418882308</v>
       </c>
       <c r="K320" t="n">
         <v>44.08524658203125</v>
@@ -18311,7 +19143,7 @@
         <v>31.36213814871652</v>
       </c>
       <c r="M320" t="n">
-        <v>24.40612418882309</v>
+        <v>24.40612418882308</v>
       </c>
       <c r="N320" t="n">
         <v>10</v>
@@ -18326,10 +19158,14 @@
         <v>1439.781627433531</v>
       </c>
       <c r="R320" t="n">
-        <v>1</v>
-      </c>
-      <c r="S320" t="inlineStr"/>
-      <c r="T320" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S320" t="n">
+        <v>1439.781627433531</v>
+      </c>
+      <c r="T320" t="n">
+        <v>1586.218372566469</v>
+      </c>
       <c r="U320" t="n">
         <v>1586.218372566469</v>
       </c>
@@ -18366,7 +19202,7 @@
         <v>2</v>
       </c>
       <c r="J321" t="n">
-        <v>24.25535829605595</v>
+        <v>24.25535829605594</v>
       </c>
       <c r="K321" t="n">
         <v>44.08524658203125</v>
@@ -18375,7 +19211,7 @@
         <v>31.36213814871652</v>
       </c>
       <c r="M321" t="n">
-        <v>24.25535829605595</v>
+        <v>24.25535829605594</v>
       </c>
       <c r="N321" t="n">
         <v>10</v>
@@ -18390,10 +19226,14 @@
         <v>1439.781627433531</v>
       </c>
       <c r="R321" t="n">
-        <v>1</v>
-      </c>
-      <c r="S321" t="inlineStr"/>
-      <c r="T321" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S321" t="n">
+        <v>1439.781627433531</v>
+      </c>
+      <c r="T321" t="n">
+        <v>1579.228538267074</v>
+      </c>
       <c r="U321" t="n">
         <v>1579.228538267074</v>
       </c>
@@ -18430,7 +19270,7 @@
         <v>2</v>
       </c>
       <c r="J322" t="n">
-        <v>24.14572143554688</v>
+        <v>24.14572143554687</v>
       </c>
       <c r="K322" t="n">
         <v>44.08524658203125</v>
@@ -18439,7 +19279,7 @@
         <v>31.36213814871652</v>
       </c>
       <c r="M322" t="n">
-        <v>24.14572143554688</v>
+        <v>24.14572143554687</v>
       </c>
       <c r="N322" t="n">
         <v>10</v>
@@ -18454,10 +19294,14 @@
         <v>1433.696388490738</v>
       </c>
       <c r="R322" t="n">
-        <v>1</v>
-      </c>
-      <c r="S322" t="inlineStr"/>
-      <c r="T322" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S322" t="n">
+        <v>1433.696388490738</v>
+      </c>
+      <c r="T322" t="n">
+        <v>1572.674652099609</v>
+      </c>
       <c r="U322" t="n">
         <v>1572.674652099609</v>
       </c>
@@ -18518,10 +19362,14 @@
         <v>1443.324245920489</v>
       </c>
       <c r="R323" t="n">
-        <v>1</v>
-      </c>
-      <c r="S323" t="inlineStr"/>
-      <c r="T323" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S323" t="n">
+        <v>1443.324245920489</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1587.675754079511</v>
+      </c>
       <c r="U323" t="n">
         <v>1587.675754079511</v>
       </c>
@@ -18582,10 +19430,14 @@
         <v>1449.4846925797</v>
       </c>
       <c r="R324" t="n">
-        <v>1</v>
-      </c>
-      <c r="S324" t="inlineStr"/>
-      <c r="T324" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S324" t="n">
+        <v>1449.4846925797</v>
+      </c>
+      <c r="T324" t="n">
+        <v>1593.565234178112</v>
+      </c>
       <c r="U324" t="n">
         <v>1593.565234178112</v>
       </c>
@@ -18646,10 +19498,14 @@
         <v>1449.4846925797</v>
       </c>
       <c r="R325" t="n">
-        <v>1</v>
-      </c>
-      <c r="S325" t="inlineStr"/>
-      <c r="T325" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S325" t="n">
+        <v>1449.4846925797</v>
+      </c>
+      <c r="T325" t="n">
+        <v>1588.719892932523</v>
+      </c>
       <c r="U325" t="n">
         <v>1588.719892932523</v>
       </c>
@@ -18710,10 +19566,14 @@
         <v>1444.705155895602</v>
       </c>
       <c r="R326" t="n">
-        <v>1</v>
-      </c>
-      <c r="S326" t="inlineStr"/>
-      <c r="T326" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S326" t="n">
+        <v>1444.705155895602</v>
+      </c>
+      <c r="T326" t="n">
+        <v>1587.18841749622</v>
+      </c>
       <c r="U326" t="n">
         <v>1587.18841749622</v>
       </c>
@@ -18774,10 +19634,14 @@
         <v>1443.31158250378</v>
       </c>
       <c r="R327" t="n">
-        <v>1</v>
-      </c>
-      <c r="S327" t="inlineStr"/>
-      <c r="T327" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S327" t="n">
+        <v>1443.31158250378</v>
+      </c>
+      <c r="T327" t="n">
+        <v>1580.399224065965</v>
+      </c>
       <c r="U327" t="n">
         <v>1580.399224065965</v>
       </c>
@@ -18814,7 +19678,7 @@
         <v>2</v>
       </c>
       <c r="J328" t="n">
-        <v>23.92656939106603</v>
+        <v>23.92656939106602</v>
       </c>
       <c r="K328" t="n">
         <v>44.08524658203125</v>
@@ -18823,7 +19687,7 @@
         <v>31.36213814871652</v>
       </c>
       <c r="M328" t="n">
-        <v>23.92656939106603</v>
+        <v>23.92656939106602</v>
       </c>
       <c r="N328" t="n">
         <v>10</v>
@@ -18838,10 +19702,14 @@
         <v>1436.600775934035</v>
       </c>
       <c r="R328" t="n">
-        <v>1</v>
-      </c>
-      <c r="S328" t="inlineStr"/>
-      <c r="T328" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S328" t="n">
+        <v>1436.600775934035</v>
+      </c>
+      <c r="T328" t="n">
+        <v>1578.192244794292</v>
+      </c>
       <c r="U328" t="n">
         <v>1578.192244794292</v>
       </c>
@@ -18878,7 +19746,7 @@
         <v>2</v>
       </c>
       <c r="J329" t="n">
-        <v>23.89999684979839</v>
+        <v>23.89999684979838</v>
       </c>
       <c r="K329" t="n">
         <v>44.08524658203125</v>
@@ -18887,7 +19755,7 @@
         <v>31.36213814871652</v>
       </c>
       <c r="M329" t="n">
-        <v>23.89999684979839</v>
+        <v>23.89999684979838</v>
       </c>
       <c r="N329" t="n">
         <v>10</v>
@@ -18902,10 +19770,14 @@
         <v>1434.632828447896</v>
       </c>
       <c r="R329" t="n">
-        <v>1</v>
-      </c>
-      <c r="S329" t="inlineStr"/>
-      <c r="T329" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S329" t="n">
+        <v>1434.632828447896</v>
+      </c>
+      <c r="T329" t="n">
+        <v>1551.012490549395</v>
+      </c>
       <c r="U329" t="n">
         <v>1551.012490549395</v>
       </c>
@@ -18966,10 +19838,14 @@
         <v>1407.612509450605</v>
       </c>
       <c r="R330" t="n">
-        <v>1</v>
-      </c>
-      <c r="S330" t="inlineStr"/>
-      <c r="T330" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S330" t="n">
+        <v>1407.612509450605</v>
+      </c>
+      <c r="T330" t="n">
+        <v>1534.454640443863</v>
+      </c>
       <c r="U330" t="n">
         <v>1534.454640443863</v>
       </c>
@@ -19030,10 +19906,14 @@
         <v>1393.000854689075</v>
       </c>
       <c r="R331" t="n">
-        <v>1</v>
-      </c>
-      <c r="S331" t="inlineStr"/>
-      <c r="T331" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S331" t="n">
+        <v>1393.000854689075</v>
+      </c>
+      <c r="T331" t="n">
+        <v>1536.624145310925</v>
+      </c>
       <c r="U331" t="n">
         <v>1536.624145310925</v>
       </c>
@@ -19094,10 +19974,14 @@
         <v>1393.000854689075</v>
       </c>
       <c r="R332" t="n">
-        <v>1</v>
-      </c>
-      <c r="S332" t="inlineStr"/>
-      <c r="T332" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S332" t="n">
+        <v>1393.000854689075</v>
+      </c>
+      <c r="T332" t="n">
+        <v>1530.042234949912</v>
+      </c>
       <c r="U332" t="n">
         <v>1530.042234949912</v>
       </c>
@@ -19158,10 +20042,14 @@
         <v>1393.97464383033</v>
       </c>
       <c r="R333" t="n">
-        <v>1</v>
-      </c>
-      <c r="S333" t="inlineStr"/>
-      <c r="T333" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S333" t="n">
+        <v>1393.97464383033</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1537.90035616967</v>
+      </c>
       <c r="U333" t="n">
         <v>1537.90035616967</v>
       </c>
@@ -19222,10 +20110,14 @@
         <v>1404.342437941028</v>
       </c>
       <c r="R334" t="n">
-        <v>1</v>
-      </c>
-      <c r="S334" t="inlineStr"/>
-      <c r="T334" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S334" t="n">
+        <v>1404.342437941028</v>
+      </c>
+      <c r="T334" t="n">
+        <v>1548.307586473034</v>
+      </c>
       <c r="U334" t="n">
         <v>1548.307586473034</v>
       </c>
@@ -19286,10 +20178,14 @@
         <v>1404.342437941028</v>
       </c>
       <c r="R335" t="n">
-        <v>1</v>
-      </c>
-      <c r="S335" t="inlineStr"/>
-      <c r="T335" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S335" t="n">
+        <v>1404.342437941028</v>
+      </c>
+      <c r="T335" t="n">
+        <v>1544.65468336536</v>
+      </c>
       <c r="U335" t="n">
         <v>1544.65468336536</v>
       </c>
@@ -19350,10 +20246,14 @@
         <v>1400.995341048702</v>
       </c>
       <c r="R336" t="n">
-        <v>1</v>
-      </c>
-      <c r="S336" t="inlineStr"/>
-      <c r="T336" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S336" t="n">
+        <v>1400.995341048702</v>
+      </c>
+      <c r="T336" t="n">
+        <v>1543.77853039157</v>
+      </c>
       <c r="U336" t="n">
         <v>1543.77853039157</v>
       </c>
@@ -19414,10 +20314,14 @@
         <v>1400.321445194367</v>
       </c>
       <c r="R337" t="n">
-        <v>1</v>
-      </c>
-      <c r="S337" t="inlineStr"/>
-      <c r="T337" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S337" t="n">
+        <v>1400.321445194367</v>
+      </c>
+      <c r="T337" t="n">
+        <v>1542.39739440918</v>
+      </c>
       <c r="U337" t="n">
         <v>1542.39739440918</v>
       </c>
@@ -19478,10 +20382,14 @@
         <v>1400.152654418945</v>
       </c>
       <c r="R338" t="n">
-        <v>1</v>
-      </c>
-      <c r="S338" t="inlineStr"/>
-      <c r="T338" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S338" t="n">
+        <v>1400.152654418945</v>
+      </c>
+      <c r="T338" t="n">
+        <v>1536.980269775391</v>
+      </c>
       <c r="U338" t="n">
         <v>1536.980269775391</v>
       </c>
@@ -19518,7 +20426,7 @@
         <v>2</v>
       </c>
       <c r="J339" t="n">
-        <v>23.50360045352225</v>
+        <v>23.50360045352224</v>
       </c>
       <c r="K339" t="n">
         <v>44.08524658203125</v>
@@ -19527,7 +20435,7 @@
         <v>30.98604381930443</v>
       </c>
       <c r="M339" t="n">
-        <v>23.50360045352225</v>
+        <v>23.50360045352224</v>
       </c>
       <c r="N339" t="n">
         <v>10</v>
@@ -19542,10 +20450,14 @@
         <v>1412.676698639433</v>
       </c>
       <c r="R339" t="n">
-        <v>1</v>
-      </c>
-      <c r="S339" t="inlineStr"/>
-      <c r="T339" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S339" t="n">
+        <v>1412.676698639433</v>
+      </c>
+      <c r="T339" t="n">
+        <v>1553.698301360567</v>
+      </c>
       <c r="U339" t="n">
         <v>1553.698301360567</v>
       </c>
@@ -19606,10 +20518,14 @@
         <v>1424.978962112685</v>
       </c>
       <c r="R340" t="n">
-        <v>1</v>
-      </c>
-      <c r="S340" t="inlineStr"/>
-      <c r="T340" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S340" t="n">
+        <v>1424.978962112685</v>
+      </c>
+      <c r="T340" t="n">
+        <v>1565.47098905919</v>
+      </c>
       <c r="U340" t="n">
         <v>1565.47098905919</v>
       </c>
@@ -19670,10 +20586,14 @@
         <v>1424.978962112685</v>
       </c>
       <c r="R341" t="n">
-        <v>1</v>
-      </c>
-      <c r="S341" t="inlineStr"/>
-      <c r="T341" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S341" t="n">
+        <v>1424.978962112685</v>
+      </c>
+      <c r="T341" t="n">
+        <v>1564.203046999139</v>
+      </c>
       <c r="U341" t="n">
         <v>1564.203046999139</v>
       </c>
@@ -19734,10 +20654,14 @@
         <v>1424.171953000861</v>
       </c>
       <c r="R342" t="n">
-        <v>1</v>
-      </c>
-      <c r="S342" t="inlineStr"/>
-      <c r="T342" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S342" t="n">
+        <v>1424.171953000861</v>
+      </c>
+      <c r="T342" t="n">
+        <v>1558.004929325498</v>
+      </c>
       <c r="U342" t="n">
         <v>1558.004929325498</v>
       </c>
@@ -19798,10 +20722,14 @@
         <v>1426.522268571525</v>
       </c>
       <c r="R343" t="n">
-        <v>1</v>
-      </c>
-      <c r="S343" t="inlineStr"/>
-      <c r="T343" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S343" t="n">
+        <v>1426.522268571525</v>
+      </c>
+      <c r="T343" t="n">
+        <v>1565.5277802566</v>
+      </c>
       <c r="U343" t="n">
         <v>1565.5277802566</v>
       </c>
@@ -19862,10 +20790,14 @@
         <v>1443.678265801791</v>
       </c>
       <c r="R344" t="n">
-        <v>1</v>
-      </c>
-      <c r="S344" t="inlineStr"/>
-      <c r="T344" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S344" t="n">
+        <v>1443.678265801791</v>
+      </c>
+      <c r="T344" t="n">
+        <v>1581.796709784146</v>
+      </c>
       <c r="U344" t="n">
         <v>1581.796709784146</v>
       </c>
@@ -19926,10 +20858,14 @@
         <v>1443.678265801791</v>
       </c>
       <c r="R345" t="n">
-        <v>1</v>
-      </c>
-      <c r="S345" t="inlineStr"/>
-      <c r="T345" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S345" t="n">
+        <v>1443.678265801791</v>
+      </c>
+      <c r="T345" t="n">
+        <v>1568.493532588564</v>
+      </c>
       <c r="U345" t="n">
         <v>1568.493532588564</v>
       </c>
@@ -19990,10 +20926,14 @@
         <v>1430.881467411436</v>
       </c>
       <c r="R346" t="n">
-        <v>1</v>
-      </c>
-      <c r="S346" t="inlineStr"/>
-      <c r="T346" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S346" t="n">
+        <v>1430.881467411436</v>
+      </c>
+      <c r="T346" t="n">
+        <v>1544.053569714776</v>
+      </c>
       <c r="U346" t="n">
         <v>1544.053569714776</v>
       </c>
@@ -20054,10 +20994,14 @@
         <v>1518.336222457886</v>
       </c>
       <c r="R347" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S347" t="inlineStr"/>
-      <c r="T347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S347" t="n">
+        <v>1406.721332628974</v>
+      </c>
+      <c r="T347" t="n">
+        <v>1518.336222457886</v>
+      </c>
       <c r="U347" t="n">
         <v>1518.336222457886</v>
       </c>
@@ -20118,10 +21062,14 @@
         <v>1492.314282226562</v>
       </c>
       <c r="R348" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S348" t="inlineStr"/>
-      <c r="T348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S348" t="n">
+        <v>1306.810717773438</v>
+      </c>
+      <c r="T348" t="n">
+        <v>1492.314282226562</v>
+      </c>
       <c r="U348" t="n">
         <v>1492.314282226562</v>
       </c>
@@ -20182,10 +21130,14 @@
         <v>1471.272190587661</v>
       </c>
       <c r="R349" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S349" t="inlineStr"/>
-      <c r="T349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S349" t="n">
+        <v>1286.602809412339</v>
+      </c>
+      <c r="T349" t="n">
+        <v>1471.272190587661</v>
+      </c>
       <c r="U349" t="n">
         <v>1471.272190587661</v>
       </c>
@@ -20231,7 +21183,7 @@
         <v>31.00870694247159</v>
       </c>
       <c r="M350" t="n">
-        <v>22.80385913514255</v>
+        <v>22.80385913514254</v>
       </c>
       <c r="N350" t="n">
         <v>10</v>
@@ -20246,10 +21198,14 @@
         <v>1471.272190587661</v>
       </c>
       <c r="R350" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S350" t="inlineStr"/>
-      <c r="T350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S350" t="n">
+        <v>1290.023866965554</v>
+      </c>
+      <c r="T350" t="n">
+        <v>1471.272190587661</v>
+      </c>
       <c r="U350" t="n">
         <v>1476.076108620384</v>
       </c>
@@ -20295,7 +21251,7 @@
         <v>31.1543135209517</v>
       </c>
       <c r="M351" t="n">
-        <v>22.80385913514255</v>
+        <v>22.80385913514254</v>
       </c>
       <c r="N351" t="n">
         <v>10</v>
@@ -20310,10 +21266,14 @@
         <v>1476.076108620384</v>
       </c>
       <c r="R351" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S351" t="inlineStr"/>
-      <c r="T351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S351" t="n">
+        <v>1293.274547230114</v>
+      </c>
+      <c r="T351" t="n">
+        <v>1476.076108620384</v>
+      </c>
       <c r="U351" t="n">
         <v>1480.200428355824</v>
       </c>
@@ -20359,7 +21319,7 @@
         <v>31.3577988133286</v>
       </c>
       <c r="M352" t="n">
-        <v>22.80385913514255</v>
+        <v>22.80385913514254</v>
       </c>
       <c r="N352" t="n">
         <v>10</v>
@@ -20374,10 +21334,14 @@
         <v>1471.785920854048</v>
       </c>
       <c r="R352" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S352" t="inlineStr"/>
-      <c r="T352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S352" t="n">
+        <v>1283.639127974077</v>
+      </c>
+      <c r="T352" t="n">
+        <v>1471.785920854048</v>
+      </c>
       <c r="U352" t="n">
         <v>1471.785920854048</v>
       </c>
@@ -20423,7 +21387,7 @@
         <v>31.51279888731061</v>
       </c>
       <c r="M353" t="n">
-        <v>22.80385913514255</v>
+        <v>22.80385913514254</v>
       </c>
       <c r="N353" t="n">
         <v>10</v>
@@ -20438,10 +21402,14 @@
         <v>1470.588384454901</v>
       </c>
       <c r="R353" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S353" t="inlineStr"/>
-      <c r="T353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S353" t="n">
+        <v>1281.511591131037</v>
+      </c>
+      <c r="T353" t="n">
+        <v>1470.588384454901</v>
+      </c>
       <c r="U353" t="n">
         <v>1470.588384454901</v>
       </c>
@@ -20502,10 +21470,14 @@
         <v>1468.984080954159</v>
       </c>
       <c r="R354" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S354" t="inlineStr"/>
-      <c r="T354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S354" t="n">
+        <v>1279.340870217716</v>
+      </c>
+      <c r="T354" t="n">
+        <v>1468.984080954159</v>
+      </c>
       <c r="U354" t="n">
         <v>1468.984080954159</v>
       </c>
@@ -20542,16 +21514,16 @@
         <v>1</v>
       </c>
       <c r="J355" t="n">
-        <v>31.61149588448661</v>
+        <v>31.6114958844866</v>
       </c>
       <c r="K355" t="n">
         <v>44.08524658203125</v>
       </c>
       <c r="L355" t="n">
-        <v>31.61149588448661</v>
+        <v>31.6114958844866</v>
       </c>
       <c r="M355" t="n">
-        <v>22.68822731711648</v>
+        <v>22.68822731711647</v>
       </c>
       <c r="N355" t="n">
         <v>10</v>
@@ -20566,10 +21538,14 @@
         <v>1451.034438825335</v>
       </c>
       <c r="R355" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S355" t="inlineStr"/>
-      <c r="T355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S355" t="n">
+        <v>1261.365463518415</v>
+      </c>
+      <c r="T355" t="n">
+        <v>1451.034438825335</v>
+      </c>
       <c r="U355" t="n">
         <v>1451.034438825335</v>
       </c>
@@ -20615,7 +21591,7 @@
         <v>31.56013488769531</v>
       </c>
       <c r="M356" t="n">
-        <v>22.62532439055266</v>
+        <v>22.62532439055267</v>
       </c>
       <c r="N356" t="n">
         <v>10</v>
@@ -20630,10 +21606,14 @@
         <v>1445.492904663086</v>
       </c>
       <c r="R356" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S356" t="inlineStr"/>
-      <c r="T356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S356" t="n">
+        <v>1256.132095336914</v>
+      </c>
+      <c r="T356" t="n">
+        <v>1445.492904663086</v>
+      </c>
       <c r="U356" t="n">
         <v>1445.492904663086</v>
       </c>
@@ -20694,10 +21674,14 @@
         <v>1427.920095997936</v>
       </c>
       <c r="R357" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S357" t="inlineStr"/>
-      <c r="T357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S357" t="n">
+        <v>1292.579904002064</v>
+      </c>
+      <c r="T357" t="n">
+        <v>1427.920095997936</v>
+      </c>
       <c r="U357" t="n">
         <v>1427.920095997936</v>
       </c>
@@ -20758,10 +21742,14 @@
         <v>1422.608775243219</v>
       </c>
       <c r="R358" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S358" t="inlineStr"/>
-      <c r="T358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S358" t="n">
+        <v>1287.141224756781</v>
+      </c>
+      <c r="T358" t="n">
+        <v>1422.608775243219</v>
+      </c>
       <c r="U358" t="n">
         <v>1422.608775243219</v>
       </c>
@@ -20822,10 +21810,14 @@
         <v>1422.608775243219</v>
       </c>
       <c r="R359" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S359" t="inlineStr"/>
-      <c r="T359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S359" t="n">
+        <v>1298.12106979658</v>
+      </c>
+      <c r="T359" t="n">
+        <v>1422.608775243219</v>
+      </c>
       <c r="U359" t="n">
         <v>1433.603905789357</v>
       </c>
@@ -20886,10 +21878,14 @@
         <v>1425.741690466539</v>
       </c>
       <c r="R360" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S360" t="inlineStr"/>
-      <c r="T360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S360" t="n">
+        <v>1290.483285119398</v>
+      </c>
+      <c r="T360" t="n">
+        <v>1425.741690466539</v>
+      </c>
       <c r="U360" t="n">
         <v>1425.741690466539</v>
       </c>
@@ -20950,10 +21946,14 @@
         <v>1413.796219735775</v>
       </c>
       <c r="R361" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S361" t="inlineStr"/>
-      <c r="T361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S361" t="n">
+        <v>1278.678755850162</v>
+      </c>
+      <c r="T361" t="n">
+        <v>1413.796219735775</v>
+      </c>
       <c r="U361" t="n">
         <v>1413.796219735775</v>
       </c>
@@ -20990,7 +21990,7 @@
         <v>2</v>
       </c>
       <c r="J362" t="n">
-        <v>22.47773782982016</v>
+        <v>22.47773782982017</v>
       </c>
       <c r="K362" t="n">
         <v>44.08524658203125</v>
@@ -20999,7 +21999,7 @@
         <v>31.51492853937922</v>
       </c>
       <c r="M362" t="n">
-        <v>22.47773782982016</v>
+        <v>22.47773782982017</v>
       </c>
       <c r="N362" t="n">
         <v>10</v>
@@ -21014,10 +22014,14 @@
         <v>1400.845689075398</v>
       </c>
       <c r="R362" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S362" t="inlineStr"/>
-      <c r="T362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S362" t="n">
+        <v>1265.979262096477</v>
+      </c>
+      <c r="T362" t="n">
+        <v>1400.845689075398</v>
+      </c>
       <c r="U362" t="n">
         <v>1400.845689075398</v>
       </c>
@@ -21054,7 +22058,7 @@
         <v>2</v>
       </c>
       <c r="J363" t="n">
-        <v>22.46132282760908</v>
+        <v>22.46132282760909</v>
       </c>
       <c r="K363" t="n">
         <v>44.08524658203125</v>
@@ -21063,7 +22067,7 @@
         <v>31.51492853937922</v>
       </c>
       <c r="M363" t="n">
-        <v>22.46132282760908</v>
+        <v>22.46132282760909</v>
       </c>
       <c r="N363" t="n">
         <v>10</v>
@@ -21078,10 +22082,14 @@
         <v>1400.558956275796</v>
       </c>
       <c r="R363" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S363" t="inlineStr"/>
-      <c r="T363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S363" t="n">
+        <v>1265.791019310142</v>
+      </c>
+      <c r="T363" t="n">
+        <v>1400.558956275796</v>
+      </c>
       <c r="U363" t="n">
         <v>1400.558956275796</v>
       </c>
@@ -21142,10 +22150,14 @@
         <v>1400.558956275796</v>
       </c>
       <c r="R364" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S364" t="inlineStr"/>
-      <c r="T364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S364" t="n">
+        <v>1270.130676269531</v>
+      </c>
+      <c r="T364" t="n">
+        <v>1400.558956275796</v>
+      </c>
       <c r="U364" t="n">
         <v>1404.969299316406</v>
       </c>
@@ -21182,7 +22194,7 @@
         <v>2</v>
       </c>
       <c r="J365" t="n">
-        <v>22.51913840553977</v>
+        <v>22.51913840553978</v>
       </c>
       <c r="K365" t="n">
         <v>44.24221869574653</v>
@@ -21191,7 +22203,7 @@
         <v>31.57944030761719</v>
       </c>
       <c r="M365" t="n">
-        <v>22.51913840553977</v>
+        <v>22.51913840553978</v>
       </c>
       <c r="N365" t="n">
         <v>9</v>
@@ -21206,10 +22218,14 @@
         <v>1399.307415216619</v>
       </c>
       <c r="R365" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S365" t="inlineStr"/>
-      <c r="T365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S365" t="n">
+        <v>1264.192584783381</v>
+      </c>
+      <c r="T365" t="n">
+        <v>1399.307415216619</v>
+      </c>
       <c r="U365" t="n">
         <v>1399.307415216619</v>
       </c>
@@ -21249,7 +22265,7 @@
         <v>22.54759107317243</v>
       </c>
       <c r="K366" t="n">
-        <v>44.25843353271485</v>
+        <v>44.25843353271484</v>
       </c>
       <c r="L366" t="n">
         <v>31.57944030761719</v>
@@ -21270,10 +22286,14 @@
         <v>1399.307415216619</v>
       </c>
       <c r="R366" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S366" t="inlineStr"/>
-      <c r="T366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S366" t="n">
+        <v>1270.032214573451</v>
+      </c>
+      <c r="T366" t="n">
+        <v>1399.307415216619</v>
+      </c>
       <c r="U366" t="n">
         <v>1405.317761012486</v>
       </c>
@@ -21334,10 +22354,14 @@
         <v>1402.291069592928</v>
       </c>
       <c r="R367" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S367" t="inlineStr"/>
-      <c r="T367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S367" t="n">
+        <v>1266.858954821135</v>
+      </c>
+      <c r="T367" t="n">
+        <v>1402.291069592928</v>
+      </c>
       <c r="U367" t="n">
         <v>1402.291069592928</v>
       </c>
@@ -21377,7 +22401,7 @@
         <v>22.59793259193157</v>
       </c>
       <c r="K368" t="n">
-        <v>44.23124593098959</v>
+        <v>44.23124593098958</v>
       </c>
       <c r="L368" t="n">
         <v>31.57944030761719</v>
@@ -21398,10 +22422,14 @@
         <v>1402.291069592928</v>
       </c>
       <c r="R368" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S368" t="inlineStr"/>
-      <c r="T368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S368" t="n">
+        <v>1269.681177810143</v>
+      </c>
+      <c r="T368" t="n">
+        <v>1402.291069592928</v>
+      </c>
       <c r="U368" t="n">
         <v>1405.268773361732</v>
       </c>
@@ -21438,16 +22466,16 @@
         <v>2</v>
       </c>
       <c r="J369" t="n">
-        <v>22.59381475933527</v>
+        <v>22.59381475933528</v>
       </c>
       <c r="K369" t="n">
-        <v>43.8399951171875</v>
+        <v>43.83999511718749</v>
       </c>
       <c r="L369" t="n">
         <v>31.57944030761719</v>
       </c>
       <c r="M369" t="n">
-        <v>22.59381475933527</v>
+        <v>22.59381475933528</v>
       </c>
       <c r="N369" t="n">
         <v>5</v>
@@ -21462,10 +22490,14 @@
         <v>1380.331432070975</v>
       </c>
       <c r="R369" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S369" t="inlineStr"/>
-      <c r="T369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S369" t="n">
+        <v>1244.768543514963</v>
+      </c>
+      <c r="T369" t="n">
+        <v>1380.331432070975</v>
+      </c>
       <c r="U369" t="n">
         <v>1380.331432070975</v>
       </c>
@@ -21505,7 +22537,7 @@
         <v>22.65420918782552</v>
       </c>
       <c r="K370" t="n">
-        <v>43.42186889648438</v>
+        <v>43.42186889648437</v>
       </c>
       <c r="L370" t="n">
         <v>31.57944030761719</v>
@@ -21526,10 +22558,14 @@
         <v>1365.81266418457</v>
       </c>
       <c r="R370" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S370" t="inlineStr"/>
-      <c r="T370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S370" t="n">
+        <v>1229.887409057617</v>
+      </c>
+      <c r="T370" t="n">
+        <v>1365.81266418457</v>
+      </c>
       <c r="U370" t="n">
         <v>1365.81266418457</v>
       </c>
@@ -21590,10 +22626,14 @@
         <v>1365.81266418457</v>
       </c>
       <c r="R371" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S371" t="inlineStr"/>
-      <c r="T371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S371" t="n">
+        <v>1246.17299024238</v>
+      </c>
+      <c r="T371" t="n">
+        <v>1365.81266418457</v>
+      </c>
       <c r="U371" t="n">
         <v>1382.32700975762</v>
       </c>
@@ -21654,10 +22694,14 @@
         <v>1381.312202228484</v>
       </c>
       <c r="R372" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S372" t="inlineStr"/>
-      <c r="T372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S372" t="n">
+        <v>1245.287773357454</v>
+      </c>
+      <c r="T372" t="n">
+        <v>1381.312202228484</v>
+      </c>
       <c r="U372" t="n">
         <v>1381.312202228484</v>
       </c>
@@ -21694,13 +22738,13 @@
         <v>1</v>
       </c>
       <c r="J373" t="n">
-        <v>25.23182819645579</v>
+        <v>25.2318281964558</v>
       </c>
       <c r="K373" t="n">
         <v>32.45604405556956</v>
       </c>
       <c r="L373" t="n">
-        <v>25.23182819645579</v>
+        <v>25.2318281964558</v>
       </c>
       <c r="M373" t="n">
         <v>20.35643048967634</v>
@@ -21718,10 +22762,14 @@
         <v>1364.020496796399</v>
       </c>
       <c r="R373" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S373" t="inlineStr"/>
-      <c r="T373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S373" t="n">
+        <v>1212.629527617664</v>
+      </c>
+      <c r="T373" t="n">
+        <v>1364.020496796399</v>
+      </c>
       <c r="U373" t="n">
         <v>1364.020496796399</v>
       </c>
@@ -21782,10 +22830,14 @@
         <v>1352.034876083746</v>
       </c>
       <c r="R374" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S374" t="inlineStr"/>
-      <c r="T374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S374" t="n">
+        <v>1200.965123916254</v>
+      </c>
+      <c r="T374" t="n">
+        <v>1352.034876083746</v>
+      </c>
       <c r="U374" t="n">
         <v>1352.034876083746</v>
       </c>
@@ -21846,10 +22898,14 @@
         <v>1352.034876083746</v>
       </c>
       <c r="R375" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S375" t="inlineStr"/>
-      <c r="T375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S375" t="n">
+        <v>1202.929173613758</v>
+      </c>
+      <c r="T375" t="n">
+        <v>1352.034876083746</v>
+      </c>
       <c r="U375" t="n">
         <v>1353.870875214367</v>
       </c>
@@ -21910,10 +22966,14 @@
         <v>1337.978387897771</v>
       </c>
       <c r="R376" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S376" t="inlineStr"/>
-      <c r="T376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S376" t="n">
+        <v>1186.971563274104</v>
+      </c>
+      <c r="T376" t="n">
+        <v>1337.978387897771</v>
+      </c>
       <c r="U376" t="n">
         <v>1337.978387897771</v>
       </c>
@@ -21974,10 +23034,14 @@
         <v>1337.31369241854</v>
       </c>
       <c r="R377" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S377" t="inlineStr"/>
-      <c r="T377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S377" t="n">
+        <v>1186.386258753335</v>
+      </c>
+      <c r="T377" t="n">
+        <v>1337.31369241854</v>
+      </c>
       <c r="U377" t="n">
         <v>1337.31369241854</v>
       </c>
@@ -22038,10 +23102,14 @@
         <v>1334.062216856421</v>
       </c>
       <c r="R378" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S378" t="inlineStr"/>
-      <c r="T378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S378" t="n">
+        <v>1182.737831971704</v>
+      </c>
+      <c r="T378" t="n">
+        <v>1334.062216856421</v>
+      </c>
       <c r="U378" t="n">
         <v>1334.062216856421</v>
       </c>
@@ -22078,13 +23146,13 @@
         <v>1</v>
       </c>
       <c r="J379" t="n">
-        <v>25.36139455396076</v>
+        <v>25.36139455396075</v>
       </c>
       <c r="K379" t="n">
         <v>32.26366210937501</v>
       </c>
       <c r="L379" t="n">
-        <v>25.36139455396076</v>
+        <v>25.36139455396075</v>
       </c>
       <c r="M379" t="n">
         <v>20.29379792390046</v>
@@ -22102,10 +23170,14 @@
         <v>1334.062216856421</v>
       </c>
       <c r="R379" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S379" t="inlineStr"/>
-      <c r="T379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S379" t="n">
+        <v>1182.240828545149</v>
+      </c>
+      <c r="T379" t="n">
+        <v>1334.062216856421</v>
+      </c>
       <c r="U379" t="n">
         <v>1334.409195868913</v>
       </c>
@@ -22166,10 +23238,14 @@
         <v>1306.636543309411</v>
       </c>
       <c r="R380" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S380" t="inlineStr"/>
-      <c r="T380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S380" t="n">
+        <v>1154.563407862464</v>
+      </c>
+      <c r="T380" t="n">
+        <v>1306.636543309411</v>
+      </c>
       <c r="U380" t="n">
         <v>1306.636543309411</v>
       </c>
@@ -22230,10 +23306,14 @@
         <v>1306.636543309411</v>
       </c>
       <c r="R381" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S381" t="inlineStr"/>
-      <c r="T381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S381" t="n">
+        <v>1148.858977050781</v>
+      </c>
+      <c r="T381" t="n">
+        <v>1306.636543309411</v>
+      </c>
       <c r="U381" t="n">
         <v>1342.440949707031</v>
       </c>
@@ -22270,10 +23350,10 @@
         <v>0</v>
       </c>
       <c r="J382" t="n">
-        <v>32.04112391318044</v>
+        <v>32.04112391318045</v>
       </c>
       <c r="K382" t="n">
-        <v>32.04112391318044</v>
+        <v>32.04112391318045</v>
       </c>
       <c r="L382" t="n">
         <v>25.22982090541295</v>
@@ -22294,10 +23374,14 @@
         <v>1342.440949707031</v>
       </c>
       <c r="R382" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S382" t="inlineStr"/>
-      <c r="T382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S382" t="n">
+        <v>1197.326579432334</v>
+      </c>
+      <c r="T382" t="n">
+        <v>1342.440949707031</v>
+      </c>
       <c r="U382" t="n">
         <v>1389.573322911416</v>
       </c>
@@ -22334,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="J383" t="n">
-        <v>31.97926891696068</v>
+        <v>31.97926891696069</v>
       </c>
       <c r="K383" t="n">
-        <v>31.97926891696068</v>
+        <v>31.97926891696069</v>
       </c>
       <c r="L383" t="n">
         <v>25.22982090541295</v>
@@ -22358,10 +23442,14 @@
         <v>1386.962770129788</v>
       </c>
       <c r="R383" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S383" t="inlineStr"/>
-      <c r="T383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S383" t="n">
+        <v>1195.087156628024</v>
+      </c>
+      <c r="T383" t="n">
+        <v>1386.962770129788</v>
+      </c>
       <c r="U383" t="n">
         <v>1386.962770129788</v>
       </c>
@@ -22398,10 +23486,10 @@
         <v>0</v>
       </c>
       <c r="J384" t="n">
-        <v>31.86112375567036</v>
+        <v>31.86112375567037</v>
       </c>
       <c r="K384" t="n">
-        <v>31.86112375567036</v>
+        <v>31.86112375567037</v>
       </c>
       <c r="L384" t="n">
         <v>25.22982090541295</v>
@@ -22422,10 +23510,14 @@
         <v>1386.962770129788</v>
       </c>
       <c r="R384" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S384" t="inlineStr"/>
-      <c r="T384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S384" t="n">
+        <v>1199.341616525958</v>
+      </c>
+      <c r="T384" t="n">
+        <v>1386.962770129788</v>
+      </c>
       <c r="U384" t="n">
         <v>1390.50835905998</v>
       </c>
@@ -22486,10 +23578,14 @@
         <v>1377.733043289184</v>
       </c>
       <c r="R385" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S385" t="inlineStr"/>
-      <c r="T385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S385" t="n">
+        <v>1187.916981124878</v>
+      </c>
+      <c r="T385" t="n">
+        <v>1377.733043289184</v>
+      </c>
       <c r="U385" t="n">
         <v>1377.733043289184</v>
       </c>
@@ -22535,7 +23631,7 @@
         <v>25.0927975609189</v>
       </c>
       <c r="M386" t="n">
-        <v>20.19923189603365</v>
+        <v>20.19923189603366</v>
       </c>
       <c r="N386" t="n">
         <v>32</v>
@@ -22550,10 +23646,14 @@
         <v>1377.733043289184</v>
       </c>
       <c r="R386" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S386" t="inlineStr"/>
-      <c r="T386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S386" t="n">
+        <v>1192.623532104492</v>
+      </c>
+      <c r="T386" t="n">
+        <v>1377.733043289184</v>
+      </c>
       <c r="U386" t="n">
         <v>1382.126467895508</v>
       </c>
@@ -22614,10 +23714,14 @@
         <v>1382.126467895508</v>
       </c>
       <c r="R387" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S387" t="inlineStr"/>
-      <c r="T387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S387" t="n">
+        <v>1199.732841873169</v>
+      </c>
+      <c r="T387" t="n">
+        <v>1382.126467895508</v>
+      </c>
       <c r="U387" t="n">
         <v>1388.667182540893</v>
       </c>
@@ -22663,7 +23767,7 @@
         <v>25.0927975609189</v>
       </c>
       <c r="M388" t="n">
-        <v>20.19923189603365</v>
+        <v>20.19923189603366</v>
       </c>
       <c r="N388" t="n">
         <v>32</v>
@@ -22678,10 +23782,14 @@
         <v>1388.667182540893</v>
       </c>
       <c r="R388" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S388" t="inlineStr"/>
-      <c r="T388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S388" t="n">
+        <v>1222.686918640137</v>
+      </c>
+      <c r="T388" t="n">
+        <v>1388.667182540893</v>
+      </c>
       <c r="U388" t="n">
         <v>1411.113130187988</v>
       </c>
@@ -22742,10 +23850,14 @@
         <v>1391.50342930385</v>
       </c>
       <c r="R389" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S389" t="inlineStr"/>
-      <c r="T389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S389" t="n">
+        <v>1240.946643938337</v>
+      </c>
+      <c r="T389" t="n">
+        <v>1391.50342930385</v>
+      </c>
       <c r="U389" t="n">
         <v>1391.50342930385</v>
       </c>
@@ -22785,7 +23897,7 @@
         <v>25.21380847749256</v>
       </c>
       <c r="K390" t="n">
-        <v>31.3064449187248</v>
+        <v>31.30644491872479</v>
       </c>
       <c r="L390" t="n">
         <v>25.21380847749256</v>
@@ -22806,10 +23918,14 @@
         <v>1391.50342930385</v>
       </c>
       <c r="R390" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S390" t="inlineStr"/>
-      <c r="T390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S390" t="n">
+        <v>1242.408562360491</v>
+      </c>
+      <c r="T390" t="n">
+        <v>1391.50342930385</v>
+      </c>
       <c r="U390" t="n">
         <v>1393.691413225446</v>
       </c>
@@ -22846,16 +23962,16 @@
         <v>1</v>
       </c>
       <c r="J391" t="n">
-        <v>25.26802155250727</v>
+        <v>25.26802155250726</v>
       </c>
       <c r="K391" t="n">
         <v>31.33374348958333</v>
       </c>
       <c r="L391" t="n">
-        <v>25.26802155250727</v>
+        <v>25.26802155250726</v>
       </c>
       <c r="M391" t="n">
-        <v>20.29379792390047</v>
+        <v>20.29379792390046</v>
       </c>
       <c r="N391" t="n">
         <v>30</v>
@@ -22870,10 +23986,14 @@
         <v>1392.754076864553</v>
       </c>
       <c r="R391" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S391" t="inlineStr"/>
-      <c r="T391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S391" t="n">
+        <v>1241.145947549509</v>
+      </c>
+      <c r="T391" t="n">
+        <v>1392.754076864553</v>
+      </c>
       <c r="U391" t="n">
         <v>1392.754076864553</v>
       </c>
@@ -22934,10 +24054,14 @@
         <v>1364.93138156467</v>
       </c>
       <c r="R392" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S392" t="inlineStr"/>
-      <c r="T392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S392" t="n">
+        <v>1243.168594021267</v>
+      </c>
+      <c r="T392" t="n">
+        <v>1364.93138156467</v>
+      </c>
       <c r="U392" t="n">
         <v>1364.93138156467</v>
       </c>
@@ -22998,10 +24122,14 @@
         <v>1348.676329694475</v>
       </c>
       <c r="R393" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S393" t="inlineStr"/>
-      <c r="T393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S393" t="n">
+        <v>1226.423645891462</v>
+      </c>
+      <c r="T393" t="n">
+        <v>1348.676329694475</v>
+      </c>
       <c r="U393" t="n">
         <v>1348.676329694475</v>
       </c>
@@ -23062,10 +24190,14 @@
         <v>1344.392870251886</v>
       </c>
       <c r="R394" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S394" t="inlineStr"/>
-      <c r="T394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S394" t="n">
+        <v>1221.657178576239</v>
+      </c>
+      <c r="T394" t="n">
+        <v>1344.392870251886</v>
+      </c>
       <c r="U394" t="n">
         <v>1344.392870251886</v>
       </c>
@@ -23126,10 +24258,14 @@
         <v>1330.954212646484</v>
       </c>
       <c r="R395" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S395" t="inlineStr"/>
-      <c r="T395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S395" t="n">
+        <v>1207.845714111328</v>
+      </c>
+      <c r="T395" t="n">
+        <v>1330.954212646484</v>
+      </c>
       <c r="U395" t="n">
         <v>1330.954212646484</v>
       </c>
@@ -23166,7 +24302,7 @@
         <v>2</v>
       </c>
       <c r="J396" t="n">
-        <v>20.54411227318549</v>
+        <v>20.54411227318548</v>
       </c>
       <c r="K396" t="n">
         <v>31.53326181265024</v>
@@ -23175,7 +24311,7 @@
         <v>25.17790470566861</v>
       </c>
       <c r="M396" t="n">
-        <v>20.54411227318549</v>
+        <v>20.54411227318548</v>
       </c>
       <c r="N396" t="n">
         <v>26</v>
@@ -23190,10 +24326,14 @@
         <v>1319.032300198463</v>
       </c>
       <c r="R396" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S396" t="inlineStr"/>
-      <c r="T396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S396" t="n">
+        <v>1195.76762655935</v>
+      </c>
+      <c r="T396" t="n">
+        <v>1319.032300198463</v>
+      </c>
       <c r="U396" t="n">
         <v>1319.032300198463</v>
       </c>
@@ -23254,10 +24394,14 @@
         <v>1319.032300198463</v>
       </c>
       <c r="R397" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S397" t="inlineStr"/>
-      <c r="T397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S397" t="n">
+        <v>1212.004792785644</v>
+      </c>
+      <c r="T397" t="n">
+        <v>1319.032300198463</v>
+      </c>
       <c r="U397" t="n">
         <v>1335.545256042481</v>
       </c>
@@ -23297,7 +24441,7 @@
         <v>20.57310495087594</v>
       </c>
       <c r="K398" t="n">
-        <v>31.37759602864583</v>
+        <v>31.37759602864584</v>
       </c>
       <c r="L398" t="n">
         <v>25.17790470566861</v>
@@ -23318,10 +24462,14 @@
         <v>1315.069351473722</v>
       </c>
       <c r="R398" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S398" t="inlineStr"/>
-      <c r="T398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S398" t="n">
+        <v>1191.630721768466</v>
+      </c>
+      <c r="T398" t="n">
+        <v>1315.069351473722</v>
+      </c>
       <c r="U398" t="n">
         <v>1315.069351473722</v>
       </c>
@@ -23358,7 +24506,7 @@
         <v>2</v>
       </c>
       <c r="J399" t="n">
-        <v>20.57389562270221</v>
+        <v>20.5738956227022</v>
       </c>
       <c r="K399" t="n">
         <v>31.19857867697011</v>
@@ -23367,7 +24515,7 @@
         <v>25.17790470566861</v>
       </c>
       <c r="M399" t="n">
-        <v>20.57389562270221</v>
+        <v>20.5738956227022</v>
       </c>
       <c r="N399" t="n">
         <v>23</v>
@@ -23382,10 +24530,14 @@
         <v>1312.021674661075</v>
       </c>
       <c r="R399" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S399" t="inlineStr"/>
-      <c r="T399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S399" t="n">
+        <v>1188.578300924862</v>
+      </c>
+      <c r="T399" t="n">
+        <v>1312.021674661075</v>
+      </c>
       <c r="U399" t="n">
         <v>1312.021674661075</v>
       </c>
@@ -23422,16 +24574,16 @@
         <v>2</v>
       </c>
       <c r="J400" t="n">
-        <v>20.56021240234375</v>
+        <v>20.56021240234374</v>
       </c>
       <c r="K400" t="n">
-        <v>31.0530595259233</v>
+        <v>31.05305952592329</v>
       </c>
       <c r="L400" t="n">
         <v>25.17790470566861</v>
       </c>
       <c r="M400" t="n">
-        <v>20.56021240234375</v>
+        <v>20.56021240234374</v>
       </c>
       <c r="N400" t="n">
         <v>22</v>
@@ -23446,10 +24598,14 @@
         <v>1298.630649414062</v>
       </c>
       <c r="R400" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S400" t="inlineStr"/>
-      <c r="T400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S400" t="n">
+        <v>1175.269375</v>
+      </c>
+      <c r="T400" t="n">
+        <v>1298.630649414062</v>
+      </c>
       <c r="U400" t="n">
         <v>1298.630649414062</v>
       </c>
@@ -23486,7 +24642,7 @@
         <v>2</v>
       </c>
       <c r="J401" t="n">
-        <v>20.54853956434462</v>
+        <v>20.54853956434461</v>
       </c>
       <c r="K401" t="n">
         <v>30.94927629743303</v>
@@ -23495,7 +24651,7 @@
         <v>25.17790470566861</v>
       </c>
       <c r="M401" t="n">
-        <v>20.54853956434462</v>
+        <v>20.54853956434461</v>
       </c>
       <c r="N401" t="n">
         <v>21</v>
@@ -23510,10 +24666,14 @@
         <v>1282.145618693034</v>
       </c>
       <c r="R401" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S401" t="inlineStr"/>
-      <c r="T401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S401" t="n">
+        <v>1158.854381306966</v>
+      </c>
+      <c r="T401" t="n">
+        <v>1282.145618693034</v>
+      </c>
       <c r="U401" t="n">
         <v>1282.145618693034</v>
       </c>
@@ -23550,7 +24710,7 @@
         <v>2</v>
       </c>
       <c r="J402" t="n">
-        <v>20.60263275971284</v>
+        <v>20.60263275971283</v>
       </c>
       <c r="K402" t="n">
         <v>30.89598999023438</v>
@@ -23559,7 +24719,7 @@
         <v>25.17790470566861</v>
       </c>
       <c r="M402" t="n">
-        <v>20.60263275971284</v>
+        <v>20.60263275971283</v>
       </c>
       <c r="N402" t="n">
         <v>20</v>
@@ -23574,10 +24734,14 @@
         <v>1282.007849451013</v>
       </c>
       <c r="R402" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S402" t="inlineStr"/>
-      <c r="T402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S402" t="n">
+        <v>1158.392052892737</v>
+      </c>
+      <c r="T402" t="n">
+        <v>1282.007849451013</v>
+      </c>
       <c r="U402" t="n">
         <v>1282.007849451013</v>
       </c>
@@ -23614,7 +24778,7 @@
         <v>2</v>
       </c>
       <c r="J403" t="n">
-        <v>20.65387862356086</v>
+        <v>20.65387862356085</v>
       </c>
       <c r="K403" t="n">
         <v>30.86525236430921</v>
@@ -23623,7 +24787,7 @@
         <v>25.17790470566861</v>
       </c>
       <c r="M403" t="n">
-        <v>20.65387862356086</v>
+        <v>20.65387862356085</v>
       </c>
       <c r="N403" t="n">
         <v>19</v>
@@ -23638,10 +24802,14 @@
         <v>1282.007849451013</v>
       </c>
       <c r="R403" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S403" t="inlineStr"/>
-      <c r="T403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S403" t="n">
+        <v>1165.31338854338</v>
+      </c>
+      <c r="T403" t="n">
+        <v>1282.007849451013</v>
+      </c>
       <c r="U403" t="n">
         <v>1289.236660284745</v>
       </c>
@@ -23681,7 +24849,7 @@
         <v>20.69634258563702</v>
       </c>
       <c r="K404" t="n">
-        <v>30.9359605577257</v>
+        <v>30.93596055772569</v>
       </c>
       <c r="L404" t="n">
         <v>25.17790470566861</v>
@@ -23702,10 +24870,14 @@
         <v>1283.064003342849</v>
       </c>
       <c r="R404" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S404" t="inlineStr"/>
-      <c r="T404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S404" t="n">
+        <v>1158.885947829026</v>
+      </c>
+      <c r="T404" t="n">
+        <v>1283.064003342849</v>
+      </c>
       <c r="U404" t="n">
         <v>1283.064003342849</v>
       </c>
@@ -23766,10 +24938,14 @@
         <v>1283.064003342849</v>
       </c>
       <c r="R405" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S405" t="inlineStr"/>
-      <c r="T405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S405" t="n">
+        <v>1160.243712158203</v>
+      </c>
+      <c r="T405" t="n">
+        <v>1283.064003342849</v>
+      </c>
       <c r="U405" t="n">
         <v>1284.656312255859</v>
       </c>
@@ -23830,10 +25006,14 @@
         <v>1277.922083412729</v>
       </c>
       <c r="R406" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S406" t="inlineStr"/>
-      <c r="T406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S406" t="n">
+        <v>1153.377843345084</v>
+      </c>
+      <c r="T406" t="n">
+        <v>1277.922083412729</v>
+      </c>
       <c r="U406" t="n">
         <v>1277.922083412729</v>
       </c>
@@ -23894,10 +25074,14 @@
         <v>1274.813377162388</v>
       </c>
       <c r="R407" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S407" t="inlineStr"/>
-      <c r="T407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S407" t="n">
+        <v>1150.436622837612</v>
+      </c>
+      <c r="T407" t="n">
+        <v>1274.813377162388</v>
+      </c>
       <c r="U407" t="n">
         <v>1274.813377162388</v>
       </c>
@@ -23937,7 +25121,7 @@
         <v>20.69935473065043</v>
       </c>
       <c r="K408" t="n">
-        <v>30.9359605577257</v>
+        <v>30.93596055772569</v>
       </c>
       <c r="L408" t="n">
         <v>25.05108736478365</v>
@@ -23958,10 +25142,14 @@
         <v>1274.813377162388</v>
       </c>
       <c r="R408" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S408" t="inlineStr"/>
-      <c r="T408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S408" t="n">
+        <v>1156.85194801508</v>
+      </c>
+      <c r="T408" t="n">
+        <v>1274.813377162388</v>
+      </c>
       <c r="U408" t="n">
         <v>1281.048076398983</v>
       </c>
@@ -23998,16 +25186,16 @@
         <v>2</v>
       </c>
       <c r="J409" t="n">
-        <v>20.64607349742543</v>
+        <v>20.64607349742542</v>
       </c>
       <c r="K409" t="n">
         <v>30.93596055772569</v>
       </c>
       <c r="L409" t="n">
-        <v>25.08039229543586</v>
+        <v>25.08039229543585</v>
       </c>
       <c r="M409" t="n">
-        <v>20.64607349742543</v>
+        <v>20.64607349742542</v>
       </c>
       <c r="N409" t="n">
         <v>18</v>
@@ -24022,10 +25210,14 @@
         <v>1281.048076398983</v>
       </c>
       <c r="R409" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S409" t="inlineStr"/>
-      <c r="T409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S409" t="n">
+        <v>1170.286755093661</v>
+      </c>
+      <c r="T409" t="n">
+        <v>1281.048076398983</v>
+      </c>
       <c r="U409" t="n">
         <v>1294.163196078214</v>
       </c>
@@ -24086,10 +25278,14 @@
         <v>1294.163196078214</v>
       </c>
       <c r="R410" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S410" t="inlineStr"/>
-      <c r="T410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S410" t="n">
+        <v>1186.955209960938</v>
+      </c>
+      <c r="T410" t="n">
+        <v>1294.163196078214</v>
+      </c>
       <c r="U410" t="n">
         <v>1310.594838867187</v>
       </c>
@@ -24150,10 +25346,14 @@
         <v>1300.221556821077</v>
       </c>
       <c r="R411" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S411" t="inlineStr"/>
-      <c r="T411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S411" t="n">
+        <v>1176.778443178923</v>
+      </c>
+      <c r="T411" t="n">
+        <v>1300.221556821077</v>
+      </c>
       <c r="U411" t="n">
         <v>1300.221556821077</v>
       </c>
@@ -24214,10 +25414,14 @@
         <v>1294.559927173371</v>
       </c>
       <c r="R412" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S412" t="inlineStr"/>
-      <c r="T412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S412" t="n">
+        <v>1171.190072826629</v>
+      </c>
+      <c r="T412" t="n">
+        <v>1294.559927173371</v>
+      </c>
       <c r="U412" t="n">
         <v>1294.559927173371</v>
       </c>
@@ -24278,10 +25482,14 @@
         <v>1294.559927173371</v>
       </c>
       <c r="R413" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S413" t="inlineStr"/>
-      <c r="T413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S413" t="n">
+        <v>1196.521437835693</v>
+      </c>
+      <c r="T413" t="n">
+        <v>1294.559927173371</v>
+      </c>
       <c r="U413" t="n">
         <v>1319.878586578369</v>
       </c>
@@ -24321,7 +25529,7 @@
         <v>25.27098351680871</v>
       </c>
       <c r="K414" t="n">
-        <v>30.9359605577257</v>
+        <v>30.93596055772569</v>
       </c>
       <c r="L414" t="n">
         <v>25.27098351680871</v>
@@ -24342,10 +25550,14 @@
         <v>1319.878586578369</v>
       </c>
       <c r="R414" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S414" t="inlineStr"/>
-      <c r="T414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S414" t="n">
+        <v>1183.087073863636</v>
+      </c>
+      <c r="T414" t="n">
+        <v>1319.878586578369</v>
+      </c>
       <c r="U414" t="n">
         <v>1334.712974964489</v>
       </c>
@@ -24406,10 +25618,14 @@
         <v>1322.006587357954</v>
       </c>
       <c r="R415" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S415" t="inlineStr"/>
-      <c r="T415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S415" t="n">
+        <v>1170.743412642046</v>
+      </c>
+      <c r="T415" t="n">
+        <v>1322.006587357954</v>
+      </c>
       <c r="U415" t="n">
         <v>1322.006587357954</v>
       </c>
@@ -24470,10 +25686,14 @@
         <v>1311.378190474077</v>
       </c>
       <c r="R416" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S416" t="inlineStr"/>
-      <c r="T416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S416" t="n">
+        <v>1160.271833939986</v>
+      </c>
+      <c r="T416" t="n">
+        <v>1311.378190474077</v>
+      </c>
       <c r="U416" t="n">
         <v>1311.378190474077</v>
       </c>
@@ -24534,10 +25754,14 @@
         <v>1311.378190474077</v>
       </c>
       <c r="R417" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S417" t="inlineStr"/>
-      <c r="T417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S417" t="n">
+        <v>1164.8191086713</v>
+      </c>
+      <c r="T417" t="n">
+        <v>1311.378190474077</v>
+      </c>
       <c r="U417" t="n">
         <v>1315.780866914637</v>
       </c>
@@ -24577,7 +25801,7 @@
         <v>25.17514195033482</v>
       </c>
       <c r="K418" t="n">
-        <v>30.9359605577257</v>
+        <v>30.93596055772569</v>
       </c>
       <c r="L418" t="n">
         <v>25.17514195033482</v>
@@ -24598,10 +25822,14 @@
         <v>1315.780866914637</v>
       </c>
       <c r="R418" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S418" t="inlineStr"/>
-      <c r="T418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S418" t="n">
+        <v>1173.899561941964</v>
+      </c>
+      <c r="T418" t="n">
+        <v>1315.780866914637</v>
+      </c>
       <c r="U418" t="n">
         <v>1324.950413643973</v>
       </c>
@@ -24662,10 +25890,14 @@
         <v>1324.950413643973</v>
       </c>
       <c r="R419" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S419" t="inlineStr"/>
-      <c r="T419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S419" t="n">
+        <v>1187.552943929036</v>
+      </c>
+      <c r="T419" t="n">
+        <v>1324.950413643973</v>
+      </c>
       <c r="U419" t="n">
         <v>1338.747104899089</v>
       </c>
@@ -24711,7 +25943,7 @@
         <v>25.40654260971967</v>
       </c>
       <c r="M420" t="n">
-        <v>20.90817031860352</v>
+        <v>20.90817031860351</v>
       </c>
       <c r="N420" t="n">
         <v>18</v>
@@ -24726,10 +25958,14 @@
         <v>1338.747104899089</v>
       </c>
       <c r="R420" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S420" t="inlineStr"/>
-      <c r="T420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S420" t="n">
+        <v>1212.692118326823</v>
+      </c>
+      <c r="T420" t="n">
+        <v>1338.747104899089</v>
+      </c>
       <c r="U420" t="n">
         <v>1398.307881673177</v>
       </c>
@@ -24766,13 +26002,13 @@
         <v>1</v>
       </c>
       <c r="J421" t="n">
-        <v>25.47257486979167</v>
+        <v>25.47257486979166</v>
       </c>
       <c r="K421" t="n">
         <v>30.84775197882401</v>
       </c>
       <c r="L421" t="n">
-        <v>25.47257486979167</v>
+        <v>25.47257486979166</v>
       </c>
       <c r="M421" t="n">
         <v>21.02780507405599</v>
@@ -24790,10 +26026,14 @@
         <v>1384.542724609375</v>
       </c>
       <c r="R421" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S421" t="inlineStr"/>
-      <c r="T421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S421" t="n">
+        <v>1231.707275390625</v>
+      </c>
+      <c r="T421" t="n">
+        <v>1384.542724609375</v>
+      </c>
       <c r="U421" t="n">
         <v>1384.542724609375</v>
       </c>
@@ -24839,7 +26079,7 @@
         <v>25.49205789005055</v>
       </c>
       <c r="M422" t="n">
-        <v>21.10855609000998</v>
+        <v>21.10855609000997</v>
       </c>
       <c r="N422" t="n">
         <v>19</v>
@@ -24854,10 +26094,14 @@
         <v>1368.076149256089</v>
       </c>
       <c r="R422" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S422" t="inlineStr"/>
-      <c r="T422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S422" t="n">
+        <v>1215.123801915786</v>
+      </c>
+      <c r="T422" t="n">
+        <v>1368.076149256089</v>
+      </c>
       <c r="U422" t="n">
         <v>1368.076149256089</v>
       </c>
@@ -24918,10 +26162,14 @@
         <v>1352.470985281808</v>
       </c>
       <c r="R423" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S423" t="inlineStr"/>
-      <c r="T423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S423" t="n">
+        <v>1199.12899030413</v>
+      </c>
+      <c r="T423" t="n">
+        <v>1352.470985281808</v>
+      </c>
       <c r="U423" t="n">
         <v>1352.470985281808</v>
       </c>
@@ -24982,10 +26230,14 @@
         <v>1346.196640014648</v>
       </c>
       <c r="R424" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S424" t="inlineStr"/>
-      <c r="T424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S424" t="n">
+        <v>1192.753311157227</v>
+      </c>
+      <c r="T424" t="n">
+        <v>1346.196640014648</v>
+      </c>
       <c r="U424" t="n">
         <v>1346.196640014648</v>
       </c>
@@ -25046,10 +26298,14 @@
         <v>1334.971349767736</v>
       </c>
       <c r="R425" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S425" t="inlineStr"/>
-      <c r="T425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S425" t="n">
+        <v>1181.528650232264</v>
+      </c>
+      <c r="T425" t="n">
+        <v>1334.971349767736</v>
+      </c>
       <c r="U425" t="n">
         <v>1334.971349767736</v>
       </c>
@@ -25110,10 +26366,14 @@
         <v>1307.015106201172</v>
       </c>
       <c r="R426" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S426" t="inlineStr"/>
-      <c r="T426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S426" t="n">
+        <v>1153.434844970703</v>
+      </c>
+      <c r="T426" t="n">
+        <v>1307.015106201172</v>
+      </c>
       <c r="U426" t="n">
         <v>1307.015106201172</v>
       </c>
@@ -25174,10 +26434,14 @@
         <v>1307.015106201172</v>
       </c>
       <c r="R427" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S427" t="inlineStr"/>
-      <c r="T427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S427" t="n">
+        <v>1154.712307504507</v>
+      </c>
+      <c r="T427" t="n">
+        <v>1307.015106201172</v>
+      </c>
       <c r="U427" t="n">
         <v>1308.537692495493</v>
       </c>
@@ -25238,10 +26502,14 @@
         <v>1308.537692495493</v>
       </c>
       <c r="R428" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S428" t="inlineStr"/>
-      <c r="T428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S428" t="n">
+        <v>1158.369772949219</v>
+      </c>
+      <c r="T428" t="n">
+        <v>1308.537692495493</v>
+      </c>
       <c r="U428" t="n">
         <v>1312.430275878906</v>
       </c>
@@ -25302,15 +26570,19 @@
         <v>1312.430275878906</v>
       </c>
       <c r="R429" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S429" t="inlineStr"/>
-      <c r="T429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S429" t="n">
+        <v>1167.429947509765</v>
+      </c>
+      <c r="T429" t="n">
+        <v>1312.430275878906</v>
+      </c>
       <c r="U429" t="n">
         <v>1321.970076904297</v>
       </c>
       <c r="V429" t="n">
-        <v>1167.429947509766</v>
+        <v>1167.429947509765</v>
       </c>
     </row>
     <row r="430">
@@ -25366,10 +26638,14 @@
         <v>1321.604909906155</v>
       </c>
       <c r="R430" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S430" t="inlineStr"/>
-      <c r="T430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S430" t="n">
+        <v>1194.395090093845</v>
+      </c>
+      <c r="T430" t="n">
+        <v>1321.604909906155</v>
+      </c>
       <c r="U430" t="n">
         <v>1321.604909906155</v>
       </c>
@@ -25430,10 +26706,14 @@
         <v>1321.604909906155</v>
       </c>
       <c r="R431" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S431" t="inlineStr"/>
-      <c r="T431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S431" t="n">
+        <v>1178.364445612981</v>
+      </c>
+      <c r="T431" t="n">
+        <v>1321.604909906155</v>
+      </c>
       <c r="U431" t="n">
         <v>1333.185603215144</v>
       </c>
@@ -25476,7 +26756,7 @@
         <v>30.84775197882401</v>
       </c>
       <c r="L432" t="n">
-        <v>25.78096203926282</v>
+        <v>25.78096203926281</v>
       </c>
       <c r="M432" t="n">
         <v>21.23933599562872</v>
@@ -25494,10 +26774,14 @@
         <v>1310.493032400949</v>
       </c>
       <c r="R432" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S432" t="inlineStr"/>
-      <c r="T432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S432" t="n">
+        <v>1183.057016427176</v>
+      </c>
+      <c r="T432" t="n">
+        <v>1310.493032400949</v>
+      </c>
       <c r="U432" t="n">
         <v>1310.493032400949</v>
       </c>
@@ -25534,13 +26818,13 @@
         <v>1</v>
       </c>
       <c r="J433" t="n">
-        <v>25.7826316431949</v>
+        <v>25.78263164319489</v>
       </c>
       <c r="K433" t="n">
         <v>30.84775197882401</v>
       </c>
       <c r="L433" t="n">
-        <v>25.7826316431949</v>
+        <v>25.78263164319489</v>
       </c>
       <c r="M433" t="n">
         <v>21.27074684320494</v>
@@ -25558,10 +26842,14 @@
         <v>1310.493032400949</v>
       </c>
       <c r="R433" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S433" t="inlineStr"/>
-      <c r="T433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S433" t="n">
+        <v>1190.352117277446</v>
+      </c>
+      <c r="T433" t="n">
+        <v>1310.493032400949</v>
+      </c>
       <c r="U433" t="n">
         <v>1345.047907136616</v>
       </c>
@@ -25598,13 +26886,13 @@
         <v>1</v>
       </c>
       <c r="J434" t="n">
-        <v>25.78342060289885</v>
+        <v>25.78342060289884</v>
       </c>
       <c r="K434" t="n">
         <v>30.84775197882401</v>
       </c>
       <c r="L434" t="n">
-        <v>25.78342060289885</v>
+        <v>25.78342060289884</v>
       </c>
       <c r="M434" t="n">
         <v>21.27074684320494</v>
@@ -25622,10 +26910,14 @@
         <v>1345.047907136616</v>
       </c>
       <c r="R434" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S434" t="inlineStr"/>
-      <c r="T434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S434" t="n">
+        <v>1206.249713777241</v>
+      </c>
+      <c r="T434" t="n">
+        <v>1345.047907136616</v>
+      </c>
       <c r="U434" t="n">
         <v>1360.950237394634</v>
       </c>
@@ -25671,7 +26963,7 @@
         <v>25.77012782952724</v>
       </c>
       <c r="M435" t="n">
-        <v>21.22588326590402</v>
+        <v>21.22588326590401</v>
       </c>
       <c r="N435" t="n">
         <v>19</v>
@@ -25686,10 +26978,14 @@
         <v>1356.48537128155</v>
       </c>
       <c r="R435" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S435" t="inlineStr"/>
-      <c r="T435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S435" t="n">
+        <v>1201.864604304387</v>
+      </c>
+      <c r="T435" t="n">
+        <v>1356.48537128155</v>
+      </c>
       <c r="U435" t="n">
         <v>1356.48537128155</v>
       </c>
@@ -25750,10 +27046,14 @@
         <v>1350.033599853516</v>
       </c>
       <c r="R436" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S436" t="inlineStr"/>
-      <c r="T436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S436" t="n">
+        <v>1195.666351318359</v>
+      </c>
+      <c r="T436" t="n">
+        <v>1350.033599853516</v>
+      </c>
       <c r="U436" t="n">
         <v>1350.033599853516</v>
       </c>
@@ -25814,10 +27114,14 @@
         <v>1319.5085546875</v>
       </c>
       <c r="R437" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S437" t="inlineStr"/>
-      <c r="T437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S437" t="n">
+        <v>1192.541494140625</v>
+      </c>
+      <c r="T437" t="n">
+        <v>1319.5085546875</v>
+      </c>
       <c r="U437" t="n">
         <v>1319.5085546875</v>
       </c>
@@ -25863,7 +27167,7 @@
         <v>25.67646305735518</v>
       </c>
       <c r="M438" t="n">
-        <v>21.17311370849609</v>
+        <v>21.1731137084961</v>
       </c>
       <c r="N438" t="n">
         <v>19</v>
@@ -25878,10 +27182,14 @@
         <v>1319.5085546875</v>
       </c>
       <c r="R438" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S438" t="inlineStr"/>
-      <c r="T438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S438" t="n">
+        <v>1170.295623034966</v>
+      </c>
+      <c r="T438" t="n">
+        <v>1319.5085546875</v>
+      </c>
       <c r="U438" t="n">
         <v>1324.354401379097</v>
       </c>
@@ -25942,10 +27250,14 @@
         <v>1287.11214163644</v>
       </c>
       <c r="R439" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S439" t="inlineStr"/>
-      <c r="T439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S439" t="n">
+        <v>1133.13785836356</v>
+      </c>
+      <c r="T439" t="n">
+        <v>1287.11214163644</v>
+      </c>
       <c r="U439" t="n">
         <v>1287.11214163644</v>
       </c>
@@ -26006,10 +27318,14 @@
         <v>1287.11214163644</v>
       </c>
       <c r="R440" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S440" t="inlineStr"/>
-      <c r="T440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S440" t="n">
+        <v>1142.935233750454</v>
+      </c>
+      <c r="T440" t="n">
+        <v>1287.11214163644</v>
+      </c>
       <c r="U440" t="n">
         <v>1297.064766249546</v>
       </c>
@@ -26046,13 +27362,13 @@
         <v>1</v>
       </c>
       <c r="J441" t="n">
-        <v>25.70840870250355</v>
+        <v>25.70840870250356</v>
       </c>
       <c r="K441" t="n">
         <v>30.84775197882401</v>
       </c>
       <c r="L441" t="n">
-        <v>25.70840870250355</v>
+        <v>25.70840870250356</v>
       </c>
       <c r="M441" t="n">
         <v>21.24985285578547</v>
@@ -26070,10 +27386,14 @@
         <v>1291.850201693448</v>
       </c>
       <c r="R441" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S441" t="inlineStr"/>
-      <c r="T441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S441" t="n">
+        <v>1137.599749478427</v>
+      </c>
+      <c r="T441" t="n">
+        <v>1291.850201693448</v>
+      </c>
       <c r="U441" t="n">
         <v>1291.850201693448</v>
       </c>
@@ -26134,10 +27454,14 @@
         <v>1291.850201693448</v>
       </c>
       <c r="R442" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S442" t="inlineStr"/>
-      <c r="T442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S442" t="n">
+        <v>1138.890334472656</v>
+      </c>
+      <c r="T442" t="n">
+        <v>1291.850201693448</v>
+      </c>
       <c r="U442" t="n">
         <v>1293.109665527344</v>
       </c>
@@ -26198,10 +27522,14 @@
         <v>1287.041821986607</v>
       </c>
       <c r="R443" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S443" t="inlineStr"/>
-      <c r="T443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S443" t="n">
+        <v>1158.958178013393</v>
+      </c>
+      <c r="T443" t="n">
+        <v>1287.041821986607</v>
+      </c>
       <c r="U443" t="n">
         <v>1287.041821986607</v>
       </c>
@@ -26262,10 +27590,14 @@
         <v>1287.041821986607</v>
       </c>
       <c r="R444" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S444" t="inlineStr"/>
-      <c r="T444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S444" t="n">
+        <v>1160.479015096029</v>
+      </c>
+      <c r="T444" t="n">
+        <v>1287.041821986607</v>
+      </c>
       <c r="U444" t="n">
         <v>1289.821033732096</v>
       </c>
@@ -26326,10 +27658,14 @@
         <v>1289.821033732096</v>
       </c>
       <c r="R445" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S445" t="inlineStr"/>
-      <c r="T445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S445" t="n">
+        <v>1165.784393310547</v>
+      </c>
+      <c r="T445" t="n">
+        <v>1289.821033732096</v>
+      </c>
       <c r="U445" t="n">
         <v>1295.565582275391</v>
       </c>
@@ -26390,10 +27726,14 @@
         <v>1295.565582275391</v>
       </c>
       <c r="R446" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S446" t="inlineStr"/>
-      <c r="T446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S446" t="n">
+        <v>1166.264207967123</v>
+      </c>
+      <c r="T446" t="n">
+        <v>1295.565582275391</v>
+      </c>
       <c r="U446" t="n">
         <v>1295.88581644694</v>
       </c>
@@ -26454,10 +27794,14 @@
         <v>1281.708620143581</v>
       </c>
       <c r="R447" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S447" t="inlineStr"/>
-      <c r="T447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S447" t="n">
+        <v>1152.041379856419</v>
+      </c>
+      <c r="T447" t="n">
+        <v>1281.708620143581</v>
+      </c>
       <c r="U447" t="n">
         <v>1281.708620143581</v>
       </c>
@@ -26518,10 +27862,14 @@
         <v>1276.077604594984</v>
       </c>
       <c r="R448" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S448" t="inlineStr"/>
-      <c r="T448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S448" t="n">
+        <v>1146.422395405016</v>
+      </c>
+      <c r="T448" t="n">
+        <v>1276.077604594984</v>
+      </c>
       <c r="U448" t="n">
         <v>1276.077604594984</v>
       </c>
@@ -26582,10 +27930,14 @@
         <v>1272.531909179688</v>
       </c>
       <c r="R449" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S449" t="inlineStr"/>
-      <c r="T449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S449" t="n">
+        <v>1143.118115234375</v>
+      </c>
+      <c r="T449" t="n">
+        <v>1272.531909179688</v>
+      </c>
       <c r="U449" t="n">
         <v>1272.531909179688</v>
       </c>
@@ -26646,10 +27998,14 @@
         <v>1269.547678786058</v>
       </c>
       <c r="R450" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S450" t="inlineStr"/>
-      <c r="T450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S450" t="n">
+        <v>1141.102345628005</v>
+      </c>
+      <c r="T450" t="n">
+        <v>1269.547678786058</v>
+      </c>
       <c r="U450" t="n">
         <v>1269.547678786058</v>
       </c>
@@ -26686,7 +28042,7 @@
         <v>2</v>
       </c>
       <c r="J451" t="n">
-        <v>21.32561645507812</v>
+        <v>21.32561645507813</v>
       </c>
       <c r="K451" t="n">
         <v>30.8391552734375</v>
@@ -26695,7 +28051,7 @@
         <v>25.71244466145833</v>
       </c>
       <c r="M451" t="n">
-        <v>21.32561645507812</v>
+        <v>21.32561645507813</v>
       </c>
       <c r="N451" t="n">
         <v>15</v>
@@ -26710,10 +28066,14 @@
         <v>1245.201824951172</v>
       </c>
       <c r="R451" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S451" t="inlineStr"/>
-      <c r="T451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S451" t="n">
+        <v>1117.248126220703</v>
+      </c>
+      <c r="T451" t="n">
+        <v>1245.201824951172</v>
+      </c>
       <c r="U451" t="n">
         <v>1245.201824951172</v>
       </c>
@@ -26774,10 +28134,14 @@
         <v>1230.751461568693</v>
       </c>
       <c r="R452" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S452" t="inlineStr"/>
-      <c r="T452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S452" t="n">
+        <v>1102.798587259432</v>
+      </c>
+      <c r="T452" t="n">
+        <v>1230.751461568693</v>
+      </c>
       <c r="U452" t="n">
         <v>1230.751461568693</v>
       </c>
@@ -26838,10 +28202,14 @@
         <v>1230.751461568693</v>
       </c>
       <c r="R453" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S453" t="inlineStr"/>
-      <c r="T453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S453" t="n">
+        <v>1106.085027204241</v>
+      </c>
+      <c r="T453" t="n">
+        <v>1230.751461568693</v>
+      </c>
       <c r="U453" t="n">
         <v>1233.914972795759</v>
       </c>
@@ -26902,10 +28270,14 @@
         <v>1233.914972795759</v>
       </c>
       <c r="R454" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S454" t="inlineStr"/>
-      <c r="T454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S454" t="n">
+        <v>1122.998033179307</v>
+      </c>
+      <c r="T454" t="n">
+        <v>1233.914972795759</v>
+      </c>
       <c r="U454" t="n">
         <v>1276.101942406631</v>
       </c>
@@ -26945,7 +28317,7 @@
         <v>25.34961500901442</v>
       </c>
       <c r="K455" t="n">
-        <v>28.8230475531684</v>
+        <v>28.82304755316841</v>
       </c>
       <c r="L455" t="n">
         <v>25.34961500901442</v>
@@ -26966,10 +28338,14 @@
         <v>1157.351179387019</v>
       </c>
       <c r="R455" t="n">
-        <v>1</v>
-      </c>
-      <c r="S455" t="inlineStr"/>
-      <c r="T455" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S455" t="n">
+        <v>1157.351179387019</v>
+      </c>
+      <c r="T455" t="n">
+        <v>1276.101942406631</v>
+      </c>
       <c r="U455" t="n">
         <v>1309.448869441106</v>
       </c>
@@ -27006,10 +28382,10 @@
         <v>0</v>
       </c>
       <c r="J456" t="n">
-        <v>28.32965365323153</v>
+        <v>28.32965365323152</v>
       </c>
       <c r="K456" t="n">
-        <v>28.32965365323153</v>
+        <v>28.32965365323152</v>
       </c>
       <c r="L456" t="n">
         <v>25.17771275111607</v>
@@ -27030,10 +28406,14 @@
         <v>1161.711051247337</v>
       </c>
       <c r="R456" t="n">
-        <v>1</v>
-      </c>
-      <c r="S456" t="inlineStr"/>
-      <c r="T456" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S456" t="n">
+        <v>1161.711051247337</v>
+      </c>
+      <c r="T456" t="n">
+        <v>1331.688973166726</v>
+      </c>
       <c r="U456" t="n">
         <v>1331.688973166726</v>
       </c>
@@ -27070,10 +28450,10 @@
         <v>0</v>
       </c>
       <c r="J457" t="n">
-        <v>28.21022116921165</v>
+        <v>28.21022116921164</v>
       </c>
       <c r="K457" t="n">
-        <v>28.21022116921165</v>
+        <v>28.21022116921164</v>
       </c>
       <c r="L457" t="n">
         <v>25.17771275111607</v>
@@ -27094,10 +28474,14 @@
         <v>1161.711051247337</v>
       </c>
       <c r="R457" t="n">
-        <v>1</v>
-      </c>
-      <c r="S457" t="inlineStr"/>
-      <c r="T457" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S457" t="n">
+        <v>1161.711051247337</v>
+      </c>
+      <c r="T457" t="n">
+        <v>1324.255663507635</v>
+      </c>
       <c r="U457" t="n">
         <v>1324.255663507635</v>
       </c>
@@ -27158,10 +28542,14 @@
         <v>1169.53405480018</v>
       </c>
       <c r="R458" t="n">
-        <v>1</v>
-      </c>
-      <c r="S458" t="inlineStr"/>
-      <c r="T458" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S458" t="n">
+        <v>1169.53405480018</v>
+      </c>
+      <c r="T458" t="n">
+        <v>1337.46594519982</v>
+      </c>
       <c r="U458" t="n">
         <v>1337.46594519982</v>
       </c>
@@ -27222,10 +28610,14 @@
         <v>1170.097239854601</v>
       </c>
       <c r="R459" t="n">
-        <v>1</v>
-      </c>
-      <c r="S459" t="inlineStr"/>
-      <c r="T459" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S459" t="n">
+        <v>1170.097239854601</v>
+      </c>
+      <c r="T459" t="n">
+        <v>1337.902760145399</v>
+      </c>
       <c r="U459" t="n">
         <v>1337.902760145399</v>
       </c>
@@ -27286,15 +28678,19 @@
         <v>1170.097239854601</v>
       </c>
       <c r="R460" t="n">
-        <v>1</v>
-      </c>
-      <c r="S460" t="inlineStr"/>
-      <c r="T460" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S460" t="n">
+        <v>1170.097239854601</v>
+      </c>
+      <c r="T460" t="n">
+        <v>1329.157839093889</v>
+      </c>
       <c r="U460" t="n">
-        <v>1329.15783909389</v>
+        <v>1329.157839093889</v>
       </c>
       <c r="V460" t="n">
-        <v>1161.34216090611</v>
+        <v>1161.342160906111</v>
       </c>
     </row>
     <row r="461">
@@ -27350,10 +28746,14 @@
         <v>1175.517639160156</v>
       </c>
       <c r="R461" t="n">
-        <v>1</v>
-      </c>
-      <c r="S461" t="inlineStr"/>
-      <c r="T461" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S461" t="n">
+        <v>1175.517639160156</v>
+      </c>
+      <c r="T461" t="n">
+        <v>1302.182312011719</v>
+      </c>
       <c r="U461" t="n">
         <v>1302.182312011719</v>
       </c>
@@ -27414,10 +28814,14 @@
         <v>1175.517639160156</v>
       </c>
       <c r="R462" t="n">
-        <v>1</v>
-      </c>
-      <c r="S462" t="inlineStr"/>
-      <c r="T462" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S462" t="n">
+        <v>1175.517639160156</v>
+      </c>
+      <c r="T462" t="n">
+        <v>1320.513694852941</v>
+      </c>
       <c r="U462" t="n">
         <v>1320.513694852941</v>
       </c>
@@ -27478,10 +28882,14 @@
         <v>1188.68077557538</v>
       </c>
       <c r="R463" t="n">
-        <v>1</v>
-      </c>
-      <c r="S463" t="inlineStr"/>
-      <c r="T463" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S463" t="n">
+        <v>1188.68077557538</v>
+      </c>
+      <c r="T463" t="n">
+        <v>1334.369273252745</v>
+      </c>
       <c r="U463" t="n">
         <v>1334.369273252745</v>
       </c>
@@ -27542,10 +28950,14 @@
         <v>1213.327023925781</v>
       </c>
       <c r="R464" t="n">
-        <v>1</v>
-      </c>
-      <c r="S464" t="inlineStr"/>
-      <c r="T464" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S464" t="n">
+        <v>1213.327023925781</v>
+      </c>
+      <c r="T464" t="n">
+        <v>1337.772951660156</v>
+      </c>
       <c r="U464" t="n">
         <v>1337.772951660156</v>
       </c>
@@ -27606,10 +29018,14 @@
         <v>1232.941808688256</v>
       </c>
       <c r="R465" t="n">
-        <v>1</v>
-      </c>
-      <c r="S465" t="inlineStr"/>
-      <c r="T465" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S465" t="n">
+        <v>1232.941808688256</v>
+      </c>
+      <c r="T465" t="n">
+        <v>1357.308191311744</v>
+      </c>
       <c r="U465" t="n">
         <v>1357.308191311744</v>
       </c>
@@ -27670,10 +29086,14 @@
         <v>1233.149840545654</v>
       </c>
       <c r="R466" t="n">
-        <v>1</v>
-      </c>
-      <c r="S466" t="inlineStr"/>
-      <c r="T466" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S466" t="n">
+        <v>1233.149840545654</v>
+      </c>
+      <c r="T466" t="n">
+        <v>1357.150086212158</v>
+      </c>
       <c r="U466" t="n">
         <v>1357.150086212158</v>
       </c>
@@ -27734,10 +29154,14 @@
         <v>1233.149840545654</v>
       </c>
       <c r="R467" t="n">
-        <v>1</v>
-      </c>
-      <c r="S467" t="inlineStr"/>
-      <c r="T467" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S467" t="n">
+        <v>1233.149840545654</v>
+      </c>
+      <c r="T467" t="n">
+        <v>1343.125901100852</v>
+      </c>
       <c r="U467" t="n">
         <v>1343.125901100852</v>
       </c>
@@ -27798,10 +29222,14 @@
         <v>1219.424147727273</v>
       </c>
       <c r="R468" t="n">
-        <v>1</v>
-      </c>
-      <c r="S468" t="inlineStr"/>
-      <c r="T468" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S468" t="n">
+        <v>1219.424147727273</v>
+      </c>
+      <c r="T468" t="n">
+        <v>1339.907199276195</v>
+      </c>
       <c r="U468" t="n">
         <v>1339.907199276195</v>
       </c>
@@ -27862,10 +29290,14 @@
         <v>1220.911646943934</v>
       </c>
       <c r="R469" t="n">
-        <v>1</v>
-      </c>
-      <c r="S469" t="inlineStr"/>
-      <c r="T469" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S469" t="n">
+        <v>1220.911646943934</v>
+      </c>
+      <c r="T469" t="n">
+        <v>1343.838353056066</v>
+      </c>
       <c r="U469" t="n">
         <v>1343.838353056066</v>
       </c>
@@ -27908,7 +29340,7 @@
         <v>27.85418819304435</v>
       </c>
       <c r="L470" t="n">
-        <v>24.32933600930606</v>
+        <v>24.32933600930607</v>
       </c>
       <c r="M470" t="n">
         <v>20.4644189453125</v>
@@ -27926,10 +29358,14 @@
         <v>1220.911646943934</v>
       </c>
       <c r="R470" t="n">
-        <v>1</v>
-      </c>
-      <c r="S470" t="inlineStr"/>
-      <c r="T470" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S470" t="n">
+        <v>1220.911646943934</v>
+      </c>
+      <c r="T470" t="n">
+        <v>1324.993293457031</v>
+      </c>
       <c r="U470" t="n">
         <v>1324.993293457031</v>
       </c>
@@ -27966,16 +29402,16 @@
         <v>2</v>
       </c>
       <c r="J471" t="n">
-        <v>20.4542958577474</v>
+        <v>20.45429585774739</v>
       </c>
       <c r="K471" t="n">
         <v>27.79733848571777</v>
       </c>
       <c r="L471" t="n">
-        <v>24.2557014465332</v>
+        <v>24.25570144653321</v>
       </c>
       <c r="M471" t="n">
-        <v>20.4542958577474</v>
+        <v>20.45429585774739</v>
       </c>
       <c r="N471" t="n">
         <v>32</v>
@@ -27990,10 +29426,14 @@
         <v>1202.206779785156</v>
       </c>
       <c r="R471" t="n">
-        <v>1</v>
-      </c>
-      <c r="S471" t="inlineStr"/>
-      <c r="T471" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S471" t="n">
+        <v>1202.206779785156</v>
+      </c>
+      <c r="T471" t="n">
+        <v>1311.087924194336</v>
+      </c>
       <c r="U471" t="n">
         <v>1311.087924194336</v>
       </c>
@@ -28054,10 +29494,14 @@
         <v>1188.362149047852</v>
       </c>
       <c r="R472" t="n">
-        <v>1</v>
-      </c>
-      <c r="S472" t="inlineStr"/>
-      <c r="T472" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S472" t="n">
+        <v>1188.362149047852</v>
+      </c>
+      <c r="T472" t="n">
+        <v>1302.197340175084</v>
+      </c>
       <c r="U472" t="n">
         <v>1302.197340175084</v>
       </c>
@@ -28118,10 +29562,14 @@
         <v>1182.652757481166</v>
       </c>
       <c r="R473" t="n">
-        <v>1</v>
-      </c>
-      <c r="S473" t="inlineStr"/>
-      <c r="T473" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="S473" t="n">
+        <v>1182.652757481166</v>
+      </c>
+      <c r="T473" t="n">
+        <v>1289.899143473307</v>
+      </c>
       <c r="U473" t="n">
         <v>1289.899143473307</v>
       </c>
@@ -28182,10 +29630,14 @@
         <v>1226.022914751838</v>
       </c>
       <c r="R474" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S474" t="inlineStr"/>
-      <c r="T474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S474" t="n">
+        <v>1148.70083211263</v>
+      </c>
+      <c r="T474" t="n">
+        <v>1226.022914751838</v>
+      </c>
       <c r="U474" t="n">
         <v>1226.022914751838</v>
       </c>
@@ -28246,10 +29698,14 @@
         <v>1226.022914751838</v>
       </c>
       <c r="R475" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S475" t="inlineStr"/>
-      <c r="T475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S475" t="n">
+        <v>1094.693032714844</v>
+      </c>
+      <c r="T475" t="n">
+        <v>1226.022914751838</v>
+      </c>
       <c r="U475" t="n">
         <v>1265.206991699219</v>
       </c>
@@ -28262,10 +29718,10 @@
         <v>45756</v>
       </c>
       <c r="B476" t="n">
-        <v>1184.5</v>
+        <v>1185.949951171875</v>
       </c>
       <c r="C476" t="n">
-        <v>1184.5</v>
+        <v>1185.949951171875</v>
       </c>
       <c r="D476" t="n">
         <v>1189.800048828125</v>
@@ -28277,7 +29733,7 @@
         <v>1169.5</v>
       </c>
       <c r="G476" t="n">
-        <v>4476242</v>
+        <v>4565534</v>
       </c>
       <c r="H476" t="n">
         <v>32.49998779296875</v>
@@ -28310,10 +29766,14 @@
         <v>1265.206991699219</v>
       </c>
       <c r="R476" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S476" t="inlineStr"/>
-      <c r="T476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="S476" t="n">
+        <v>1092.465489130435</v>
+      </c>
+      <c r="T476" t="n">
+        <v>1265.206991699219</v>
+      </c>
       <c r="U476" t="n">
         <v>1265.33455969769</v>
       </c>

--- a/RELIANCE.NS_adaptive_supertrend.xlsx
+++ b/RELIANCE.NS_adaptive_supertrend.xlsx
@@ -29718,10 +29718,10 @@
         <v>45756</v>
       </c>
       <c r="B476" t="n">
-        <v>1185.949951171875</v>
+        <v>1185.099975585938</v>
       </c>
       <c r="C476" t="n">
-        <v>1185.949951171875</v>
+        <v>1185.099975585938</v>
       </c>
       <c r="D476" t="n">
         <v>1189.800048828125</v>
@@ -29733,7 +29733,7 @@
         <v>1169.5</v>
       </c>
       <c r="G476" t="n">
-        <v>4565534</v>
+        <v>4580862</v>
       </c>
       <c r="H476" t="n">
         <v>32.49998779296875</v>
